--- a/DataDictionary/eCH-0160_xIsadg&EAD_v2.0.xlsx
+++ b/DataDictionary/eCH-0160_xIsadg&EAD_v2.0.xlsx
@@ -1515,7 +1515,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="495">
   <si>
     <t>archivierungsmodusLöschvorschriften</t>
   </si>
@@ -3024,33 +3024,9 @@
     <t>isad:title</t>
   </si>
   <si>
-    <t>//arelda:Ordnungssystemposition/arelda:/Titel</t>
-  </si>
-  <si>
-    <t>//arelda:Dossier/arelda:Titel</t>
-  </si>
-  <si>
-    <t>//arelda:Dokument/arelda:Titel</t>
-  </si>
-  <si>
     <t>isad:dates</t>
   </si>
   <si>
-    <t>//arelda:Ablieferung/arelda:Entstehungszeitraum
-//arelda:Provenienz/arelda:Existenzzeitraum
-//arelda:Ordnungssystem/arelda:Anwendungszeitraum</t>
-  </si>
-  <si>
-    <t>//arelda:Dossier/arelda:Eroeffnungsdatum
-//arelda:Dossier/arelda:Abschlussdatum
-//arelda:Dossier/arelda:Entstehungszeitraum
-//arelda:Dossier/arelda:Entstehungszeitraum Anmerkung</t>
-  </si>
-  <si>
-    <t>//arelda:Dokument/arelda:Registrierdatum
-//arelda:Dokument/arelda:Entstehungszeitraum</t>
-  </si>
-  <si>
     <t>isad:descriptionLevel</t>
   </si>
   <si>
@@ -3060,9 +3036,6 @@
     <t>isad:extent</t>
   </si>
   <si>
-    <t>//arelda:Dossier/arelda:Umfang</t>
-  </si>
-  <si>
     <t>isad:medium</t>
   </si>
   <si>
@@ -3072,27 +3045,15 @@
     <t>isad:creator</t>
   </si>
   <si>
-    <t>//arelda:Provenienz/arelda:AktenbildnerName</t>
-  </si>
-  <si>
-    <t>//arelda:Dokument/arelda:Autor</t>
-  </si>
-  <si>
     <t>isad:adminBioHistory</t>
   </si>
   <si>
-    <t>//arelda:Provenienz/arelda:GeschichteAktenbildner</t>
-  </si>
-  <si>
     <t>isad:archivalHistory</t>
   </si>
   <si>
     <t>isad:acqInfo</t>
   </si>
   <si>
-    <t>//arelda:Ablieferung/arelda:AblieferndeStelle</t>
-  </si>
-  <si>
     <t>contentStructure</t>
   </si>
   <si>
@@ -3102,36 +3063,18 @@
     <t>isad:scope</t>
   </si>
   <si>
-    <t>//arelda:Dossier/arelda:FormInhalt</t>
-  </si>
-  <si>
-    <t>//arelda:Dokument/arelda:Dokumenttyp</t>
-  </si>
-  <si>
     <t>isad:content</t>
   </si>
   <si>
-    <t>//arelda:Ablieferung/arelda:Ablieferungsteile</t>
-  </si>
-  <si>
-    <t>//arelda:Dossier/arelda:Inhalt</t>
-  </si>
-  <si>
     <t>isad:appraisalDestruction</t>
   </si>
   <si>
-    <t>//arelda:Ablieferung/arelda:ReferenzBewertungsentscheid</t>
-  </si>
-  <si>
     <t>isad:accruals</t>
   </si>
   <si>
     <t>isad:arrangement</t>
   </si>
   <si>
-    <t>//arelda:Ordnungssystem/arelda:Name</t>
-  </si>
-  <si>
     <t>conditionsAccessUse</t>
   </si>
   <si>
@@ -3141,48 +3084,18 @@
     <t>isad:hasPrivacyProtection</t>
   </si>
   <si>
-    <t>//arelda:Dossier/arelda:Datenschutz</t>
-  </si>
-  <si>
-    <t>//arelda:Dokument/arelda:Datenschutz</t>
-  </si>
-  <si>
     <t>isad:openToThePublic</t>
   </si>
   <si>
-    <t>//arelda:Dossier/arelda:Oeffentlickheitsstatus</t>
-  </si>
-  <si>
-    <t>//arelda:Dokument/arelda:Oeffentlickheitsstatus</t>
-  </si>
-  <si>
     <t>isad:classification</t>
   </si>
   <si>
-    <t>//arelda:Dossier/arelda:Klassifizierungskategorie</t>
-  </si>
-  <si>
-    <t>//arelda:Dokument/arelda:Klassifizierungskategorie</t>
-  </si>
-  <si>
     <t>isad:otherAccessConditions</t>
   </si>
   <si>
-    <t>//arelda:Dossier/arelda:sonstigeBestimmungen</t>
-  </si>
-  <si>
-    <t>//arelda:Dokument/arelda:sonstigeBestimmungen</t>
-  </si>
-  <si>
     <t>isad:accessConditionsNotes</t>
   </si>
   <si>
-    <t>//arelda:Dossier/arelda:OeffentlickheitsstatusBegruendung</t>
-  </si>
-  <si>
-    <t>//arelda:Dokument/arelda:OeffentlickheitsstatusBegruendung</t>
-  </si>
-  <si>
     <t>isad:reproConditions</t>
   </si>
   <si>
@@ -3192,12 +3105,6 @@
     <t>isad:physTech</t>
   </si>
   <si>
-    <t>//arelda:Dossier/arelda:Erscheinungsform</t>
-  </si>
-  <si>
-    <t>//arelda:Dokument/arelda:Erscheinungsform</t>
-  </si>
-  <si>
     <t>isad:findingAids</t>
   </si>
   <si>
@@ -3222,17 +3129,6 @@
     <t>isad:note</t>
   </si>
   <si>
-    <t>//arelda:Ablieferung/arelda:Bemerkung
-//arelda:Provenienz/arelda:Bemerkung
-//arelda:Ordnungssystem/arelda:Bemerkung</t>
-  </si>
-  <si>
-    <t>//arelda:Dossier/arelda:Bemerkung</t>
-  </si>
-  <si>
-    <t>//arelda:Dokument/arelda:Bemerkung</t>
-  </si>
-  <si>
     <t>descriptionControl</t>
   </si>
   <si>
@@ -3251,10 +3147,6 @@
     <t>isad:recordReference</t>
   </si>
   <si>
-    <t>//arelda:Dossier/arelda:Aktenzeichen
-//arelda:Dossier/arelda:Zusatzmerkmal</t>
-  </si>
-  <si>
     <t>isad:aipReference</t>
   </si>
   <si>
@@ -3267,50 +3159,6 @@
     <t>property</t>
   </si>
   <si>
-    <t>//arelda:Paket/arelda:Pakettyp
-//arelda:Paket/arelda:Schemaversion
-//arelda:Ablieferung/arelda:Ablieferungsnummer
-//arelda:Ablieferung/arelda:Ablieferungstyp
-//arelda:Ablieferung/arelda:Angebotsnummer
-//arelda:Provenienz/arelda:Systemname
-//arelda:Provenienz/arelda:Systembeschreibung
-//arelda:Provenienz/arelda:VerwandteSysteme
-//arelda:Provenienz/arelda:ArchivierungsmodusLoeschvorschriften
-//arelda:Provenienz/arelda:Registratur 
-//arelda:Ordnungssystem/arelda:Generation
-//arelda:Ordnungssystem/arelda:Mitbenutzung 
-Zusätzliche Ebene:
-//arelda:Paket/arelda:Zusatzdaten(key/value)
-//arelda:Ablieferung/arelda:Zusatzdaten(key/value)
-//arelda:Ordnungssystem/arelda:Zusatzdaten(key/value)</t>
-  </si>
-  <si>
-    <t>//arelda:Dossier/arelda:federfuehrendeOrganisationseinheit
-//arelda:Dossier/arelda:Vorgang
-//arelda(V1.1):Vorgang/arelda:Titel
-//arelda(V1.1):Vorgang/arelda:Arbeitsanweisung
-//arelda(V1.1):Vorgang/arelda:Federfuehrung
-//arelda(V1.1):Vorgang/arelda:Verweis
-//arelda(V1.1):Vorgang/arelda:Bemerkung
-//arelda(V1.1):Vorgang/arelda:Order
-//arelda(V1.1):Aktivitaet/arelda:Vorschreibung
-//arelda(V1.1):Aktivitaet/arelda:Anweisung
-//arelda(V1.1):Aktivitaet/arelda:Bearbeiter
-//arelda(V1.1):Aktivitaet/arelda:Abschlussdatum
-//arelda(V1.1):Aktivitaet/arelda:Verweis
-//arelda(V1.1):Aktivitaet/arelda:Bemerkung
-//arelda(V1.1):Aktivitaet/arelda:Order
-Zusätzliche Ebene:
-//arelda:Dossier/arelda:Zusatzdaten(key/value)
-//arelda(V1.1):Vorgang/arelda:Zusatzdaten(key/value)
-//arelda(V1.1):Aktivitaet/arelda:Zusatzdaten(key/value)</t>
-  </si>
-  <si>
-    <t>//arelda:Dokument/arelda:Anwendung
-Zusätzliche Ebene:
-//arelda:Dokument/arelda:Zusatzdaten(key/value)</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -3342,28 +3190,6 @@
   </si>
   <si>
     <t xml:space="preserve"> xIsadg v2.0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>//arelda:Ordnungssystemposition/arelda:/Nummer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-//arelda:Ordnungssystemposition/arelda:/FederfuehrendeOrganisationseinheit
-Zusätzliche Ebene:
-//arelda:Ordnungssystemposition/arelda:/Zusatzdaten(key/value)</t>
-    </r>
   </si>
   <si>
     <t>isad:fromDate
@@ -3408,53 +3234,340 @@
     <t>isad:retentionPeriodNotes</t>
   </si>
   <si>
-    <t>//arelda:Ordnungssystemposition/arelda:schutzfrist</t>
-  </si>
-  <si>
-    <t>//arelda:Ordnungssystemposition/arelda:schutzfristenkategorie</t>
-  </si>
-  <si>
-    <t>//arelda:Ordnungssystemposition/arelda:referenzSchutzfristenFormular</t>
-  </si>
-  <si>
-    <t>//arelda:Dossier/arelda:schutzfrist</t>
-  </si>
-  <si>
-    <t>//arelda:Dossier/arelda:schutzfristenkategorie</t>
-  </si>
-  <si>
-    <t>//arelda:Dossier/arelda:referenzSchutzfristenFormular</t>
-  </si>
-  <si>
-    <t>//arelda:Ordnungssystemposition/arelda:Datenschutz</t>
-  </si>
-  <si>
-    <t>//arelda:Ordnungssystemposition/arelda:Oeffentlickheitsstatus</t>
-  </si>
-  <si>
-    <t>//arelda:Ordnungssystemposition/arelda:Klassifizierungskategorie</t>
-  </si>
-  <si>
-    <t>//arelda:Ordnungssystemposition/arelda:sonstigeBestimmungen</t>
-  </si>
-  <si>
-    <t>//arelda:Ordnungssystemposition/arelda:OeffentlickheitsstatusBegruendung</t>
-  </si>
-  <si>
-    <t>//arelda:Ablieferung/arelda:schutzfrist</t>
-  </si>
-  <si>
-    <t>//arelda:Ablieferung/arelda:schutzfristenkategorie</t>
-  </si>
-  <si>
-    <t>//arelda:Ablieferung/arelda:referenzSchutzfristenFormular</t>
+    <t>GRÜN</t>
+  </si>
+  <si>
+    <t>nur FILES SIP</t>
+  </si>
+  <si>
+    <t>//arelda:ordnungssystemposition/arelda:sonstigeBestimmungen</t>
+  </si>
+  <si>
+    <t>//arelda:ordnungssystemposition/arelda:schutzfrist</t>
+  </si>
+  <si>
+    <t>//arelda:ordnungssystemposition/arelda:schutzfristenkategorie</t>
+  </si>
+  <si>
+    <t>//arelda:ordnungssystemposition/arelda:schutzvorschriftenBegruendung</t>
+  </si>
+  <si>
+    <t>dossier</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:sonstigeBestimmungen</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:schutzfrist</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:schutzfristenkategorie</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:schutzvorschriftenBegruendung</t>
+  </si>
+  <si>
+    <t>//arelda:ordnungssystemposition/arelda:/titel</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:titel</t>
+  </si>
+  <si>
+    <t>dokument</t>
+  </si>
+  <si>
+    <t>//arelda:dokument/arelda:titel</t>
+  </si>
+  <si>
+    <t>//arelda:dokument/arelda:dokumenttyp</t>
+  </si>
+  <si>
+    <t>//arelda:dokument/arelda:sonstigeBestimmungen</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:bemerkung</t>
+  </si>
+  <si>
+    <t>//arelda:dokument/arelda:bemerkung</t>
+  </si>
+  <si>
+    <t>//arelda:ordnungssystemposition/arelda:oeffentlichkeitsstatus</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:oeffentlichkeitsstatus</t>
+  </si>
+  <si>
+    <t>//arelda:dokument/arelda:oeffentlichkeitsstatus</t>
+  </si>
+  <si>
+    <t>//arelda:ordnungssystemposition/arelda:oeffentlichkeitsstatusBegruendung</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:oeffentlichkeitsstatusBegruendung</t>
+  </si>
+  <si>
+    <t>//arelda:dokument/arelda:oeffentlichkeitsstatusBegruendung</t>
+  </si>
+  <si>
+    <t>//arelda:ordnungssystemposition/arelda:datenschutz</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:datenschutz</t>
+  </si>
+  <si>
+    <t>//arelda:dokument/arelda:datenschutz</t>
+  </si>
+  <si>
+    <t>//arelda:ordnungssystemposition/arelda:klassifizierungskategorie</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:klassifizierungskategorie</t>
+  </si>
+  <si>
+    <t>//arelda:dokument/arelda:klassifizierungskategorie</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:erscheinungsform</t>
+  </si>
+  <si>
+    <t>//arelda:dokument/arelda:erscheinungsform</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:eroeffnungsdatum
+//arelda:dossier/arelda:abschlussdatum
+//arelda:dossier/arelda:entstehungszeitraum
+//arelda:dossier/arelda:entstehungszeitraumAnmerkung</t>
+  </si>
+  <si>
+    <t>//arelda:dokument/arelda:registrierdatum
+//arelda:dokument/arelda:entstehungszeitraum</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:umfang</t>
+  </si>
+  <si>
+    <t>//arelda:dokument/arelda:autor</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:formInhalt</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:inhalt</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:aktenzeichen
+//arelda:dossier/arelda:zusatzmerkmal</t>
+  </si>
+  <si>
+    <t>//arelda:ablieferung/arelda:AblieferndeStelle</t>
+  </si>
+  <si>
+    <t>//arelda:ablieferung/arelda:ablieferungsteile</t>
+  </si>
+  <si>
+    <t>//arelda:ablieferung/arelda:ReferenzBewertungsentscheid</t>
+  </si>
+  <si>
+    <t>//arelda:ablieferung/arelda:schutzfrist</t>
+  </si>
+  <si>
+    <t>//arelda:ablieferung/arelda:schutzfristenkategorie</t>
+  </si>
+  <si>
+    <t>//arelda:ablieferung/arelda:referenzSchutzfristenFormular</t>
+  </si>
+  <si>
+    <t>//arelda:provenienz/arelda:AktenbildnerName</t>
+  </si>
+  <si>
+    <t>//arelda:provenienz/arelda:GeschichteAktenbildner</t>
+  </si>
+  <si>
+    <t>//arelda:ablieferung/arelda:entstehungszeitraum
+//arelda:provenienz/arelda:existenzzeitraum
+//arelda:ordnungssystem/arelda:anwendungszeitraum</t>
+  </si>
+  <si>
+    <t>//arelda:ordnungssystem/arelda:Name</t>
+  </si>
+  <si>
+    <t>//arelda:ablieferung/arelda:bemerkung
+//arelda:provenienz/arelda:bemerkung
+//arelda:ordnungssystem/arelda:bemerkung</t>
+  </si>
+  <si>
+    <t>//arelda:paket/arelda:zusatzDaten
+//arelda:ablieferung/arelda:zusatzDaten</t>
+  </si>
+  <si>
+    <t>//arelda:ordnungssystemposition/arelda:zusatzDaten
+//arelda:ordnungssystem/arelda:zusatzDaten</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:zusatzDaten</t>
+  </si>
+  <si>
+    <t>//arelda:dokument/arelda:zusatzDaten</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//arelda:provenienz/arelda:systemName
+//arelda:provenienz/arelda:systemBeschreibung
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>//arelda:provenienz/arelda:verwandteSysteme
+//arelda:provenienz/arelda:ArchivierungsmodusLoeschvorschriften</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+//arelda:provenienz/arelda:registratur </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//arelda:paket/arelda:paketTyp
+//arelda:paket/arelda:schemaVersion
+//arelda:ablieferung/arelda:ablieferungsnummer
+//arelda:ablieferung/arelda:ablieferungstyp
+//arelda:ablieferung/arelda:angebotsnummer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">//arelda:provenienz/arelda:systemname
+//arelda:provenienz/arelda:systembeschreibung
+//arelda:provenienz/arelda:verwandteSysteme
+//arelda:provenienz/arelda:archivierungsmodusLoeschvorschriften
+//arelda:provenienz/arelda:registratur </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+//arelda:ordnungssystem/arelda:generation
+//arelda:ordnungssystem/arelda:mitbenutzung 
+Zusätzliche Ebene:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>//arelda:paket/arelda:zusatzDaten(key/value)
+//arelda:ablieferung/arelda:zusatzDaten(key/value)
+//arelda:ordnungssystem/arelda:zusatzDaten(key/value)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//arelda:ordnungssystemposition/arelda:/nummer
+//arelda:ordnungssystemposition/arelda:/federfuehrendeOrganisationseinheit
+Zusätzliche Ebene:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>//arelda:ordnungssystemposition/arelda:/zusatzDaten(key/value)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//arelda:dokument/arelda:anwendung
+Zusätzliche Ebene:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>//arelda:dokument/arelda:zusatzDaten(key/value)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//arelda:dossier/arelda:federfuehrendeOrganisationseinheit
+//arelda:dossier/arelda:vorgang
+//arelda(v1.1):vorgang/arelda:titel
+//arelda(v1.1):vorgang/arelda:arbeitsanweisung
+//arelda(v1.1):vorgang/arelda:federfuehrung
+//arelda(v1.1):vorgang/arelda:verweis
+//arelda(v1.1):vorgang/arelda:bemerkung
+//arelda(v1.1):vorgang/arelda:order
+//arelda(v1.1):aktivitaet/arelda:vorschreibung
+//arelda(v1.1):aktivitaet/arelda:anweisung
+//arelda(v1.1):aktivitaet/arelda:bearbeiter
+//arelda(v1.1):aktivitaet/arelda:abschlussdatum
+//arelda(v1.1):aktivitaet/arelda:verweis
+//arelda(v1.1):aktivitaet/arelda:bemerkung
+//arelda(v1.1):aktivitaet/arelda:order
+Zusätzliche Ebene:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>//arelda:dossier/arelda:zusatzDaten(key/value)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+//arelda(V1.1):vorgang/arelda:zusatzDaten(key/value)
+//arelda(V1.1):aktivitaet/arelda:zusatzDaten(key/value)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3645,8 +3758,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3701,6 +3833,12 @@
         <bgColor rgb="FFFDE9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="69">
     <border>
@@ -4608,7 +4746,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5148,6 +5286,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5214,6 +5400,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5234,54 +5432,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5289,14 +5439,7 @@
     <cellStyle name="Standard 2" xfId="1"/>
     <cellStyle name="Standard 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -5722,18 +5865,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A1" s="183" t="s">
-        <v>467</v>
-      </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
+      <c r="A1" s="199" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" thickBot="1">
       <c r="A2" s="12" t="s">
@@ -5766,11 +5909,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="197"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="213"/>
       <c r="D3" s="45" t="s">
         <v>291</v>
       </c>
@@ -5852,14 +5995,14 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A7" s="202" t="s">
+      <c r="A7" s="218" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="203"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
-      <c r="F7" s="204"/>
+      <c r="B7" s="219"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="220"/>
       <c r="G7" s="76"/>
       <c r="H7" s="11" t="s">
         <v>112</v>
@@ -5928,11 +6071,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A11" s="199" t="s">
+      <c r="A11" s="215" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="200"/>
-      <c r="C11" s="201"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="217"/>
       <c r="D11" s="33" t="s">
         <v>18</v>
       </c>
@@ -6200,7 +6343,7 @@
       <c r="F24" s="72"/>
       <c r="G24" s="78"/>
       <c r="H24" s="51"/>
-      <c r="J24" s="184" t="s">
+      <c r="J24" s="200" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6219,7 +6362,7 @@
       <c r="F25" s="81"/>
       <c r="G25" s="28"/>
       <c r="H25" s="51"/>
-      <c r="J25" s="185"/>
+      <c r="J25" s="201"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="34" t="s">
@@ -6236,7 +6379,7 @@
       <c r="F26" s="27"/>
       <c r="G26" s="78"/>
       <c r="H26" s="51"/>
-      <c r="J26" s="185"/>
+      <c r="J26" s="201"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" thickBot="1">
       <c r="A27" s="85"/>
@@ -6251,7 +6394,7 @@
       <c r="F27" s="81"/>
       <c r="G27" s="28"/>
       <c r="H27" s="51"/>
-      <c r="J27" s="185"/>
+      <c r="J27" s="201"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1">
       <c r="A28" s="61"/>
@@ -6267,13 +6410,13 @@
         <v>19</v>
       </c>
       <c r="G28" s="94"/>
-      <c r="H28" s="187" t="s">
+      <c r="H28" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="I28" s="190" t="s">
+      <c r="I28" s="206" t="s">
         <v>265</v>
       </c>
-      <c r="J28" s="185"/>
+      <c r="J28" s="201"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="61"/>
@@ -6289,9 +6432,9 @@
         <v>9</v>
       </c>
       <c r="G29" s="28"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="185"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="207"/>
+      <c r="J29" s="201"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="61"/>
@@ -6307,9 +6450,9 @@
         <v>14</v>
       </c>
       <c r="G30" s="28"/>
-      <c r="H30" s="188"/>
-      <c r="I30" s="191"/>
-      <c r="J30" s="185"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="207"/>
+      <c r="J30" s="201"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1">
       <c r="A31" s="61"/>
@@ -6325,9 +6468,9 @@
         <v>34</v>
       </c>
       <c r="G31" s="92"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="191"/>
-      <c r="J31" s="185"/>
+      <c r="H31" s="204"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="201"/>
     </row>
     <row r="32" spans="1:10" ht="13.5" thickBot="1">
       <c r="A32" s="61"/>
@@ -6343,9 +6486,9 @@
         <v>13</v>
       </c>
       <c r="G32" s="20"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="186"/>
+      <c r="H32" s="205"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="202"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" thickBot="1">
       <c r="A33" s="62"/>
@@ -6478,10 +6621,10 @@
       <c r="J39" s="136"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="198" t="s">
+      <c r="A40" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="198"/>
+      <c r="B40" s="214"/>
       <c r="C40" s="55"/>
       <c r="D40" s="53"/>
       <c r="E40" s="53"/>
@@ -6491,10 +6634,10 @@
       <c r="J40" s="136"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="198" t="s">
+      <c r="A41" s="214" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="198"/>
+      <c r="B41" s="214"/>
       <c r="C41" s="56"/>
       <c r="D41" s="53"/>
       <c r="E41" s="53"/>
@@ -6504,10 +6647,10 @@
       <c r="J41" s="136"/>
     </row>
     <row r="42" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A42" s="193" t="s">
+      <c r="A42" s="209" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="194"/>
+      <c r="B42" s="210"/>
       <c r="C42" s="57"/>
       <c r="D42" s="53"/>
       <c r="E42" s="53"/>
@@ -6780,10 +6923,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="58.7109375" defaultRowHeight="12.75"/>
@@ -6793,7 +6936,7 @@
     <col min="3" max="3" width="49.5703125" style="177" customWidth="1"/>
     <col min="4" max="4" width="55.5703125" style="177" customWidth="1"/>
     <col min="5" max="5" width="2.7109375" style="173" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="172" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="172" customWidth="1"/>
     <col min="7" max="7" width="4.140625" style="172" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.5703125" style="172" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.28515625" style="172" customWidth="1"/>
@@ -6801,48 +6944,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A1" s="220" t="s">
-        <v>466</v>
-      </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
+      <c r="A1" s="224" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
     </row>
     <row r="2" spans="1:9" s="159" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="184" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="185" t="s">
         <v>366</v>
       </c>
-      <c r="C2" s="215" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="215" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="218" t="s">
-        <v>463</v>
-      </c>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="217"/>
+      <c r="C2" s="186" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" s="186" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" s="221" t="s">
+        <v>427</v>
+      </c>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="223"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="163"/>
       <c r="B3" s="163"/>
       <c r="C3" s="163"/>
       <c r="D3" s="163"/>
-      <c r="E3" s="221">
+      <c r="E3" s="188">
         <v>1</v>
       </c>
-      <c r="F3" s="212" t="s">
+      <c r="F3" s="183" t="s">
         <v>367</v>
       </c>
       <c r="G3" s="162"/>
@@ -6877,13 +7020,13 @@
         <v>369</v>
       </c>
       <c r="B5" s="163" t="s">
-        <v>372</v>
+        <v>446</v>
       </c>
       <c r="C5" s="163" t="s">
-        <v>373</v>
+        <v>447</v>
       </c>
       <c r="D5" s="163" t="s">
-        <v>374</v>
+        <v>449</v>
       </c>
       <c r="E5" s="161"/>
       <c r="F5" s="162"/>
@@ -6906,27 +7049,27 @@
         <v>1.3</v>
       </c>
       <c r="H6" s="160" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I6" s="162"/>
     </row>
     <row r="7" spans="1:9" ht="51.75" customHeight="1">
       <c r="A7" s="164" t="s">
-        <v>376</v>
+        <v>483</v>
       </c>
       <c r="B7" s="162"/>
       <c r="C7" s="165" t="s">
-        <v>377</v>
+        <v>468</v>
       </c>
       <c r="D7" s="165" t="s">
-        <v>378</v>
+        <v>469</v>
       </c>
       <c r="E7" s="161"/>
       <c r="F7" s="162"/>
-      <c r="G7" s="226"/>
+      <c r="G7" s="193"/>
       <c r="H7" s="162"/>
-      <c r="I7" s="219" t="s">
-        <v>465</v>
+      <c r="I7" s="187" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6948,7 +7091,7 @@
         <v>1.4</v>
       </c>
       <c r="H8" s="168" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I8" s="169"/>
     </row>
@@ -6963,7 +7106,7 @@
         <v>1.5</v>
       </c>
       <c r="H9" s="160" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="I9" s="162"/>
     </row>
@@ -6977,7 +7120,7 @@
       <c r="G10" s="162"/>
       <c r="H10" s="162"/>
       <c r="I10" s="170" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6990,18 +7133,18 @@
       <c r="G11" s="162"/>
       <c r="H11" s="162"/>
       <c r="I11" s="171" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="163"/>
       <c r="B12" s="163"/>
-      <c r="C12" s="163" t="s">
-        <v>382</v>
+      <c r="C12" s="196" t="s">
+        <v>470</v>
       </c>
       <c r="D12" s="163"/>
       <c r="I12" s="171" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7013,29 +7156,29 @@
         <v>2</v>
       </c>
       <c r="F13" s="160" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="163" t="s">
-        <v>386</v>
+        <v>481</v>
       </c>
       <c r="B14" s="163"/>
       <c r="C14" s="163"/>
       <c r="D14" s="163" t="s">
-        <v>387</v>
+        <v>471</v>
       </c>
       <c r="G14" s="169">
         <v>2.1</v>
       </c>
       <c r="H14" s="160" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I14" s="162"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="163" t="s">
-        <v>389</v>
+        <v>482</v>
       </c>
       <c r="B15" s="163"/>
       <c r="C15" s="163"/>
@@ -7044,12 +7187,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H15" s="160" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="I15" s="162"/>
     </row>
-    <row r="16" spans="1:9" s="172" customFormat="1">
-      <c r="A16" s="162"/>
+    <row r="16" spans="1:9" s="172" customFormat="1" ht="63.75">
+      <c r="A16" s="198" t="s">
+        <v>490</v>
+      </c>
       <c r="B16" s="162"/>
       <c r="C16" s="162"/>
       <c r="D16" s="162"/>
@@ -7058,13 +7203,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H16" s="160" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="I16" s="162"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="163" t="s">
-        <v>392</v>
+        <v>475</v>
       </c>
       <c r="B17" s="163"/>
       <c r="C17" s="163"/>
@@ -7073,7 +7218,7 @@
         <v>2.4</v>
       </c>
       <c r="H17" s="160" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="I17" s="162"/>
     </row>
@@ -7092,7 +7237,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="160" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -7104,40 +7249,40 @@
         <v>3.1</v>
       </c>
       <c r="H20" s="160" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="163"/>
       <c r="B21" s="163"/>
       <c r="C21" s="163" t="s">
-        <v>396</v>
+        <v>472</v>
       </c>
       <c r="D21" s="163" t="s">
-        <v>397</v>
-      </c>
-      <c r="G21" s="227"/>
+        <v>450</v>
+      </c>
+      <c r="G21" s="194"/>
       <c r="I21" s="174" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="163" t="s">
-        <v>399</v>
+        <v>476</v>
       </c>
       <c r="B22" s="163"/>
       <c r="C22" s="163" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="D22" s="163"/>
       <c r="G22" s="171"/>
       <c r="I22" s="170" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="163" t="s">
-        <v>402</v>
+        <v>477</v>
       </c>
       <c r="B23" s="163"/>
       <c r="C23" s="163"/>
@@ -7146,7 +7291,7 @@
         <v>3.2</v>
       </c>
       <c r="H23" s="160" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="I23" s="162"/>
     </row>
@@ -7159,13 +7304,13 @@
         <v>3.3</v>
       </c>
       <c r="H24" s="160" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="I24" s="162"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="163" t="s">
-        <v>405</v>
+        <v>484</v>
       </c>
       <c r="B25" s="163"/>
       <c r="C25" s="163"/>
@@ -7174,7 +7319,7 @@
         <v>3.4</v>
       </c>
       <c r="H25" s="160" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="I25" s="162"/>
     </row>
@@ -7194,7 +7339,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="160" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -7206,144 +7351,144 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="H28" s="160" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="I28" s="162"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="163"/>
       <c r="B29" s="163" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="C29" s="163" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="D29" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="G29" s="227"/>
+        <v>462</v>
+      </c>
+      <c r="G29" s="194"/>
       <c r="H29" s="162"/>
       <c r="I29" s="169" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="163"/>
       <c r="B30" s="163" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="C30" s="163" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="D30" s="163" t="s">
-        <v>413</v>
-      </c>
-      <c r="G30" s="226"/>
+        <v>456</v>
+      </c>
+      <c r="G30" s="193"/>
       <c r="H30" s="162"/>
       <c r="I30" s="174" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="163"/>
       <c r="B31" s="163" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="C31" s="163" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="D31" s="163" t="s">
-        <v>416</v>
-      </c>
-      <c r="G31" s="226"/>
+        <v>465</v>
+      </c>
+      <c r="G31" s="193"/>
       <c r="H31" s="162"/>
       <c r="I31" s="174" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="163"/>
       <c r="B32" s="163" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="C32" s="163" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="D32" s="163" t="s">
-        <v>419</v>
-      </c>
-      <c r="G32" s="226"/>
+        <v>451</v>
+      </c>
+      <c r="G32" s="193"/>
       <c r="H32" s="162"/>
       <c r="I32" s="169" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="163"/>
       <c r="B33" s="163" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="C33" s="163" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
       <c r="D33" s="163" t="s">
-        <v>422</v>
-      </c>
-      <c r="G33" s="226"/>
+        <v>459</v>
+      </c>
+      <c r="G33" s="193"/>
       <c r="H33" s="162"/>
       <c r="I33" s="169" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="163" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B34" s="163" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="C34" s="163" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="D34" s="163"/>
-      <c r="G34" s="226"/>
+      <c r="G34" s="193"/>
       <c r="H34" s="162"/>
       <c r="I34" s="160" t="s">
-        <v>469</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="163" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B35" s="163" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="C35" s="163" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="D35" s="163"/>
-      <c r="G35" s="226"/>
+      <c r="G35" s="193"/>
       <c r="H35" s="162"/>
       <c r="I35" s="160" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="163" t="s">
-        <v>485</v>
-      </c>
-      <c r="B36" s="163" t="s">
-        <v>474</v>
-      </c>
-      <c r="C36" s="163" t="s">
-        <v>477</v>
+        <v>480</v>
+      </c>
+      <c r="B36" s="195" t="s">
+        <v>440</v>
+      </c>
+      <c r="C36" s="195" t="s">
+        <v>445</v>
       </c>
       <c r="D36" s="163"/>
-      <c r="G36" s="226"/>
+      <c r="G36" s="193"/>
       <c r="H36" s="162"/>
       <c r="I36" s="160" t="s">
-        <v>471</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -7351,7 +7496,7 @@
       <c r="B37" s="163"/>
       <c r="C37" s="163"/>
       <c r="D37" s="163"/>
-      <c r="G37" s="226"/>
+      <c r="G37" s="193"/>
       <c r="H37" s="162"/>
       <c r="I37" s="162"/>
     </row>
@@ -7364,7 +7509,7 @@
         <v>4.2</v>
       </c>
       <c r="H38" s="160" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="I38" s="162"/>
     </row>
@@ -7377,7 +7522,7 @@
         <v>4.3</v>
       </c>
       <c r="H39" s="160" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="I39" s="162"/>
     </row>
@@ -7385,16 +7530,16 @@
       <c r="A40" s="163"/>
       <c r="B40" s="163"/>
       <c r="C40" s="163" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="D40" s="163" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="G40" s="169">
         <v>4.4000000000000004</v>
       </c>
       <c r="H40" s="168" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="I40" s="162"/>
     </row>
@@ -7407,7 +7552,7 @@
         <v>4.5</v>
       </c>
       <c r="H41" s="160" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="I41" s="162"/>
     </row>
@@ -7428,7 +7573,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="160" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -7440,7 +7585,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H44" s="160" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -7452,7 +7597,7 @@
         <v>5.2</v>
       </c>
       <c r="H45" s="160" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -7464,7 +7609,7 @@
         <v>5.3</v>
       </c>
       <c r="H46" s="160" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -7476,7 +7621,7 @@
         <v>5.4</v>
       </c>
       <c r="H47" s="160" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -7496,27 +7641,27 @@
         <v>6</v>
       </c>
       <c r="F49" s="160" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="H49" s="162"/>
       <c r="I49" s="162"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
       <c r="A50" s="164" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="B50" s="163"/>
       <c r="C50" s="163" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="D50" s="163" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="G50" s="169">
         <v>6.1</v>
       </c>
       <c r="H50" s="160" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="I50" s="162"/>
     </row>
@@ -7537,7 +7682,7 @@
         <v>7</v>
       </c>
       <c r="F52" s="160" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="H52" s="162"/>
       <c r="I52" s="162"/>
@@ -7551,7 +7696,7 @@
         <v>7.1</v>
       </c>
       <c r="H53" s="160" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="I53" s="162"/>
     </row>
@@ -7564,7 +7709,7 @@
         <v>7.2</v>
       </c>
       <c r="H54" s="160" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="I54" s="162"/>
     </row>
@@ -7577,7 +7722,7 @@
         <v>7.3</v>
       </c>
       <c r="H55" s="160" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="I55" s="162"/>
     </row>
@@ -7596,7 +7741,7 @@
       <c r="D57" s="163"/>
       <c r="E57" s="161"/>
       <c r="F57" s="160" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="G57" s="160"/>
       <c r="H57" s="160"/>
@@ -7606,12 +7751,12 @@
       <c r="A58" s="163"/>
       <c r="B58" s="163"/>
       <c r="C58" s="164" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="D58" s="163"/>
       <c r="G58" s="160"/>
       <c r="H58" s="160" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="I58" s="162"/>
     </row>
@@ -7622,7 +7767,7 @@
       <c r="D59" s="163"/>
       <c r="G59" s="160"/>
       <c r="H59" s="175" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="I59" s="162"/>
     </row>
@@ -7639,96 +7784,104 @@
       <c r="D61" s="164"/>
       <c r="E61" s="161"/>
       <c r="F61" s="160" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="G61" s="162"/>
       <c r="H61" s="162"/>
       <c r="I61" s="162"/>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="164"/>
-      <c r="B62" s="163"/>
-      <c r="C62" s="164"/>
-      <c r="D62" s="163"/>
+    <row r="62" spans="1:9" ht="25.5">
+      <c r="A62" s="164" t="s">
+        <v>486</v>
+      </c>
+      <c r="B62" s="164" t="s">
+        <v>487</v>
+      </c>
+      <c r="C62" s="164" t="s">
+        <v>488</v>
+      </c>
+      <c r="D62" s="163" t="s">
+        <v>489</v>
+      </c>
       <c r="G62" s="160"/>
       <c r="H62" s="160" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="I62" s="162"/>
     </row>
     <row r="63" spans="1:9" ht="275.25" customHeight="1">
       <c r="A63" s="164" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="B63" s="164" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="C63" s="176" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="D63" s="176" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="G63" s="162"/>
       <c r="I63" s="169" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="G64" s="162"/>
       <c r="I64" s="166" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="5:9">
       <c r="G65" s="160"/>
       <c r="H65" s="160" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="I65" s="169"/>
     </row>
     <row r="68" spans="5:9">
-      <c r="E68" s="222" t="s">
-        <v>455</v>
-      </c>
+      <c r="E68" s="189"/>
       <c r="F68" s="178" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="G68" s="172" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="5:9">
-      <c r="E69" s="223" t="s">
-        <v>457</v>
-      </c>
+      <c r="E69" s="190"/>
       <c r="F69" s="179" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="G69" s="172" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="5:9">
-      <c r="E70" s="224" t="s">
-        <v>459</v>
-      </c>
+      <c r="E70" s="191"/>
       <c r="F70" s="180" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="G70" s="172" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="5:9">
-      <c r="E71" s="225" t="s">
-        <v>461</v>
-      </c>
+      <c r="E71" s="192"/>
       <c r="F71" s="181" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="G71" s="182" t="s">
-        <v>462</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="72" spans="5:9">
+      <c r="F72" s="197" t="s">
+        <v>435</v>
+      </c>
+      <c r="G72" s="172" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -7736,13 +7889,23 @@
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:I65 A3:D65">
-    <cfRule type="expression" dxfId="3" priority="12">
+  <conditionalFormatting sqref="F3:I15 A3:D15 A17:I65">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E65">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="E3:E15">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:D16 F16:I16">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7759,7 +7922,7 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
@@ -7778,16 +7941,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="225" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="207"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" thickBot="1">
       <c r="A2" s="145" t="s">
@@ -8746,17 +8909,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="231" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="228" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="209"/>
+      <c r="B2" s="229"/>
       <c r="C2" s="100" t="s">
         <v>52</v>
       </c>
@@ -9111,19 +9274,19 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="210" t="s">
+      <c r="A37" s="230" t="s">
         <v>362</v>
       </c>
-      <c r="B37" s="210"/>
+      <c r="B37" s="230"/>
       <c r="C37" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="210" t="s">
+      <c r="A38" s="230" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="210"/>
+      <c r="B38" s="230"/>
       <c r="C38" s="104" t="s">
         <v>149</v>
       </c>

--- a/DataDictionary/eCH-0160_xIsadg&EAD_v2.0.xlsx
+++ b/DataDictionary/eCH-0160_xIsadg&EAD_v2.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="5970" windowWidth="25260" windowHeight="6030" tabRatio="861" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="5970" windowWidth="10230" windowHeight="1725" tabRatio="861" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="eCH-0160 zu xIsadg v1.6.1" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_ftnref2" localSheetId="2">xIsadg_DataDictionary!#REF!</definedName>
     <definedName name="_ftnref3" localSheetId="2">xIsadg_DataDictionary!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'eCH-0160 zu xIsadg v1.6.1'!$A$1:$J$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'eCH-0160 zu xIsadg v2.0'!$A$1:$I$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'eCH-0160 zu xIsadg v2.0'!$A$1:$I$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'ISAD(G)'!$A$1:$C$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">xIsadg_DataDictionary!$A$1:$H$41</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">xIsadg_DataDictionary!$2:$2</definedName>
@@ -1515,7 +1515,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="497">
   <si>
     <t>archivierungsmodusLöschvorschriften</t>
   </si>
@@ -3276,9 +3276,6 @@
     <t>dokument</t>
   </si>
   <si>
-    <t>//arelda:dokument/arelda:titel</t>
-  </si>
-  <si>
     <t>//arelda:dokument/arelda:dokumenttyp</t>
   </si>
   <si>
@@ -3343,9 +3340,6 @@
 //arelda:dokument/arelda:entstehungszeitraum</t>
   </si>
   <si>
-    <t>//arelda:dossier/arelda:umfang</t>
-  </si>
-  <si>
     <t>//arelda:dokument/arelda:autor</t>
   </si>
   <si>
@@ -3394,14 +3388,6 @@
     <t>//arelda:ablieferung/arelda:bemerkung
 //arelda:provenienz/arelda:bemerkung
 //arelda:ordnungssystem/arelda:bemerkung</t>
-  </si>
-  <si>
-    <t>//arelda:paket/arelda:zusatzDaten
-//arelda:ablieferung/arelda:zusatzDaten</t>
-  </si>
-  <si>
-    <t>//arelda:ordnungssystemposition/arelda:zusatzDaten
-//arelda:ordnungssystem/arelda:zusatzDaten</t>
   </si>
   <si>
     <t>//arelda:dossier/arelda:zusatzDaten</t>
@@ -3438,8 +3424,79 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">//arelda:paket/arelda:paketTyp
-//arelda:paket/arelda:schemaVersion
+      <t xml:space="preserve">//arelda:ordnungssystemposition/arelda:/nummer
+//arelda:ordnungssystemposition/arelda:/federfuehrendeOrganisationseinheit
+Zusätzliche Ebene:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>//arelda:ordnungssystemposition/arelda:/zusatzDaten(key/value)</t>
+    </r>
+  </si>
+  <si>
+    <t>//arelda:ordnungssystemposition/arelda:zusatzDaten</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//arelda:paket/arelda:zusatzDaten
+//arelda:ablieferung/arelda:zusatzDaten
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>//arelda:ordnungssystem/arelda:zusatzDaten</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>//arelda:paket/@xmlns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+//arelda:paket/arelda:paketTyp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>//arelda:paket/@schemaVersion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 //arelda:ablieferung/arelda:ablieferungsnummer
 //arelda:ablieferung/arelda:ablieferungstyp
 //arelda:ablieferung/arelda:angebotsnummer
@@ -3486,26 +3543,35 @@
     </r>
   </si>
   <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>noch nicht umgesetzt</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">//arelda:ordnungssystemposition/arelda:/nummer
-//arelda:ordnungssystemposition/arelda:/federfuehrendeOrganisationseinheit
-Zusätzliche Ebene:
+      <t xml:space="preserve">//arelda:dokument/arelda:anwendung
 </t>
     </r>
     <r>
       <rPr>
-        <strike/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">//arelda:datei/arelda:name
+//arelda:datei/arelda:originalName
+</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>//arelda:ordnungssystemposition/arelda:/zusatzDaten(key/value)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">//arelda:dokument/arelda:anwendung
+      <t xml:space="preserve">
 Zusätzliche Ebene:
 </t>
     </r>
@@ -3522,21 +3588,56 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">//arelda:dokument/arelda:titel [GEVER]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>//arelda:datei/arelda:name [FILES]
+//arelda:datei/arelda:originalName [FILES]</t>
+    </r>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:umfang [FILES]</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">//arelda:dossier/arelda:federfuehrendeOrganisationseinheit
 //arelda:dossier/arelda:vorgang
-//arelda(v1.1):vorgang/arelda:titel
-//arelda(v1.1):vorgang/arelda:arbeitsanweisung
-//arelda(v1.1):vorgang/arelda:federfuehrung
-//arelda(v1.1):vorgang/arelda:verweis
-//arelda(v1.1):vorgang/arelda:bemerkung
-//arelda(v1.1):vorgang/arelda:order
-//arelda(v1.1):aktivitaet/arelda:vorschreibung
-//arelda(v1.1):aktivitaet/arelda:anweisung
-//arelda(v1.1):aktivitaet/arelda:bearbeiter
-//arelda(v1.1):aktivitaet/arelda:abschlussdatum
-//arelda(v1.1):aktivitaet/arelda:verweis
-//arelda(v1.1):aktivitaet/arelda:bemerkung
-//arelda(v1.1):aktivitaet/arelda:order
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">//arelda:vorgang/arelda:titel [v1.1]
+//arelda:vorgang/arelda:arbeitsanweisung [v1.1]
+//arelda:vorgang/arelda:verweis [v1.1]
+//arelda:vorgang/arelda:aktivitaet/@order [v1.1]
+//arelda:vorgang/arelda:aktivitaet/arelda:vorschreibung [v1.1]
+//arelda:vorgang/arelda:aktivitaet/arelda:akteur [v1.1]
+//arelda:vorgang/arelda:aktivitaet/arelda:abschlussvermerk [v1.1]
+//arelda:vorgang/arelda:aktivitaet/arelda:abschlussdatum [v1.1]
+//arelda:vorgang/arelda:aktivitaet/arelda:verweis [v1.1]
+//arelda:vorgang/arelda:aktivitaet/arelda:bemerkung [v1.1]
 Zusätzliche Ebene:
 </t>
     </r>
@@ -3544,7 +3645,7 @@
       <rPr>
         <strike/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3553,12 +3654,22 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-//arelda(V1.1):vorgang/arelda:zusatzDaten(key/value)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>//arelda(V1.1):vorgang/arelda:zusatzDaten(key/value)
 //arelda(V1.1):aktivitaet/arelda:zusatzDaten(key/value)</t>
     </r>
   </si>
@@ -3567,7 +3678,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="34">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3777,6 +3888,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -4746,7 +4876,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5432,6 +5562,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6925,7 +7058,7 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
@@ -6933,7 +7066,7 @@
   <cols>
     <col min="1" max="1" width="57.5703125" style="177" customWidth="1"/>
     <col min="2" max="2" width="66.42578125" style="177" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="177" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" style="177" customWidth="1"/>
     <col min="4" max="4" width="55.5703125" style="177" customWidth="1"/>
     <col min="5" max="5" width="2.7109375" style="173" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="172" customWidth="1"/>
@@ -6943,7 +7076,7 @@
     <col min="10" max="16384" width="58.7109375" style="177"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" ht="29.25" customHeight="1" thickBot="1">
       <c r="A1" s="224" t="s">
         <v>429</v>
       </c>
@@ -7015,7 +7148,7 @@
       </c>
       <c r="I4" s="162"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="38.25">
       <c r="A5" s="163" t="s">
         <v>369</v>
       </c>
@@ -7025,8 +7158,8 @@
       <c r="C5" s="163" t="s">
         <v>447</v>
       </c>
-      <c r="D5" s="163" t="s">
-        <v>449</v>
+      <c r="D5" s="164" t="s">
+        <v>494</v>
       </c>
       <c r="E5" s="161"/>
       <c r="F5" s="162"/>
@@ -7055,14 +7188,14 @@
     </row>
     <row r="7" spans="1:9" ht="51.75" customHeight="1">
       <c r="A7" s="164" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B7" s="162"/>
       <c r="C7" s="165" t="s">
+        <v>467</v>
+      </c>
+      <c r="D7" s="165" t="s">
         <v>468</v>
-      </c>
-      <c r="D7" s="165" t="s">
-        <v>469</v>
       </c>
       <c r="E7" s="161"/>
       <c r="F7" s="162"/>
@@ -7140,7 +7273,7 @@
       <c r="A12" s="163"/>
       <c r="B12" s="163"/>
       <c r="C12" s="196" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="D12" s="163"/>
       <c r="I12" s="171" t="s">
@@ -7161,12 +7294,12 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="163" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B14" s="163"/>
       <c r="C14" s="163"/>
       <c r="D14" s="163" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G14" s="169">
         <v>2.1</v>
@@ -7178,7 +7311,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="163" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B15" s="163"/>
       <c r="C15" s="163"/>
@@ -7193,7 +7326,7 @@
     </row>
     <row r="16" spans="1:9" s="172" customFormat="1" ht="63.75">
       <c r="A16" s="198" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B16" s="162"/>
       <c r="C16" s="162"/>
@@ -7209,7 +7342,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="163" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B17" s="163"/>
       <c r="C17" s="163"/>
@@ -7256,10 +7389,10 @@
       <c r="A21" s="163"/>
       <c r="B21" s="163"/>
       <c r="C21" s="163" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D21" s="163" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G21" s="194"/>
       <c r="I21" s="174" t="s">
@@ -7268,11 +7401,11 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="163" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B22" s="163"/>
       <c r="C22" s="163" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D22" s="163"/>
       <c r="G22" s="171"/>
@@ -7282,7 +7415,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="163" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B23" s="163"/>
       <c r="C23" s="163"/>
@@ -7310,7 +7443,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="163" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B25" s="163"/>
       <c r="C25" s="163"/>
@@ -7358,13 +7491,13 @@
     <row r="29" spans="1:9">
       <c r="A29" s="163"/>
       <c r="B29" s="163" t="s">
+        <v>459</v>
+      </c>
+      <c r="C29" s="163" t="s">
         <v>460</v>
       </c>
-      <c r="C29" s="163" t="s">
+      <c r="D29" s="163" t="s">
         <v>461</v>
-      </c>
-      <c r="D29" s="163" t="s">
-        <v>462</v>
       </c>
       <c r="G29" s="194"/>
       <c r="H29" s="162"/>
@@ -7375,13 +7508,13 @@
     <row r="30" spans="1:9">
       <c r="A30" s="163"/>
       <c r="B30" s="163" t="s">
+        <v>453</v>
+      </c>
+      <c r="C30" s="163" t="s">
         <v>454</v>
       </c>
-      <c r="C30" s="163" t="s">
+      <c r="D30" s="163" t="s">
         <v>455</v>
-      </c>
-      <c r="D30" s="163" t="s">
-        <v>456</v>
       </c>
       <c r="G30" s="193"/>
       <c r="H30" s="162"/>
@@ -7392,13 +7525,13 @@
     <row r="31" spans="1:9">
       <c r="A31" s="163"/>
       <c r="B31" s="163" t="s">
+        <v>462</v>
+      </c>
+      <c r="C31" s="163" t="s">
         <v>463</v>
       </c>
-      <c r="C31" s="163" t="s">
+      <c r="D31" s="163" t="s">
         <v>464</v>
-      </c>
-      <c r="D31" s="163" t="s">
-        <v>465</v>
       </c>
       <c r="G31" s="193"/>
       <c r="H31" s="162"/>
@@ -7415,7 +7548,7 @@
         <v>442</v>
       </c>
       <c r="D32" s="163" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G32" s="193"/>
       <c r="H32" s="162"/>
@@ -7426,13 +7559,13 @@
     <row r="33" spans="1:9">
       <c r="A33" s="163"/>
       <c r="B33" s="163" t="s">
+        <v>456</v>
+      </c>
+      <c r="C33" s="163" t="s">
         <v>457</v>
       </c>
-      <c r="C33" s="163" t="s">
+      <c r="D33" s="163" t="s">
         <v>458</v>
-      </c>
-      <c r="D33" s="163" t="s">
-        <v>459</v>
       </c>
       <c r="G33" s="193"/>
       <c r="H33" s="162"/>
@@ -7442,7 +7575,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="163" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B34" s="163" t="s">
         <v>438</v>
@@ -7459,7 +7592,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="163" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B35" s="163" t="s">
         <v>439</v>
@@ -7476,7 +7609,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="163" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B36" s="195" t="s">
         <v>440</v>
@@ -7530,10 +7663,10 @@
       <c r="A40" s="163"/>
       <c r="B40" s="163"/>
       <c r="C40" s="163" t="s">
+        <v>465</v>
+      </c>
+      <c r="D40" s="163" t="s">
         <v>466</v>
-      </c>
-      <c r="D40" s="163" t="s">
-        <v>467</v>
       </c>
       <c r="G40" s="169">
         <v>4.4000000000000004</v>
@@ -7648,14 +7781,14 @@
     </row>
     <row r="50" spans="1:9" ht="38.25">
       <c r="A50" s="164" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B50" s="163"/>
       <c r="C50" s="163" t="s">
+        <v>451</v>
+      </c>
+      <c r="D50" s="163" t="s">
         <v>452</v>
-      </c>
-      <c r="D50" s="163" t="s">
-        <v>453</v>
       </c>
       <c r="G50" s="169">
         <v>6.1</v>
@@ -7751,7 +7884,7 @@
       <c r="A58" s="163"/>
       <c r="B58" s="163"/>
       <c r="C58" s="164" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D58" s="163"/>
       <c r="G58" s="160"/>
@@ -7790,18 +7923,18 @@
       <c r="H61" s="162"/>
       <c r="I61" s="162"/>
     </row>
-    <row r="62" spans="1:9" ht="25.5">
+    <row r="62" spans="1:9" ht="38.25">
       <c r="A62" s="164" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B62" s="164" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C62" s="164" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D62" s="163" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G62" s="160"/>
       <c r="H62" s="160" t="s">
@@ -7811,13 +7944,13 @@
     </row>
     <row r="63" spans="1:9" ht="275.25" customHeight="1">
       <c r="A63" s="164" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B63" s="164" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C63" s="176" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D63" s="176" t="s">
         <v>493</v>
@@ -7840,48 +7973,56 @@
       </c>
       <c r="I65" s="169"/>
     </row>
+    <row r="67" spans="5:9">
+      <c r="E67" s="189"/>
+      <c r="F67" s="178" t="s">
+        <v>419</v>
+      </c>
+      <c r="G67" s="172" t="s">
+        <v>420</v>
+      </c>
+    </row>
     <row r="68" spans="5:9">
-      <c r="E68" s="189"/>
-      <c r="F68" s="178" t="s">
-        <v>419</v>
+      <c r="E68" s="190"/>
+      <c r="F68" s="179" t="s">
+        <v>421</v>
       </c>
       <c r="G68" s="172" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="5:9">
-      <c r="E69" s="190"/>
-      <c r="F69" s="179" t="s">
-        <v>421</v>
+      <c r="E69" s="191"/>
+      <c r="F69" s="180" t="s">
+        <v>423</v>
       </c>
       <c r="G69" s="172" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="5:9">
-      <c r="E70" s="191"/>
-      <c r="F70" s="180" t="s">
-        <v>423</v>
-      </c>
-      <c r="G70" s="172" t="s">
-        <v>424</v>
+      <c r="E70" s="192"/>
+      <c r="F70" s="181" t="s">
+        <v>425</v>
+      </c>
+      <c r="G70" s="182" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="5:9">
-      <c r="E71" s="192"/>
-      <c r="F71" s="181" t="s">
-        <v>425</v>
-      </c>
-      <c r="G71" s="182" t="s">
-        <v>426</v>
+      <c r="F71" s="197" t="s">
+        <v>435</v>
+      </c>
+      <c r="G71" s="172" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="5:9">
-      <c r="F72" s="197" t="s">
-        <v>435</v>
+      <c r="F72" s="232" t="s">
+        <v>491</v>
       </c>
       <c r="G72" s="172" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -7909,8 +8050,8 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/DataDictionary/eCH-0160_xIsadg&EAD_v2.0.xlsx
+++ b/DataDictionary/eCH-0160_xIsadg&EAD_v2.0.xlsx
@@ -3397,33 +3397,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">//arelda:provenienz/arelda:systemName
-//arelda:provenienz/arelda:systemBeschreibung
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>//arelda:provenienz/arelda:verwandteSysteme
-//arelda:provenienz/arelda:ArchivierungsmodusLoeschvorschriften</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-//arelda:provenienz/arelda:registratur </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">//arelda:ordnungssystemposition/arelda:/nummer
 //arelda:ordnungssystemposition/arelda:/federfuehrendeOrganisationseinheit
 Zusätzliche Ebene:
@@ -3671,6 +3644,33 @@
       </rPr>
       <t>//arelda(V1.1):vorgang/arelda:zusatzDaten(key/value)
 //arelda(V1.1):aktivitaet/arelda:zusatzDaten(key/value)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//arelda:provenienz/arelda:systemName
+//arelda:provenienz/arelda:systemBeschreibung
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>//arelda:provenienz/arelda:verwandteSysteme  [FILES]
+//arelda:provenienz/arelda:ArchivierungsmodusLoeschvorschriften  [FILES]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+//arelda:provenienz/arelda:registratur </t>
     </r>
   </si>
 </sst>
@@ -5464,6 +5464,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5562,9 +5565,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5998,18 +5998,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="200" t="s">
         <v>430</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" thickBot="1">
       <c r="A2" s="12" t="s">
@@ -6042,11 +6042,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="212" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="213"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="214"/>
       <c r="D3" s="45" t="s">
         <v>291</v>
       </c>
@@ -6128,14 +6128,14 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A7" s="218" t="s">
+      <c r="A7" s="219" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="219"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="220"/>
+      <c r="B7" s="220"/>
+      <c r="C7" s="220"/>
+      <c r="D7" s="220"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="221"/>
       <c r="G7" s="76"/>
       <c r="H7" s="11" t="s">
         <v>112</v>
@@ -6204,11 +6204,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A11" s="215" t="s">
+      <c r="A11" s="216" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="216"/>
-      <c r="C11" s="217"/>
+      <c r="B11" s="217"/>
+      <c r="C11" s="218"/>
       <c r="D11" s="33" t="s">
         <v>18</v>
       </c>
@@ -6476,7 +6476,7 @@
       <c r="F24" s="72"/>
       <c r="G24" s="78"/>
       <c r="H24" s="51"/>
-      <c r="J24" s="200" t="s">
+      <c r="J24" s="201" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6495,7 +6495,7 @@
       <c r="F25" s="81"/>
       <c r="G25" s="28"/>
       <c r="H25" s="51"/>
-      <c r="J25" s="201"/>
+      <c r="J25" s="202"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="34" t="s">
@@ -6512,7 +6512,7 @@
       <c r="F26" s="27"/>
       <c r="G26" s="78"/>
       <c r="H26" s="51"/>
-      <c r="J26" s="201"/>
+      <c r="J26" s="202"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" thickBot="1">
       <c r="A27" s="85"/>
@@ -6527,7 +6527,7 @@
       <c r="F27" s="81"/>
       <c r="G27" s="28"/>
       <c r="H27" s="51"/>
-      <c r="J27" s="201"/>
+      <c r="J27" s="202"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1">
       <c r="A28" s="61"/>
@@ -6543,13 +6543,13 @@
         <v>19</v>
       </c>
       <c r="G28" s="94"/>
-      <c r="H28" s="203" t="s">
+      <c r="H28" s="204" t="s">
         <v>129</v>
       </c>
-      <c r="I28" s="206" t="s">
+      <c r="I28" s="207" t="s">
         <v>265</v>
       </c>
-      <c r="J28" s="201"/>
+      <c r="J28" s="202"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="61"/>
@@ -6565,9 +6565,9 @@
         <v>9</v>
       </c>
       <c r="G29" s="28"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="207"/>
-      <c r="J29" s="201"/>
+      <c r="H29" s="205"/>
+      <c r="I29" s="208"/>
+      <c r="J29" s="202"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="61"/>
@@ -6583,9 +6583,9 @@
         <v>14</v>
       </c>
       <c r="G30" s="28"/>
-      <c r="H30" s="204"/>
-      <c r="I30" s="207"/>
-      <c r="J30" s="201"/>
+      <c r="H30" s="205"/>
+      <c r="I30" s="208"/>
+      <c r="J30" s="202"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1">
       <c r="A31" s="61"/>
@@ -6601,9 +6601,9 @@
         <v>34</v>
       </c>
       <c r="G31" s="92"/>
-      <c r="H31" s="204"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="201"/>
+      <c r="H31" s="205"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="202"/>
     </row>
     <row r="32" spans="1:10" ht="13.5" thickBot="1">
       <c r="A32" s="61"/>
@@ -6619,9 +6619,9 @@
         <v>13</v>
       </c>
       <c r="G32" s="20"/>
-      <c r="H32" s="205"/>
-      <c r="I32" s="208"/>
-      <c r="J32" s="202"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="209"/>
+      <c r="J32" s="203"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" thickBot="1">
       <c r="A33" s="62"/>
@@ -6754,10 +6754,10 @@
       <c r="J39" s="136"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="214" t="s">
+      <c r="A40" s="215" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="214"/>
+      <c r="B40" s="215"/>
       <c r="C40" s="55"/>
       <c r="D40" s="53"/>
       <c r="E40" s="53"/>
@@ -6767,10 +6767,10 @@
       <c r="J40" s="136"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="214" t="s">
+      <c r="A41" s="215" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="214"/>
+      <c r="B41" s="215"/>
       <c r="C41" s="56"/>
       <c r="D41" s="53"/>
       <c r="E41" s="53"/>
@@ -6780,10 +6780,10 @@
       <c r="J41" s="136"/>
     </row>
     <row r="42" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A42" s="209" t="s">
+      <c r="A42" s="210" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="210"/>
+      <c r="B42" s="211"/>
       <c r="C42" s="57"/>
       <c r="D42" s="53"/>
       <c r="E42" s="53"/>
@@ -7058,8 +7058,8 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="58.7109375" defaultRowHeight="12.75"/>
@@ -7077,17 +7077,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="225" t="s">
         <v>429</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
     </row>
     <row r="2" spans="1:9" s="159" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="184" t="s">
@@ -7102,13 +7102,13 @@
       <c r="D2" s="186" t="s">
         <v>448</v>
       </c>
-      <c r="E2" s="221" t="s">
+      <c r="E2" s="222" t="s">
         <v>427</v>
       </c>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="224"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="163"/>
@@ -7159,7 +7159,7 @@
         <v>447</v>
       </c>
       <c r="D5" s="164" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E5" s="161"/>
       <c r="F5" s="162"/>
@@ -7273,7 +7273,7 @@
       <c r="A12" s="163"/>
       <c r="B12" s="163"/>
       <c r="C12" s="196" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D12" s="163"/>
       <c r="I12" s="171" t="s">
@@ -7324,9 +7324,9 @@
       </c>
       <c r="I15" s="162"/>
     </row>
-    <row r="16" spans="1:9" s="172" customFormat="1" ht="63.75">
+    <row r="16" spans="1:9" s="172" customFormat="1" ht="76.5">
       <c r="A16" s="198" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B16" s="162"/>
       <c r="C16" s="162"/>
@@ -7925,10 +7925,10 @@
     </row>
     <row r="62" spans="1:9" ht="38.25">
       <c r="A62" s="164" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B62" s="164" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C62" s="164" t="s">
         <v>484</v>
@@ -7944,16 +7944,16 @@
     </row>
     <row r="63" spans="1:9" ht="275.25" customHeight="1">
       <c r="A63" s="164" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B63" s="164" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C63" s="176" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D63" s="176" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G63" s="162"/>
       <c r="I63" s="169" t="s">
@@ -8018,11 +8018,11 @@
       </c>
     </row>
     <row r="72" spans="5:9">
-      <c r="F72" s="232" t="s">
+      <c r="F72" s="199" t="s">
+        <v>490</v>
+      </c>
+      <c r="G72" s="172" t="s">
         <v>491</v>
-      </c>
-      <c r="G72" s="172" t="s">
-        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -8082,16 +8082,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="226" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" thickBot="1">
       <c r="A2" s="145" t="s">
@@ -9050,17 +9050,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="232" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="229"/>
+      <c r="B2" s="230"/>
       <c r="C2" s="100" t="s">
         <v>52</v>
       </c>
@@ -9415,19 +9415,19 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="230" t="s">
+      <c r="A37" s="231" t="s">
         <v>362</v>
       </c>
-      <c r="B37" s="230"/>
+      <c r="B37" s="231"/>
       <c r="C37" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="230" t="s">
+      <c r="A38" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="230"/>
+      <c r="B38" s="231"/>
       <c r="C38" s="104" t="s">
         <v>149</v>
       </c>

--- a/DataDictionary/eCH-0160_xIsadg&EAD_v2.0.xlsx
+++ b/DataDictionary/eCH-0160_xIsadg&EAD_v2.0.xlsx
@@ -23,7 +23,7 @@
     <definedName name="_ftnref2" localSheetId="2">xIsadg_DataDictionary!#REF!</definedName>
     <definedName name="_ftnref3" localSheetId="2">xIsadg_DataDictionary!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'eCH-0160 zu xIsadg v1.6.1'!$A$1:$J$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'eCH-0160 zu xIsadg v2.0'!$A$1:$I$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'eCH-0160 zu xIsadg v2.0'!$A$1:$I$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'ISAD(G)'!$A$1:$C$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">xIsadg_DataDictionary!$A$1:$H$41</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">xIsadg_DataDictionary!$2:$2</definedName>
@@ -899,7 +899,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0">
+    <comment ref="F14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -909,19 +909,6 @@
             <family val="2"/>
           </rPr>
           <t>Kontext</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Name der Provenienzstelle: Identifizierung der Provenienzstelle(n), bei der (denen) die Verzeichnungseinheit entstanden ist</t>
         </r>
       </text>
     </comment>
@@ -934,7 +921,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Verwaltungsgeschichte/Biographische Angaben: Information über Verwaltungsgeschichte der Provenienzstelle bzw. die Biographie, wenn es sich um natürliche Personen handelt, zum besseren Verständnis des zur Verzeichnungseinheit gehörenden Kontextes</t>
+          <t>Name der Provenienzstelle: Identifizierung der Provenienzstelle(n), bei der (denen) die Verzeichnungseinheit entstanden ist</t>
         </r>
       </text>
     </comment>
@@ -947,7 +934,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Bestandesgeschichte: Information über den Wechsel der Eigentums- und Besitzverhältnisse der Verzeichnungseinheit, die für deren Authentizität, Integrität, Vollständigkeit und Interpretation von wesentlicher Bedeutung sind</t>
+          <t>Verwaltungsgeschichte/Biographische Angaben: Information über Verwaltungsgeschichte der Provenienzstelle bzw. die Biographie, wenn es sich um natürliche Personen handelt, zum besseren Verständnis des zur Verzeichnungseinheit gehörenden Kontextes</t>
         </r>
       </text>
     </comment>
@@ -960,11 +947,11 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Abgebende Stelle: Darstellung der Umstände, die mit der direkten Übernahme der Verzeichnungseinheit von der abgebenden Stelle verbunden sind</t>
+          <t>Bestandesgeschichte: Information über den Wechsel der Eigentums- und Besitzverhältnisse der Verzeichnungseinheit, die für deren Authentizität, Integrität, Vollständigkeit und Interpretation von wesentlicher Bedeutung sind</t>
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0">
+    <comment ref="H18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -973,11 +960,11 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Inhalt und innere Ordnung</t>
+          <t>Abgebende Stelle: Darstellung der Umstände, die mit der direkten Übernahme der Verzeichnungseinheit von der abgebenden Stelle verbunden sind</t>
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0">
+    <comment ref="F20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -986,11 +973,24 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Form und Inhalt: Feststellung von Hauptgegenstand und Form der Verzeichnungseinheit, um Benutzern eine Beurteilung ihrer Relevanz zu ermöglichen</t>
+          <t>Inhalt und innere Ordnung</t>
         </r>
       </text>
     </comment>
-    <comment ref="I21" authorId="0" shapeId="0">
+    <comment ref="H21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Form und Inhalt: Feststellung von Hauptgegenstand und Form der Verzeichnungseinheit, um Benutzern eine Beurteilung ihrer Relevanz zu ermöglichen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1010,7 +1010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0" shapeId="0">
+    <comment ref="I23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1029,19 +1029,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Bewertung und Kassation: Bereitstellung von Informationen über jede vorgenommene Bewertung und Kassation.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="H24" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1051,7 +1038,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Neuzugänge: Angaben für den Benutzer über mögliche Veränderungen im Umfang der Verzeichnungseinheit</t>
+          <t>Bewertung und Kassation: Bereitstellung von Informationen über jede vorgenommene Bewertung und Kassation.</t>
         </r>
       </text>
     </comment>
@@ -1064,11 +1051,11 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Ordnung und Klassifikation: Bereitstellung von Informationen über die Ordnung und Klassifikation der Verzeichnungseinheit</t>
+          <t>Neuzugänge: Angaben für den Benutzer über mögliche Veränderungen im Umfang der Verzeichnungseinheit</t>
         </r>
       </text>
     </comment>
-    <comment ref="F27" authorId="0" shapeId="0">
+    <comment ref="H26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1077,11 +1064,11 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Zugangs- und Benutzungsbestimmungen</t>
+          <t>Ordnung und Klassifikation: Bereitstellung von Informationen über die Ordnung und Klassifikation der Verzeichnungseinheit</t>
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="0" shapeId="0">
+    <comment ref="F28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,11 +1077,11 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Zugangsbestimmungen: Angabe derjenigen Bestimmungen, die den Zugang zur Verzeichnungseinheit einschränken oder beeinflussen</t>
+          <t>Zugangs- und Benutzungsbestimmungen</t>
         </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="0" shapeId="0">
+    <comment ref="H29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1103,11 +1090,24 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Datenschutz: Angabe, ob in der Verzeichnungseinheit besonders schützenswerte Personendaten vorhanden sind oder nicht</t>
+          <t>Zugangsbestimmungen: Angabe derjenigen Bestimmungen, die den Zugang zur Verzeichnungseinheit einschränken oder beeinflussen</t>
         </r>
       </text>
     </comment>
     <comment ref="I30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Datenschutz: Angabe, ob in der Verzeichnungseinheit besonders schützenswerte Personendaten vorhanden sind oder nicht</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0" shapeId="0">
+    <comment ref="I32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1142,7 +1142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I32" authorId="0" shapeId="0">
+    <comment ref="I33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1155,7 +1155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I33" authorId="0" shapeId="0">
+    <comment ref="I34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1165,19 +1165,6 @@
             <family val="2"/>
           </rPr>
           <t>Bemerkungen zu Zugangs- und Nutzungsbedingungen</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I34" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Die Zugangsbestimmungen die vor allem im Schweizerischen Bundesarchiv Anwendung finden</t>
         </r>
       </text>
     </comment>
@@ -1207,16 +1194,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="H38" authorId="0" shapeId="0">
+    <comment ref="I37" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Reproduktionsbestimmungen: Information über Beschränkungen bei der Reproduktion der Verzeichnungseinheit.</t>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Die Zugangsbestimmungen die vor allem im Schweizerischen Bundesarchiv Anwendung finden</t>
         </r>
       </text>
     </comment>
@@ -1229,11 +1216,24 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Sprache/Schrift: Identifizierung der in der Verzeichnungseinheit enthaltenen Sprache(n), Schriftarten und Zeichensysteme</t>
+          <t>Reproduktionsbestimmungen: Information über Beschränkungen bei der Reproduktion der Verzeichnungseinheit.</t>
         </r>
       </text>
     </comment>
     <comment ref="H40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sprache/Schrift: Identifizierung der in der Verzeichnungseinheit enthaltenen Sprache(n), Schriftarten und Zeichensysteme</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1251,7 +1251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H41" authorId="0" shapeId="0">
+    <comment ref="H42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1264,7 +1264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="0" shapeId="0">
+    <comment ref="F44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1274,19 +1274,6 @@
             <family val="2"/>
           </rPr>
           <t>Sachverwandte Unterlagen</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H44" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Aufbewahrungsort der Orginale: Nachweise über die aufbewahrende Institution, die Zugänglichkeit oder die Vernichtung der Originale, falls es sich bei der Verzeichnungseinheit um eine Reproduktion handelt</t>
         </r>
       </text>
     </comment>
@@ -1299,7 +1286,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Kopien bzw. Reproduktionen: Verweis auf Kopien bzw. Reproduktionen der Verzeichnungseinheit und ihre Verfügbarkeit</t>
+          <t>Aufbewahrungsort der Orginale: Nachweise über die aufbewahrende Institution, die Zugänglichkeit oder die Vernichtung der Originale, falls es sich bei der Verzeichnungseinheit um eine Reproduktion handelt</t>
         </r>
       </text>
     </comment>
@@ -1312,7 +1299,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Verwandte Verzeichnungseinheiten: Ermittlung von verwandten Verzeichnungseinheiten im selben Archiv oder in anderen Archiven.</t>
+          <t>Kopien bzw. Reproduktionen: Verweis auf Kopien bzw. Reproduktionen der Verzeichnungseinheit und ihre Verfügbarkeit</t>
         </r>
       </text>
     </comment>
@@ -1325,11 +1312,11 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Veröffentlichungen: Ermittlung von Veröffentlichungen, die unter Benutzung oder Auswertung der Verzeichnungseinheit entstanden sind</t>
+          <t>Verwandte Verzeichnungseinheiten: Ermittlung von verwandten Verzeichnungseinheiten im selben Archiv oder in anderen Archiven.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F49" authorId="0" shapeId="0">
+    <comment ref="H48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1338,11 +1325,24 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Anmerkungen</t>
+          <t>Veröffentlichungen: Ermittlung von Veröffentlichungen, die unter Benutzung oder Auswertung der Verzeichnungseinheit entstanden sind</t>
         </r>
       </text>
     </comment>
-    <comment ref="H50" authorId="0" shapeId="0">
+    <comment ref="F50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anmerkungen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1366,7 +1366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F52" authorId="0" shapeId="0">
+    <comment ref="F53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1376,19 +1376,6 @@
             <family val="2"/>
           </rPr>
           <t>Verzeichnungskontrolle</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H53" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Informationen des Bearbeiters: Erläuterungen zur Verzeichnung und über den oder die Bearbeiter</t>
         </r>
       </text>
     </comment>
@@ -1401,7 +1388,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Verzeichnungsgrundsätze: Benennung der bei der Verzeichnung angewandten Normen, Regeln und Grundsätze</t>
+          <t>Informationen des Bearbeiters: Erläuterungen zur Verzeichnung und über den oder die Bearbeiter</t>
         </r>
       </text>
     </comment>
@@ -1414,11 +1401,11 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Datum oder Zeitraum der Verzeichung: Alle Daten, die sich auf die Erstellung oder Veränderung der Verzeichnung beziehen, sind anzugeben</t>
+          <t>Verzeichnungsgrundsätze: Benennung der bei der Verzeichnung angewandten Normen, Regeln und Grundsätze</t>
         </r>
       </text>
     </comment>
-    <comment ref="F57" authorId="0" shapeId="0">
+    <comment ref="H56" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1427,11 +1414,11 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Zusätzliche Referenzierungen und Identifikatoren</t>
+          <t>Datum oder Zeitraum der Verzeichung: Alle Daten, die sich auf die Erstellung oder Veränderung der Verzeichnung beziehen, sind anzugeben</t>
         </r>
       </text>
     </comment>
-    <comment ref="H58" authorId="0" shapeId="0">
+    <comment ref="F58" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1440,7 +1427,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Aktenzeichen: Identifikator der Verzeichnungseinheit im Quellsystem</t>
+          <t>Zusätzliche Referenzierungen und Identifikatoren</t>
         </r>
       </text>
     </comment>
@@ -1453,6 +1440,19 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
+          <t>Aktenzeichen: Identifikator der Verzeichnungseinheit im Quellsystem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H60" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
           <t>AIP-Referenz: Eindeutiger Identifikator des AIP im digitalen Magazin des Archivs
 choice:
 isad:primaryDataLocator (Referenz auf eine Primärdatei in Form einer URL - auch relativer Pfad ist möglich)
@@ -1460,7 +1460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F61" authorId="0" shapeId="0">
+    <comment ref="F62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1473,7 +1473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H62" authorId="0" shapeId="0">
+    <comment ref="H63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1486,7 +1486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H65" authorId="0" shapeId="0">
+    <comment ref="H66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1515,7 +1515,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="484">
   <si>
     <t>archivierungsmodusLöschvorschriften</t>
   </si>
@@ -3156,37 +3156,7 @@
     <t>isad:mdWrap</t>
   </si>
   <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>isad:xmlData</t>
-  </si>
-  <si>
-    <t>DUNKELBLAU</t>
-  </si>
-  <si>
-    <t>SIP-origin</t>
-  </si>
-  <si>
-    <t>BRAUN</t>
-  </si>
-  <si>
-    <t>archivalOrigin (* fixed="true")</t>
-  </si>
-  <si>
-    <t>LILA</t>
-  </si>
-  <si>
-    <t>Qualifyer gemäss Schema</t>
-  </si>
-  <si>
-    <t>BLAU</t>
-  </si>
-  <si>
-    <t>Werteliste gemäss Schema</t>
   </si>
   <si>
     <t xml:space="preserve"> xIsadg v2.0</t>
@@ -3234,12 +3204,6 @@
     <t>isad:retentionPeriodNotes</t>
   </si>
   <si>
-    <t>GRÜN</t>
-  </si>
-  <si>
-    <t>nur FILES SIP</t>
-  </si>
-  <si>
     <t>//arelda:ordnungssystemposition/arelda:sonstigeBestimmungen</t>
   </si>
   <si>
@@ -3396,212 +3360,56 @@
     <t>//arelda:dokument/arelda:zusatzDaten</t>
   </si>
   <si>
+    <t>//arelda:ordnungssystemposition/arelda:zusatzDaten</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:umfang [FILES]</t>
+  </si>
+  <si>
+    <t>//arelda:dokument/arelda:titel [GEVER]
+//arelda:datei/arelda:name [FILES]
+//arelda:datei/arelda:originalName [FILES]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//arelda:provenienz/arelda:systemName
+//arelda:provenienz/arelda:systemBeschreibung
+//arelda:provenienz/arelda:verwandteSysteme  [FILES]
+//arelda:provenienz/arelda:ArchivierungsmodusLoeschvorschriften  [FILES]
+//arelda:provenienz/arelda:registratur </t>
+  </si>
+  <si>
+    <t>//arelda:paket/arelda:zusatzDaten
+//arelda:ablieferung/arelda:zusatzDaten
+//arelda:ordnungssystem/arelda:zusatzDaten</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">//arelda:ordnungssystemposition/arelda:/nummer
-//arelda:ordnungssystemposition/arelda:/federfuehrendeOrganisationseinheit
-Zusätzliche Ebene:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>//arelda:ordnungssystemposition/arelda:/zusatzDaten(key/value)</t>
-    </r>
-  </si>
-  <si>
-    <t>//arelda:ordnungssystemposition/arelda:zusatzDaten</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">//arelda:paket/arelda:zusatzDaten
-//arelda:ablieferung/arelda:zusatzDaten
-</t>
+      <t>//arelda:paket/@xmlns
+//arelda:paket/arelda:paketTyp
+//arelda:paket/@schemaVersion
+//arelda:ablieferung/arelda:ablieferungsnummer
+//arelda:ablieferung/arelda:ablieferungstyp
+//arelda:ablieferung/arelda:angebotsnummer</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>//arelda:ordnungssystem/arelda:zusatzDaten</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>//arelda:paket/@xmlns</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-//arelda:paket/arelda:paketTyp
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>//arelda:paket/@schemaVersion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-//arelda:ablieferung/arelda:ablieferungsnummer
-//arelda:ablieferung/arelda:ablieferungstyp
-//arelda:ablieferung/arelda:angebotsnummer
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">//arelda:provenienz/arelda:systemname
-//arelda:provenienz/arelda:systembeschreibung
-//arelda:provenienz/arelda:verwandteSysteme
-//arelda:provenienz/arelda:archivierungsmodusLoeschvorschriften
-//arelda:provenienz/arelda:registratur </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 //arelda:ordnungssystem/arelda:generation
-//arelda:ordnungssystem/arelda:mitbenutzung 
-Zusätzliche Ebene:
-</t>
+//arelda:ordnungssystem/arelda:mitbenutzung </t>
     </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>//arelda:paket/arelda:zusatzDaten(key/value)
-//arelda:ablieferung/arelda:zusatzDaten(key/value)
-//arelda:ordnungssystem/arelda:zusatzDaten(key/value)</t>
-    </r>
-  </si>
-  <si>
-    <t>GELB</t>
-  </si>
-  <si>
-    <t>noch nicht umgesetzt</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">//arelda:dokument/arelda:anwendung
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">//arelda:datei/arelda:name
-//arelda:datei/arelda:originalName
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Zusätzliche Ebene:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>//arelda:dokument/arelda:zusatzDaten(key/value)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">//arelda:dokument/arelda:titel [GEVER]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>//arelda:datei/arelda:name [FILES]
-//arelda:datei/arelda:originalName [FILES]</t>
-    </r>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:umfang [FILES]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">//arelda:dossier/arelda:federfuehrendeOrganisationseinheit
+  </si>
+  <si>
+    <t>//arelda:ordnungssystemposition/arelda:/nummer
+//arelda:ordnungssystemposition/arelda:/federfuehrendeOrganisationseinheit</t>
+  </si>
+  <si>
+    <t>//arelda:dossier/arelda:federfuehrendeOrganisationseinheit
 //arelda:dossier/arelda:vorgang
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">//arelda:vorgang/arelda:titel [v1.1]
+//arelda:vorgang/arelda:titel [v1.1]
 //arelda:vorgang/arelda:arbeitsanweisung [v1.1]
 //arelda:vorgang/arelda:verweis [v1.1]
 //arelda:vorgang/arelda:aktivitaet/@order [v1.1]
@@ -3610,75 +3418,22 @@
 //arelda:vorgang/arelda:aktivitaet/arelda:abschlussvermerk [v1.1]
 //arelda:vorgang/arelda:aktivitaet/arelda:abschlussdatum [v1.1]
 //arelda:vorgang/arelda:aktivitaet/arelda:verweis [v1.1]
-//arelda:vorgang/arelda:aktivitaet/arelda:bemerkung [v1.1]
-Zusätzliche Ebene:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>//arelda:dossier/arelda:zusatzDaten(key/value)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>//arelda(V1.1):vorgang/arelda:zusatzDaten(key/value)
-//arelda(V1.1):aktivitaet/arelda:zusatzDaten(key/value)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">//arelda:provenienz/arelda:systemName
-//arelda:provenienz/arelda:systemBeschreibung
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>//arelda:provenienz/arelda:verwandteSysteme  [FILES]
-//arelda:provenienz/arelda:ArchivierungsmodusLoeschvorschriften  [FILES]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-//arelda:provenienz/arelda:registratur </t>
-    </r>
+//arelda:vorgang/arelda:aktivitaet/arelda:bemerkung [v1.1]</t>
+  </si>
+  <si>
+    <t>//arelda:dokument/arelda:anwendung
+//arelda:datei/arelda:name
+//arelda:datei/arelda:originalName</t>
+  </si>
+  <si>
+    <t>property / value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3801,31 +3556,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="6" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF7030A0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
@@ -3838,18 +3568,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="8" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFA88000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="18"/>
@@ -3857,53 +3575,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="81"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFC000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color rgb="FFFFC000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3970,7 +3643,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -4868,6 +4541,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4876,7 +4558,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5344,127 +5026,79 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5533,16 +5167,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5572,7 +5206,21 @@
     <cellStyle name="Standard 2" xfId="1"/>
     <cellStyle name="Standard 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5998,18 +5646,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A1" s="200" t="s">
-        <v>430</v>
-      </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
+      <c r="A1" s="184" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" thickBot="1">
       <c r="A2" s="12" t="s">
@@ -6042,11 +5690,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="196" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="214"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="198"/>
       <c r="D3" s="45" t="s">
         <v>291</v>
       </c>
@@ -6128,14 +5776,14 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A7" s="219" t="s">
+      <c r="A7" s="203" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="221"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="205"/>
       <c r="G7" s="76"/>
       <c r="H7" s="11" t="s">
         <v>112</v>
@@ -6204,11 +5852,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A11" s="216" t="s">
+      <c r="A11" s="200" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="217"/>
-      <c r="C11" s="218"/>
+      <c r="B11" s="201"/>
+      <c r="C11" s="202"/>
       <c r="D11" s="33" t="s">
         <v>18</v>
       </c>
@@ -6476,7 +6124,7 @@
       <c r="F24" s="72"/>
       <c r="G24" s="78"/>
       <c r="H24" s="51"/>
-      <c r="J24" s="201" t="s">
+      <c r="J24" s="185" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6495,7 +6143,7 @@
       <c r="F25" s="81"/>
       <c r="G25" s="28"/>
       <c r="H25" s="51"/>
-      <c r="J25" s="202"/>
+      <c r="J25" s="186"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="34" t="s">
@@ -6512,7 +6160,7 @@
       <c r="F26" s="27"/>
       <c r="G26" s="78"/>
       <c r="H26" s="51"/>
-      <c r="J26" s="202"/>
+      <c r="J26" s="186"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" thickBot="1">
       <c r="A27" s="85"/>
@@ -6527,7 +6175,7 @@
       <c r="F27" s="81"/>
       <c r="G27" s="28"/>
       <c r="H27" s="51"/>
-      <c r="J27" s="202"/>
+      <c r="J27" s="186"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1">
       <c r="A28" s="61"/>
@@ -6543,13 +6191,13 @@
         <v>19</v>
       </c>
       <c r="G28" s="94"/>
-      <c r="H28" s="204" t="s">
+      <c r="H28" s="188" t="s">
         <v>129</v>
       </c>
-      <c r="I28" s="207" t="s">
+      <c r="I28" s="191" t="s">
         <v>265</v>
       </c>
-      <c r="J28" s="202"/>
+      <c r="J28" s="186"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="61"/>
@@ -6565,9 +6213,9 @@
         <v>9</v>
       </c>
       <c r="G29" s="28"/>
-      <c r="H29" s="205"/>
-      <c r="I29" s="208"/>
-      <c r="J29" s="202"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="186"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="61"/>
@@ -6583,9 +6231,9 @@
         <v>14</v>
       </c>
       <c r="G30" s="28"/>
-      <c r="H30" s="205"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="202"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="186"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1">
       <c r="A31" s="61"/>
@@ -6601,9 +6249,9 @@
         <v>34</v>
       </c>
       <c r="G31" s="92"/>
-      <c r="H31" s="205"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="202"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="186"/>
     </row>
     <row r="32" spans="1:10" ht="13.5" thickBot="1">
       <c r="A32" s="61"/>
@@ -6619,9 +6267,9 @@
         <v>13</v>
       </c>
       <c r="G32" s="20"/>
-      <c r="H32" s="206"/>
-      <c r="I32" s="209"/>
-      <c r="J32" s="203"/>
+      <c r="H32" s="190"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="187"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" thickBot="1">
       <c r="A33" s="62"/>
@@ -6754,10 +6402,10 @@
       <c r="J39" s="136"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="215" t="s">
+      <c r="A40" s="199" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="215"/>
+      <c r="B40" s="199"/>
       <c r="C40" s="55"/>
       <c r="D40" s="53"/>
       <c r="E40" s="53"/>
@@ -6767,10 +6415,10 @@
       <c r="J40" s="136"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="215" t="s">
+      <c r="A41" s="199" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="215"/>
+      <c r="B41" s="199"/>
       <c r="C41" s="56"/>
       <c r="D41" s="53"/>
       <c r="E41" s="53"/>
@@ -6780,10 +6428,10 @@
       <c r="J41" s="136"/>
     </row>
     <row r="42" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A42" s="210" t="s">
+      <c r="A42" s="194" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="211"/>
+      <c r="B42" s="195"/>
       <c r="C42" s="57"/>
       <c r="D42" s="53"/>
       <c r="E42" s="53"/>
@@ -7056,1002 +6704,986 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="58.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" style="177" customWidth="1"/>
-    <col min="2" max="2" width="66.42578125" style="177" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="177" customWidth="1"/>
-    <col min="4" max="4" width="55.5703125" style="177" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" style="173" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="172" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" style="172" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="172" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" style="172" customWidth="1"/>
-    <col min="10" max="16384" width="58.7109375" style="177"/>
+    <col min="1" max="1" width="57.5703125" style="161" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" style="161" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="161" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" style="161" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="178" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="159" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="159" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="159" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="159" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="161" customWidth="1"/>
+    <col min="11" max="16384" width="58.7109375" style="161"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="225" t="s">
+    <row r="1" spans="1:10" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A1" s="209" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+    </row>
+    <row r="2" spans="1:10" s="165" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A2" s="162" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="163" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-    </row>
-    <row r="2" spans="1:9" s="159" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A2" s="184" t="s">
-        <v>365</v>
-      </c>
-      <c r="B2" s="185" t="s">
-        <v>366</v>
-      </c>
-      <c r="C2" s="186" t="s">
+      <c r="D2" s="164" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" s="206" t="s">
+        <v>417</v>
+      </c>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="208"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167">
+        <v>1</v>
+      </c>
+      <c r="F3" s="168" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="166" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="166" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="166" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" s="166" t="s">
+        <v>370</v>
+      </c>
+      <c r="E4" s="170"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="171">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H4" s="172" t="s">
+        <v>368</v>
+      </c>
+      <c r="I4" s="169"/>
+    </row>
+    <row r="5" spans="1:10" ht="38.25">
+      <c r="A5" s="166" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="166" t="s">
+        <v>434</v>
+      </c>
+      <c r="C5" s="166" t="s">
+        <v>435</v>
+      </c>
+      <c r="D5" s="173" t="s">
+        <v>476</v>
+      </c>
+      <c r="E5" s="170"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="171">
+        <v>1.2</v>
+      </c>
+      <c r="H5" s="172" t="s">
+        <v>371</v>
+      </c>
+      <c r="I5" s="169"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="173"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="171">
+        <v>1.3</v>
+      </c>
+      <c r="H6" s="172" t="s">
+        <v>372</v>
+      </c>
+      <c r="I6" s="169"/>
+    </row>
+    <row r="7" spans="1:10" ht="51.75" customHeight="1">
+      <c r="A7" s="173" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" s="169"/>
+      <c r="C7" s="174" t="s">
+        <v>455</v>
+      </c>
+      <c r="D7" s="174" t="s">
+        <v>456</v>
+      </c>
+      <c r="E7" s="170"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="160" t="s">
+        <v>418</v>
+      </c>
+      <c r="J7" s="183"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="166" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" s="166" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="166" t="s">
+        <v>370</v>
+      </c>
+      <c r="D8" s="166" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="170"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="172">
+        <v>1.4</v>
+      </c>
+      <c r="H8" s="172" t="s">
+        <v>373</v>
+      </c>
+      <c r="I8" s="180"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="166"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="172">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="171" t="s">
+        <v>374</v>
+      </c>
+      <c r="I9" s="176"/>
+      <c r="J9" s="166"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="166"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="172" t="s">
+        <v>375</v>
+      </c>
+      <c r="J10" s="183"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="166"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="172" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="166"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="177" t="s">
+        <v>475</v>
+      </c>
+      <c r="D12" s="166"/>
+      <c r="I12" s="175" t="s">
+        <v>421</v>
+      </c>
+      <c r="J12" s="183"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="166"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="166"/>
+      <c r="I13" s="182"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="166"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="179">
+        <v>2</v>
+      </c>
+      <c r="F14" s="172" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="166" t="s">
+        <v>467</v>
+      </c>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166" t="s">
+        <v>457</v>
+      </c>
+      <c r="G15" s="171">
+        <v>2.1</v>
+      </c>
+      <c r="H15" s="172" t="s">
+        <v>378</v>
+      </c>
+      <c r="I15" s="169"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="166" t="s">
+        <v>468</v>
+      </c>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="G16" s="171">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H16" s="172" t="s">
+        <v>379</v>
+      </c>
+      <c r="I16" s="169"/>
+    </row>
+    <row r="17" spans="1:10" s="159" customFormat="1" ht="76.5">
+      <c r="A17" s="173" t="s">
+        <v>477</v>
+      </c>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="178"/>
+      <c r="G17" s="171">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H17" s="172" t="s">
+        <v>380</v>
+      </c>
+      <c r="I17" s="169"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="166" t="s">
+        <v>461</v>
+      </c>
+      <c r="B18" s="166"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="G18" s="171">
+        <v>2.4</v>
+      </c>
+      <c r="H18" s="172" t="s">
+        <v>381</v>
+      </c>
+      <c r="I18" s="169"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="166"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="166"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="179">
+        <v>3</v>
+      </c>
+      <c r="F20" s="172" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="166"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="G21" s="172">
+        <v>3.1</v>
+      </c>
+      <c r="H21" s="172" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="166"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="166" t="s">
+        <v>458</v>
+      </c>
+      <c r="D22" s="166" t="s">
+        <v>437</v>
+      </c>
+      <c r="G22" s="180"/>
+      <c r="I22" s="172" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="166" t="s">
+        <v>462</v>
+      </c>
+      <c r="B23" s="166"/>
+      <c r="C23" s="166" t="s">
+        <v>459</v>
+      </c>
+      <c r="D23" s="166"/>
+      <c r="G23" s="176"/>
+      <c r="I23" s="171" t="s">
+        <v>385</v>
+      </c>
+      <c r="J23" s="183"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="166" t="s">
+        <v>463</v>
+      </c>
+      <c r="B24" s="166"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="166"/>
+      <c r="G24" s="172">
+        <v>3.2</v>
+      </c>
+      <c r="H24" s="172" t="s">
+        <v>386</v>
+      </c>
+      <c r="I24" s="169"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="166"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
+      <c r="G25" s="172">
+        <v>3.3</v>
+      </c>
+      <c r="H25" s="172" t="s">
+        <v>387</v>
+      </c>
+      <c r="I25" s="169"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="166" t="s">
+        <v>470</v>
+      </c>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="G26" s="172">
+        <v>3.4</v>
+      </c>
+      <c r="H26" s="172" t="s">
+        <v>388</v>
+      </c>
+      <c r="I26" s="169"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="166"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="I27" s="169"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="166"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="179">
+        <v>4</v>
+      </c>
+      <c r="F28" s="172" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="166"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="G29" s="171">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H29" s="172" t="s">
+        <v>390</v>
+      </c>
+      <c r="I29" s="169"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="166"/>
+      <c r="B30" s="166" t="s">
+        <v>447</v>
+      </c>
+      <c r="C30" s="166" t="s">
+        <v>448</v>
+      </c>
+      <c r="D30" s="166" t="s">
+        <v>449</v>
+      </c>
+      <c r="G30" s="180"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="171" t="s">
+        <v>391</v>
+      </c>
+      <c r="J30" s="183"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="166"/>
+      <c r="B31" s="166" t="s">
         <v>441</v>
       </c>
-      <c r="D2" s="186" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2" s="222" t="s">
+      <c r="C31" s="166" t="s">
+        <v>442</v>
+      </c>
+      <c r="D31" s="166" t="s">
+        <v>443</v>
+      </c>
+      <c r="G31" s="175"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="171" t="s">
+        <v>392</v>
+      </c>
+      <c r="J31" s="183"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="166"/>
+      <c r="B32" s="166" t="s">
+        <v>450</v>
+      </c>
+      <c r="C32" s="166" t="s">
+        <v>451</v>
+      </c>
+      <c r="D32" s="166" t="s">
+        <v>452</v>
+      </c>
+      <c r="G32" s="175"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="171" t="s">
+        <v>393</v>
+      </c>
+      <c r="J32" s="183"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="166"/>
+      <c r="B33" s="166" t="s">
+        <v>425</v>
+      </c>
+      <c r="C33" s="166" t="s">
+        <v>430</v>
+      </c>
+      <c r="D33" s="166" t="s">
+        <v>438</v>
+      </c>
+      <c r="G33" s="175"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="171" t="s">
+        <v>394</v>
+      </c>
+      <c r="J33" s="183"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="166"/>
+      <c r="B34" s="166" t="s">
+        <v>444</v>
+      </c>
+      <c r="C34" s="166" t="s">
+        <v>445</v>
+      </c>
+      <c r="D34" s="166" t="s">
+        <v>446</v>
+      </c>
+      <c r="G34" s="175"/>
+      <c r="H34" s="169"/>
+      <c r="I34" s="171" t="s">
+        <v>395</v>
+      </c>
+      <c r="J34" s="183"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="166" t="s">
+        <v>464</v>
+      </c>
+      <c r="B35" s="166" t="s">
+        <v>426</v>
+      </c>
+      <c r="C35" s="166" t="s">
+        <v>431</v>
+      </c>
+      <c r="D35" s="166"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="172" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="166" t="s">
+        <v>465</v>
+      </c>
+      <c r="B36" s="166" t="s">
         <v>427</v>
       </c>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="224"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="188">
-        <v>1</v>
-      </c>
-      <c r="F3" s="183" t="s">
-        <v>367</v>
-      </c>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="163" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4" s="163" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" s="163" t="s">
-        <v>370</v>
-      </c>
-      <c r="D4" s="163" t="s">
-        <v>370</v>
-      </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="169">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H4" s="160" t="s">
-        <v>368</v>
-      </c>
-      <c r="I4" s="162"/>
-    </row>
-    <row r="5" spans="1:9" ht="38.25">
-      <c r="A5" s="163" t="s">
-        <v>369</v>
-      </c>
-      <c r="B5" s="163" t="s">
-        <v>446</v>
-      </c>
-      <c r="C5" s="163" t="s">
-        <v>447</v>
-      </c>
-      <c r="D5" s="164" t="s">
-        <v>493</v>
-      </c>
-      <c r="E5" s="161"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="169">
-        <v>1.2</v>
-      </c>
-      <c r="H5" s="160" t="s">
-        <v>371</v>
-      </c>
-      <c r="I5" s="162"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="164"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="169">
-        <v>1.3</v>
-      </c>
-      <c r="H6" s="160" t="s">
-        <v>372</v>
-      </c>
-      <c r="I6" s="162"/>
-    </row>
-    <row r="7" spans="1:9" ht="51.75" customHeight="1">
-      <c r="A7" s="164" t="s">
+      <c r="C36" s="166" t="s">
+        <v>432</v>
+      </c>
+      <c r="D36" s="166"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="169"/>
+      <c r="I36" s="172" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="166" t="s">
+        <v>466</v>
+      </c>
+      <c r="B37" s="166" t="s">
+        <v>428</v>
+      </c>
+      <c r="C37" s="166" t="s">
+        <v>433</v>
+      </c>
+      <c r="D37" s="166"/>
+      <c r="G37" s="175"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="172" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="166"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="166"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="169"/>
+      <c r="I38" s="169"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="166"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
+      <c r="G39" s="171">
+        <v>4.2</v>
+      </c>
+      <c r="H39" s="172" t="s">
+        <v>396</v>
+      </c>
+      <c r="I39" s="169"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="166"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="166"/>
+      <c r="G40" s="171">
+        <v>4.3</v>
+      </c>
+      <c r="H40" s="172" t="s">
+        <v>397</v>
+      </c>
+      <c r="I40" s="169"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="166"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="166" t="s">
+        <v>453</v>
+      </c>
+      <c r="D41" s="166" t="s">
+        <v>454</v>
+      </c>
+      <c r="G41" s="171">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H41" s="172" t="s">
+        <v>398</v>
+      </c>
+      <c r="I41" s="169"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="166"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
+      <c r="G42" s="171">
+        <v>4.5</v>
+      </c>
+      <c r="H42" s="172" t="s">
+        <v>399</v>
+      </c>
+      <c r="I42" s="169"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="166"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
+      <c r="H43" s="169"/>
+      <c r="I43" s="169"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="166"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="179">
+        <v>5</v>
+      </c>
+      <c r="F44" s="172" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="166"/>
+      <c r="B45" s="166"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="166"/>
+      <c r="G45" s="172">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H45" s="172" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="166"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
+      <c r="G46" s="172">
+        <v>5.2</v>
+      </c>
+      <c r="H46" s="172" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="166"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
+      <c r="G47" s="172">
+        <v>5.3</v>
+      </c>
+      <c r="H47" s="172" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="166"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="166"/>
+      <c r="G48" s="172">
+        <v>5.4</v>
+      </c>
+      <c r="H48" s="172" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="166"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
+      <c r="H49" s="169"/>
+      <c r="I49" s="169"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="166"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="179">
+        <v>6</v>
+      </c>
+      <c r="F50" s="172" t="s">
+        <v>405</v>
+      </c>
+      <c r="H50" s="169"/>
+      <c r="I50" s="169"/>
+    </row>
+    <row r="51" spans="1:10" ht="38.25">
+      <c r="A51" s="173" t="s">
+        <v>471</v>
+      </c>
+      <c r="B51" s="166"/>
+      <c r="C51" s="166" t="s">
+        <v>439</v>
+      </c>
+      <c r="D51" s="166" t="s">
+        <v>440</v>
+      </c>
+      <c r="G51" s="171">
+        <v>6.1</v>
+      </c>
+      <c r="H51" s="172" t="s">
+        <v>406</v>
+      </c>
+      <c r="I51" s="169"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="166"/>
+      <c r="B52" s="166"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="166"/>
+      <c r="H52" s="169"/>
+      <c r="I52" s="169"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="166"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="166"/>
+      <c r="E53" s="179">
+        <v>7</v>
+      </c>
+      <c r="F53" s="172" t="s">
+        <v>407</v>
+      </c>
+      <c r="H53" s="169"/>
+      <c r="I53" s="169"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="166"/>
+      <c r="B54" s="166"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="166"/>
+      <c r="G54" s="171">
+        <v>7.1</v>
+      </c>
+      <c r="H54" s="172" t="s">
+        <v>408</v>
+      </c>
+      <c r="I54" s="169"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="166"/>
+      <c r="B55" s="166"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="166"/>
+      <c r="G55" s="171">
+        <v>7.2</v>
+      </c>
+      <c r="H55" s="172" t="s">
+        <v>409</v>
+      </c>
+      <c r="I55" s="169"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="166"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="166"/>
+      <c r="G56" s="171">
+        <v>7.3</v>
+      </c>
+      <c r="H56" s="172" t="s">
+        <v>410</v>
+      </c>
+      <c r="I56" s="169"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="166"/>
+      <c r="B57" s="166"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="166"/>
+      <c r="H57" s="169"/>
+      <c r="I57" s="169"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="166"/>
+      <c r="B58" s="166"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="166"/>
+      <c r="E58" s="170"/>
+      <c r="F58" s="172" t="s">
+        <v>411</v>
+      </c>
+      <c r="G58" s="172"/>
+      <c r="H58" s="172"/>
+      <c r="I58" s="169"/>
+    </row>
+    <row r="59" spans="1:10" ht="25.5">
+      <c r="A59" s="166"/>
+      <c r="B59" s="166"/>
+      <c r="C59" s="173" t="s">
+        <v>460</v>
+      </c>
+      <c r="D59" s="166"/>
+      <c r="G59" s="172"/>
+      <c r="H59" s="172" t="s">
+        <v>412</v>
+      </c>
+      <c r="I59" s="169"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="166"/>
+      <c r="B60" s="166"/>
+      <c r="C60" s="166"/>
+      <c r="D60" s="166"/>
+      <c r="G60" s="172"/>
+      <c r="H60" s="172" t="s">
+        <v>413</v>
+      </c>
+      <c r="I60" s="169"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="166"/>
+      <c r="B61" s="166"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="166"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="173"/>
+      <c r="B62" s="173"/>
+      <c r="C62" s="173"/>
+      <c r="D62" s="173"/>
+      <c r="E62" s="170"/>
+      <c r="F62" s="172" t="s">
+        <v>414</v>
+      </c>
+      <c r="G62" s="169"/>
+      <c r="H62" s="169"/>
+      <c r="I62" s="169"/>
+    </row>
+    <row r="63" spans="1:10" ht="38.25">
+      <c r="A63" s="173" t="s">
+        <v>478</v>
+      </c>
+      <c r="B63" s="173" t="s">
+        <v>474</v>
+      </c>
+      <c r="C63" s="173" t="s">
+        <v>472</v>
+      </c>
+      <c r="D63" s="166" t="s">
+        <v>473</v>
+      </c>
+      <c r="G63" s="172"/>
+      <c r="H63" s="172" t="s">
+        <v>415</v>
+      </c>
+      <c r="I63" s="169"/>
+    </row>
+    <row r="64" spans="1:10" ht="171.75" customHeight="1">
+      <c r="A64" s="173" t="s">
+        <v>479</v>
+      </c>
+      <c r="B64" s="173" t="s">
+        <v>480</v>
+      </c>
+      <c r="C64" s="181" t="s">
         <v>481</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="165" t="s">
-        <v>467</v>
-      </c>
-      <c r="D7" s="165" t="s">
-        <v>468</v>
-      </c>
-      <c r="E7" s="161"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="187" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="163" t="s">
-        <v>370</v>
-      </c>
-      <c r="B8" s="163" t="s">
-        <v>370</v>
-      </c>
-      <c r="C8" s="163" t="s">
-        <v>370</v>
-      </c>
-      <c r="D8" s="163" t="s">
-        <v>370</v>
-      </c>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="160">
-        <v>1.4</v>
-      </c>
-      <c r="H8" s="168" t="s">
-        <v>373</v>
-      </c>
-      <c r="I8" s="169"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="163"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="160">
-        <v>1.5</v>
-      </c>
-      <c r="H9" s="160" t="s">
-        <v>374</v>
-      </c>
-      <c r="I9" s="162"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="163"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="170" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="163"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="171" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="163"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="196" t="s">
-        <v>494</v>
-      </c>
-      <c r="D12" s="163"/>
-      <c r="I12" s="171" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="163"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="167">
-        <v>2</v>
-      </c>
-      <c r="F13" s="160" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="163" t="s">
-        <v>479</v>
-      </c>
-      <c r="B14" s="163"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163" t="s">
-        <v>469</v>
-      </c>
-      <c r="G14" s="169">
-        <v>2.1</v>
-      </c>
-      <c r="H14" s="160" t="s">
-        <v>378</v>
-      </c>
-      <c r="I14" s="162"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="163" t="s">
-        <v>480</v>
-      </c>
-      <c r="B15" s="163"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="G15" s="169">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H15" s="160" t="s">
-        <v>379</v>
-      </c>
-      <c r="I15" s="162"/>
-    </row>
-    <row r="16" spans="1:9" s="172" customFormat="1" ht="76.5">
-      <c r="A16" s="198" t="s">
-        <v>496</v>
-      </c>
-      <c r="B16" s="162"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="173"/>
-      <c r="G16" s="169">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H16" s="160" t="s">
-        <v>380</v>
-      </c>
-      <c r="I16" s="162"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="163" t="s">
-        <v>473</v>
-      </c>
-      <c r="B17" s="163"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="G17" s="169">
-        <v>2.4</v>
-      </c>
-      <c r="H17" s="160" t="s">
-        <v>381</v>
-      </c>
-      <c r="I17" s="162"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="163"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="163"/>
-      <c r="B19" s="163"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="167">
-        <v>3</v>
-      </c>
-      <c r="F19" s="160" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="163"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="G20" s="160">
-        <v>3.1</v>
-      </c>
-      <c r="H20" s="160" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="163"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="163" t="s">
-        <v>470</v>
-      </c>
-      <c r="D21" s="163" t="s">
-        <v>449</v>
-      </c>
-      <c r="G21" s="194"/>
-      <c r="I21" s="174" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="163" t="s">
-        <v>474</v>
-      </c>
-      <c r="B22" s="163"/>
-      <c r="C22" s="163" t="s">
-        <v>471</v>
-      </c>
-      <c r="D22" s="163"/>
-      <c r="G22" s="171"/>
-      <c r="I22" s="170" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="163" t="s">
-        <v>475</v>
-      </c>
-      <c r="B23" s="163"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="G23" s="160">
-        <v>3.2</v>
-      </c>
-      <c r="H23" s="160" t="s">
-        <v>386</v>
-      </c>
-      <c r="I23" s="162"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="163"/>
-      <c r="B24" s="163"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
-      <c r="G24" s="160">
-        <v>3.3</v>
-      </c>
-      <c r="H24" s="160" t="s">
-        <v>387</v>
-      </c>
-      <c r="I24" s="162"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="163" t="s">
+      <c r="D64" s="181" t="s">
         <v>482</v>
       </c>
-      <c r="B25" s="163"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
-      <c r="G25" s="160">
-        <v>3.4</v>
-      </c>
-      <c r="H25" s="160" t="s">
-        <v>388</v>
-      </c>
-      <c r="I25" s="162"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="163"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="I26" s="162"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="163"/>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="167">
-        <v>4</v>
-      </c>
-      <c r="F27" s="160" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="163"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="G28" s="169">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H28" s="160" t="s">
-        <v>390</v>
-      </c>
-      <c r="I28" s="162"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="163"/>
-      <c r="B29" s="163" t="s">
-        <v>459</v>
-      </c>
-      <c r="C29" s="163" t="s">
-        <v>460</v>
-      </c>
-      <c r="D29" s="163" t="s">
-        <v>461</v>
-      </c>
-      <c r="G29" s="194"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="169" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="163"/>
-      <c r="B30" s="163" t="s">
-        <v>453</v>
-      </c>
-      <c r="C30" s="163" t="s">
-        <v>454</v>
-      </c>
-      <c r="D30" s="163" t="s">
-        <v>455</v>
-      </c>
-      <c r="G30" s="193"/>
-      <c r="H30" s="162"/>
-      <c r="I30" s="174" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="163"/>
-      <c r="B31" s="163" t="s">
-        <v>462</v>
-      </c>
-      <c r="C31" s="163" t="s">
-        <v>463</v>
-      </c>
-      <c r="D31" s="163" t="s">
-        <v>464</v>
-      </c>
-      <c r="G31" s="193"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="174" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="163"/>
-      <c r="B32" s="163" t="s">
-        <v>437</v>
-      </c>
-      <c r="C32" s="163" t="s">
-        <v>442</v>
-      </c>
-      <c r="D32" s="163" t="s">
-        <v>450</v>
-      </c>
-      <c r="G32" s="193"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="169" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="163"/>
-      <c r="B33" s="163" t="s">
-        <v>456</v>
-      </c>
-      <c r="C33" s="163" t="s">
-        <v>457</v>
-      </c>
-      <c r="D33" s="163" t="s">
-        <v>458</v>
-      </c>
-      <c r="G33" s="193"/>
-      <c r="H33" s="162"/>
-      <c r="I33" s="169" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="163" t="s">
-        <v>476</v>
-      </c>
-      <c r="B34" s="163" t="s">
-        <v>438</v>
-      </c>
-      <c r="C34" s="163" t="s">
-        <v>443</v>
-      </c>
-      <c r="D34" s="163"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="162"/>
-      <c r="I34" s="160" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="163" t="s">
-        <v>477</v>
-      </c>
-      <c r="B35" s="163" t="s">
-        <v>439</v>
-      </c>
-      <c r="C35" s="163" t="s">
-        <v>444</v>
-      </c>
-      <c r="D35" s="163"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="160" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="163" t="s">
-        <v>478</v>
-      </c>
-      <c r="B36" s="195" t="s">
-        <v>440</v>
-      </c>
-      <c r="C36" s="195" t="s">
-        <v>445</v>
-      </c>
-      <c r="D36" s="163"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="160" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="163"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
-      <c r="G37" s="193"/>
-      <c r="H37" s="162"/>
-      <c r="I37" s="162"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="163"/>
-      <c r="B38" s="163"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
-      <c r="G38" s="169">
-        <v>4.2</v>
-      </c>
-      <c r="H38" s="160" t="s">
-        <v>396</v>
-      </c>
-      <c r="I38" s="162"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="163"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
-      <c r="G39" s="169">
-        <v>4.3</v>
-      </c>
-      <c r="H39" s="160" t="s">
-        <v>397</v>
-      </c>
-      <c r="I39" s="162"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="163"/>
-      <c r="B40" s="163"/>
-      <c r="C40" s="163" t="s">
-        <v>465</v>
-      </c>
-      <c r="D40" s="163" t="s">
-        <v>466</v>
-      </c>
-      <c r="G40" s="169">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H40" s="168" t="s">
-        <v>398</v>
-      </c>
-      <c r="I40" s="162"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="163"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
-      <c r="G41" s="169">
-        <v>4.5</v>
-      </c>
-      <c r="H41" s="160" t="s">
-        <v>399</v>
-      </c>
-      <c r="I41" s="162"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="163"/>
-      <c r="B42" s="163"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
-      <c r="H42" s="162"/>
-      <c r="I42" s="162"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="163"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="167">
-        <v>5</v>
-      </c>
-      <c r="F43" s="160" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="163"/>
-      <c r="B44" s="163"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
-      <c r="G44" s="160">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H44" s="160" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="163"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
-      <c r="G45" s="160">
-        <v>5.2</v>
-      </c>
-      <c r="H45" s="160" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="163"/>
-      <c r="B46" s="163"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
-      <c r="G46" s="160">
-        <v>5.3</v>
-      </c>
-      <c r="H46" s="160" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="163"/>
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
-      <c r="G47" s="160">
-        <v>5.4</v>
-      </c>
-      <c r="H47" s="160" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="163"/>
-      <c r="B48" s="163"/>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
-      <c r="H48" s="162"/>
-      <c r="I48" s="162"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="163"/>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
-      <c r="E49" s="167">
-        <v>6</v>
-      </c>
-      <c r="F49" s="160" t="s">
-        <v>405</v>
-      </c>
-      <c r="H49" s="162"/>
-      <c r="I49" s="162"/>
-    </row>
-    <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="164" t="s">
+      <c r="G64" s="169"/>
+      <c r="I64" s="172" t="s">
         <v>483</v>
       </c>
-      <c r="B50" s="163"/>
-      <c r="C50" s="163" t="s">
-        <v>451</v>
-      </c>
-      <c r="D50" s="163" t="s">
-        <v>452</v>
-      </c>
-      <c r="G50" s="169">
-        <v>6.1</v>
-      </c>
-      <c r="H50" s="160" t="s">
-        <v>406</v>
-      </c>
-      <c r="I50" s="162"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="163"/>
-      <c r="B51" s="163"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="162"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="163"/>
-      <c r="B52" s="163"/>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
-      <c r="E52" s="167">
-        <v>7</v>
-      </c>
-      <c r="F52" s="160" t="s">
-        <v>407</v>
-      </c>
-      <c r="H52" s="162"/>
-      <c r="I52" s="162"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="163"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
-      <c r="G53" s="169">
-        <v>7.1</v>
-      </c>
-      <c r="H53" s="160" t="s">
-        <v>408</v>
-      </c>
-      <c r="I53" s="162"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="163"/>
-      <c r="B54" s="163"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
-      <c r="G54" s="169">
-        <v>7.2</v>
-      </c>
-      <c r="H54" s="160" t="s">
-        <v>409</v>
-      </c>
-      <c r="I54" s="162"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="163"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
-      <c r="G55" s="169">
-        <v>7.3</v>
-      </c>
-      <c r="H55" s="160" t="s">
-        <v>410</v>
-      </c>
-      <c r="I55" s="162"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="163"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="163"/>
-      <c r="B57" s="163"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
-      <c r="E57" s="161"/>
-      <c r="F57" s="160" t="s">
-        <v>411</v>
-      </c>
-      <c r="G57" s="160"/>
-      <c r="H57" s="160"/>
-      <c r="I57" s="162"/>
-    </row>
-    <row r="58" spans="1:9" ht="25.5">
-      <c r="A58" s="163"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="164" t="s">
-        <v>472</v>
-      </c>
-      <c r="D58" s="163"/>
-      <c r="G58" s="160"/>
-      <c r="H58" s="160" t="s">
-        <v>412</v>
-      </c>
-      <c r="I58" s="162"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="163"/>
-      <c r="B59" s="163"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
-      <c r="G59" s="160"/>
-      <c r="H59" s="175" t="s">
-        <v>413</v>
-      </c>
-      <c r="I59" s="162"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="163"/>
-      <c r="B60" s="163"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="164"/>
-      <c r="B61" s="164"/>
-      <c r="C61" s="164"/>
-      <c r="D61" s="164"/>
-      <c r="E61" s="161"/>
-      <c r="F61" s="160" t="s">
-        <v>414</v>
-      </c>
-      <c r="G61" s="162"/>
-      <c r="H61" s="162"/>
-      <c r="I61" s="162"/>
-    </row>
-    <row r="62" spans="1:9" ht="38.25">
-      <c r="A62" s="164" t="s">
-        <v>488</v>
-      </c>
-      <c r="B62" s="164" t="s">
-        <v>487</v>
-      </c>
-      <c r="C62" s="164" t="s">
-        <v>484</v>
-      </c>
-      <c r="D62" s="163" t="s">
-        <v>485</v>
-      </c>
-      <c r="G62" s="160"/>
-      <c r="H62" s="160" t="s">
-        <v>415</v>
-      </c>
-      <c r="I62" s="162"/>
-    </row>
-    <row r="63" spans="1:9" ht="275.25" customHeight="1">
-      <c r="A63" s="164" t="s">
-        <v>489</v>
-      </c>
-      <c r="B63" s="164" t="s">
-        <v>486</v>
-      </c>
-      <c r="C63" s="176" t="s">
-        <v>495</v>
-      </c>
-      <c r="D63" s="176" t="s">
-        <v>492</v>
-      </c>
-      <c r="G63" s="162"/>
-      <c r="I63" s="169" t="s">
+      <c r="J64" s="183"/>
+    </row>
+    <row r="65" spans="5:10">
+      <c r="G65" s="169"/>
+      <c r="I65" s="169"/>
+      <c r="J65" s="166"/>
+    </row>
+    <row r="66" spans="5:10">
+      <c r="G66" s="172"/>
+      <c r="H66" s="171" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="G64" s="162"/>
-      <c r="I64" s="166" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="65" spans="5:9">
-      <c r="G65" s="160"/>
-      <c r="H65" s="160" t="s">
-        <v>418</v>
-      </c>
-      <c r="I65" s="169"/>
-    </row>
-    <row r="67" spans="5:9">
-      <c r="E67" s="189"/>
-      <c r="F67" s="178" t="s">
-        <v>419</v>
-      </c>
-      <c r="G67" s="172" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="68" spans="5:9">
-      <c r="E68" s="190"/>
-      <c r="F68" s="179" t="s">
-        <v>421</v>
-      </c>
-      <c r="G68" s="172" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="69" spans="5:9">
-      <c r="E69" s="191"/>
-      <c r="F69" s="180" t="s">
-        <v>423</v>
-      </c>
-      <c r="G69" s="172" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="70" spans="5:9">
-      <c r="E70" s="192"/>
-      <c r="F70" s="181" t="s">
-        <v>425</v>
-      </c>
-      <c r="G70" s="182" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="71" spans="5:9">
-      <c r="F71" s="197" t="s">
-        <v>435</v>
-      </c>
-      <c r="G71" s="172" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="72" spans="5:9">
-      <c r="F72" s="199" t="s">
-        <v>490</v>
-      </c>
-      <c r="G72" s="172" t="s">
-        <v>491</v>
-      </c>
+      <c r="I66" s="175"/>
+      <c r="J66" s="166"/>
+    </row>
+    <row r="67" spans="5:10">
+      <c r="I67" s="169"/>
+    </row>
+    <row r="70" spans="5:10">
+      <c r="E70" s="170"/>
+      <c r="F70" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:I15 A3:D15 A17:I65">
-    <cfRule type="expression" dxfId="3" priority="16">
+  <conditionalFormatting sqref="F3:I11 A3:D11 A18:I66 A13:D16 F13:I16">
+    <cfRule type="expression" dxfId="5" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E15">
+  <conditionalFormatting sqref="E3:E11 E13:E16">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:D17 F17:I17">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
     <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:D16 F16:I16">
-    <cfRule type="expression" dxfId="1" priority="4">
+  <conditionalFormatting sqref="A12:D12 F12:I12">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -8082,16 +7714,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="210" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="228"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="212"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" thickBot="1">
       <c r="A2" s="145" t="s">
@@ -9050,17 +8682,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="216" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="213" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="230"/>
+      <c r="B2" s="214"/>
       <c r="C2" s="100" t="s">
         <v>52</v>
       </c>
@@ -9415,19 +9047,19 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="231" t="s">
+      <c r="A37" s="215" t="s">
         <v>362</v>
       </c>
-      <c r="B37" s="231"/>
+      <c r="B37" s="215"/>
       <c r="C37" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="231" t="s">
+      <c r="A38" s="215" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="231"/>
+      <c r="B38" s="215"/>
       <c r="C38" s="104" t="s">
         <v>149</v>
       </c>

--- a/DataDictionary/eCH-0160_xIsadg&EAD_v2.0.xlsx
+++ b/DataDictionary/eCH-0160_xIsadg&EAD_v2.0.xlsx
@@ -13,9 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="eCH-0160 zu xIsadg v1.6.1" sheetId="13" r:id="rId1"/>
-    <sheet name="eCH-0160 zu xIsadg v2.0" sheetId="21" r:id="rId2"/>
+    <sheet name="eCH-0160 zu xIsadg v2.0" sheetId="23" r:id="rId2"/>
     <sheet name="xIsadg_DataDictionary" sheetId="19" r:id="rId3"/>
-    <sheet name="ISAD(G)" sheetId="18" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn3" localSheetId="2">xIsadg_DataDictionary!#REF!</definedName>
@@ -23,8 +22,7 @@
     <definedName name="_ftnref2" localSheetId="2">xIsadg_DataDictionary!#REF!</definedName>
     <definedName name="_ftnref3" localSheetId="2">xIsadg_DataDictionary!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'eCH-0160 zu xIsadg v1.6.1'!$A$1:$J$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'eCH-0160 zu xIsadg v2.0'!$A$1:$I$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'ISAD(G)'!$A$1:$C$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'eCH-0160 zu xIsadg v2.0'!$A$1:$L$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">xIsadg_DataDictionary!$A$1:$H$41</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">xIsadg_DataDictionary!$2:$2</definedName>
     <definedName name="OLE_LINK3" localSheetId="2">xIsadg_DataDictionary!#REF!</definedName>
@@ -785,10 +783,11 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Natasa De Maio (sarjan)</author>
+    <author>Martin</author>
     <author>Kaiser Martin KOST</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -801,7 +800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="K5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -814,7 +813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -823,11 +822,59 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">isad:title ist mandatory und arelda:titel ein muss Feld im Falle von einem FILES SIP kann aber die Stufe Dokument entfallen, dann ist der Dateiname aus der Dateiablage der Dokumenttitel (siehe eCH-0160 Spez. S. 17,  https://www.ech.ch/alfresco/s/ech/download?nodeid=e7675bf3-3965-4ee9-91fa-9bd71133af76 )
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Folgende Logik wird angewendet:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- wenn es die Stufe Dokument gibt wird  arelda:titel übernommen
+- fehlt in einem FILES SIP die Stufe Dokument wird arelda:datei/originalName, 
+- wenn nicht vorhanden arelda:datei/name übernommem</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
           <t>Titel: Benennung der Verzeichnungseinheit</t>
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="L8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -849,7 +896,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Martin: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">das Archiv bestimmt den Einfügepunkt in der Archivtektonik (z.B. Bestand, Teilbestand, …)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -870,7 +941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0">
+    <comment ref="L11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -886,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="L12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -899,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0">
+    <comment ref="I14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -912,7 +983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0">
+    <comment ref="K15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -925,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -934,11 +1005,36 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">der Existenzzeitraum der Provenienz ist kein Datum mit Bezug auf die verzeichneten Archivalien sondern bezieht sich alleine auf die Verwaltungsgeschichte 
+3.2.2 Administrative / biographical history
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Existenzzeitraum ist ein Textfeld und kein Datumsfeld, weil es nur den Status von Kommentar hat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
           <t>Verwaltungsgeschichte/Biographische Angaben: Information über Verwaltungsgeschichte der Provenienzstelle bzw. die Biographie, wenn es sich um natürliche Personen handelt, zum besseren Verständnis des zur Verzeichnungseinheit gehörenden Kontextes</t>
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0">
+    <comment ref="K17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -951,7 +1047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0">
+    <comment ref="K18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -964,7 +1060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -977,7 +1073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="0" shapeId="0">
+    <comment ref="K21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -990,7 +1086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0" shapeId="0">
+    <comment ref="L22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1010,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="0" shapeId="0">
+    <comment ref="L23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1029,7 +1125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="0" shapeId="0">
+    <comment ref="K24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="0" shapeId="0">
+    <comment ref="K25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1055,7 +1151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H26" authorId="0" shapeId="0">
+    <comment ref="D26" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1064,11 +1160,85 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Anwendungszeitraum ist kein Datum mit Bezug auf die verzeichneten Archivalien sondern bezieht sich alleine auf Verwendung des Ordnungssystems in der Verwaltung
+</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Siehe dazu den englischen Text zu 3.3.4 System of arrangement: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+To provide information on the internal structure, the order and/or the system of classification of the unit of description. 
+Specify the internal structure, order and/or the system of classification of the unit of description. Note how these have been treated by the archivist. For electronic records, record or reference information on system design. 
+https://www.ica.org/sites/default/files/CBPS_2000_Guidelines_ISAD%28G%29_Second-edition_EN.pdf 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anwendungszeitraum ist ein Textfeld und kein Datumsfeld, weil es nur den Status von Kommentar hat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G26" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Es ist hier der vollständige Pfad gemeint, so wie er in arelda:content abgebildet ist
+Die Information Ablagepfad und Dateiname enthält nicht nur in FILES SIPs sondern auch bei älteren GEVER Systemen semantische Information. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Der englischen Text zu 3.3.4 System of arrangement: 
+To provide information on the internal structure, the order and/or the system of classification of the unit of description. Specify the internal structure, order and/or the system of classification of the unit of description. Note how these have been treated by the archivist. For electronic records, record or reference information on system design. 
+https://www.ica.org/sites/default/files/CBPS_2000_Guidelines_ISAD%28G%29_Second-edition_EN.pdf </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
           <t>Ordnung und Klassifikation: Bereitstellung von Informationen über die Ordnung und Klassifikation der Verzeichnungseinheit</t>
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="0" shapeId="0">
+    <comment ref="I28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1081,7 +1251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H29" authorId="0" shapeId="0">
+    <comment ref="K29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1094,7 +1264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I30" authorId="0" shapeId="0">
+    <comment ref="L30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1107,7 +1277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0" shapeId="0">
+    <comment ref="L31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I32" authorId="0" shapeId="0">
+    <comment ref="L32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1142,7 +1312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I33" authorId="0" shapeId="0">
+    <comment ref="L33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1155,7 +1325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I34" authorId="0" shapeId="0">
+    <comment ref="L34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I35" authorId="1" shapeId="0">
+    <comment ref="L35" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1181,7 +1351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I36" authorId="1" shapeId="0">
+    <comment ref="L36" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1194,7 +1364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I37" authorId="1" shapeId="0">
+    <comment ref="L37" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1207,7 +1377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="0" shapeId="0">
+    <comment ref="K39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1220,7 +1390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H40" authorId="0" shapeId="0">
+    <comment ref="K40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1233,7 +1403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H41" authorId="0" shapeId="0">
+    <comment ref="K41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1251,7 +1421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H42" authorId="0" shapeId="0">
+    <comment ref="K42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1264,7 +1434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="0" shapeId="0">
+    <comment ref="I44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1277,7 +1447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H45" authorId="0" shapeId="0">
+    <comment ref="K45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1290,7 +1460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H46" authorId="0" shapeId="0">
+    <comment ref="K46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1303,7 +1473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H47" authorId="0" shapeId="0">
+    <comment ref="K47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1316,7 +1486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H48" authorId="0" shapeId="0">
+    <comment ref="K48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1329,7 +1499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="0" shapeId="0">
+    <comment ref="I50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1342,7 +1512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H51" authorId="0" shapeId="0">
+    <comment ref="K51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1366,7 +1536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F53" authorId="0" shapeId="0">
+    <comment ref="I53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1379,7 +1549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H54" authorId="0" shapeId="0">
+    <comment ref="K54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1392,7 +1562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H55" authorId="0" shapeId="0">
+    <comment ref="K55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1405,7 +1575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H56" authorId="0" shapeId="0">
+    <comment ref="K56" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1418,7 +1588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F58" authorId="0" shapeId="0">
+    <comment ref="I58" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1431,20 +1601,46 @@
         </r>
       </text>
     </comment>
-    <comment ref="H59" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
+    <comment ref="E59" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
+          <t>Martin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+nach eCH-0160 DataDictionary ist Nummer:
+"Eindeutige Identifikation und Ordnungsmerkmal der Ordnungssystemposition" und damit auf gleicher Stufe wie Aktenzeichen
+https://www.ech.ch/alfresco/s/ech/download?nodeid=4bf53ff1-0e4f-4fb9-9ccc-75a4219bb20c</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K59" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
           <t>Aktenzeichen: Identifikator der Verzeichnungseinheit im Quellsystem</t>
         </r>
       </text>
     </comment>
-    <comment ref="H60" authorId="0" shapeId="0">
+    <comment ref="K60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1460,7 +1656,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="F62" authorId="0" shapeId="0">
+    <comment ref="L61" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Referenz auf eine Primärdatei in Form einer URL - auch relativer Pfad ist möglich</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L62" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Referenz auf einen Objekteintrag in der premis- oder lmerDatei des AIP, damit von dort auf die Primärdatei zugegriffen werden kann, in Form eines xpointer-Eintrags</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1473,7 +1695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H63" authorId="0" shapeId="0">
+    <comment ref="K65" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1486,7 +1708,58 @@
         </r>
       </text>
     </comment>
-    <comment ref="H66" authorId="0" shapeId="0">
+    <comment ref="F66" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">für Vorgang - Aktivität gibt es keine Entsprechung in ISAD(G)
+Notgedrungen sind es Zusatzdaten
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zu beachten ist, dass auch mehrere Vorgäng zu einem Dossier gehören können</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G66" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">eCH-0160 DataDictionary: Anwendung
+"Kategorisierung des Dokuments in Bezug auf seinen Anwendungsbereich in der Verwaltungseinheit" beschreibt eine funktionale Kategorisierung der Unterlagen.
+Z.B. Internes Dokument, Eingangsdokument, Ausgangsdokument
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Es gibt dafür keine Entsprechung in ISAD(G)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1515,7 +1788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="416">
   <si>
     <t>archivierungsmodusLöschvorschriften</t>
   </si>
@@ -1673,316 +1946,9 @@
     <t>ISAD(G)</t>
   </si>
   <si>
-    <t>eCH-0160 (I017)</t>
-  </si>
-  <si>
     <t>xIsadg</t>
   </si>
   <si>
-    <t>3.1 Identity statement area</t>
-  </si>
-  <si>
-    <t>3.1.1 Reference code</t>
-  </si>
-  <si>
-    <t>wird erst durch Archiv vergeben, kann nicht von SIP übernommen werden! muss im jeweiligen Archiv eindeutig sein und in die Tektonik passen
-Archiv: ISIL Code
-Bestand: Archivsignatur 
-Serie: Archivsignatur, nicht obligatorisch, falls Serie nur Ordnungselement ist Signatur nicht nötig
-Dossier: Archivsignatur, setzt sich aus Bestandessignatur, evt. Seriesignatur und Laufnummer zusammen
-Dokument: eindeutige Archivsignatur, setzt sich mind. aus darüberliegender Verzeichnisstufe und Laufnummer zusammen</t>
-  </si>
-  <si>
-    <t>3.1.2 Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokument: &lt;xs:simpleType name="titelDokument"&gt;
-Dossier: &lt;xs:simpleType name="titelDossier"&gt;
-Für Titel der Serie evt. Ordnungssystemposition: &lt;xs:simpleType name="titelOrdnungssystemposition"&gt;
-Für Titel des Bestandes evt. Name Ordnungssystem </t>
-  </si>
-  <si>
-    <t>3.1.3 Date(s)</t>
-  </si>
-  <si>
-    <t>für Zeitraum Archiv: kumulierend aus allen Beständen
-für Zeitraum des Bestandes oder Zeitraum der Serie evt. Arelda, Ablieferung: &lt;xs:element name="entstehungszeitraum" minOccurs="0" type="historischerZeitraum"&gt; (hängt von Archivtektonik und Einfügeposition des AIPs ab)
-für Zeitraum Dossier: Arelda, Dossier:  &lt;xs:element name="entstehungszeitraum" type="historischerZeitraum"&gt;
-Arelda, Dossier:  &lt;xs:element name="entstehungszeitraumAnmerkung" minOccurs="0" type="entstehungszeitraumAnmerkung"/&gt;
-Arelda, Dokument: &lt;xs:element name="entstehungszeitraum" minOccurs="0" type="historischerZeitraum"&gt;
-Dossier:  &lt;xs:simpleType name="entstehungszeitraumAnmerkung"&gt;</t>
-  </si>
-  <si>
-    <t>3.1.4 Level of description</t>
-  </si>
-  <si>
-    <t>muss durch Archiv vergeben werden bei Erschliessung, kann nicht von SIP übernommen werden</t>
-  </si>
-  <si>
-    <t>3.1.5 Extent and medium</t>
-  </si>
-  <si>
-    <t>nur für Archiv und Bestand obligatorisch. 
-Für Bestand evt. kumulierbar aus allen Dossiers: &lt;xs:simpleType name="umfang"&gt;</t>
-  </si>
-  <si>
-    <t>3.2 Context area</t>
-  </si>
-  <si>
-    <t>3.2.1 Name of creator(s)</t>
-  </si>
-  <si>
-    <t>auf Ebene Archiv muss es von Archiv beschrieben werden (Archivsprengel)
-für Ebene Bestand: Provenienz: &lt;xs:simpleType name="aktenbildnerName"&gt;</t>
-  </si>
-  <si>
-    <t>3.2.2 Administrative / biographical history</t>
-  </si>
-  <si>
-    <t>Provenienz: &lt;xs:simpleType name="geschichteAktenbildner"&gt;
-Provenienz: &lt;xs:simpleType name="bemerkungProvenienz"&gt;</t>
-  </si>
-  <si>
-    <t>3.2.3 Archival history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evt. Ablieferung: bemerkung (dies betrifft aber nur eine Ablieferung, der Bestand kann mehrere Ablieferung umfassen, hängt von Archivtektonik ab und wie neue Ablieferung eingefügt werden vgl. Akzessionsbestand vs. Provenienzbestand)
-</t>
-  </si>
-  <si>
-    <t>3.2.4 Immediate source of acquisition or transfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ablieferung: &lt;xs:simpleType name="ablieferndeStelle"&gt; </t>
-  </si>
-  <si>
-    <t>3.3 Content and structure area</t>
-  </si>
-  <si>
-    <t>3.3.1 Scope and content</t>
-  </si>
-  <si>
-    <t>3.3.2 Appraisal, destruction and scheduling information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feld ISADG nur bei Bestand vorhanden, deshalb nur evt. dazu Feld der Ablieferung brauchbar.
-Ablieferung: &lt;xs:simpleType name="referenzBewertungsentscheid"&gt; Feld ist nur Referenznummer, kein Texteintrag, dieser müsste manuell vorgenommen werden.
-</t>
-  </si>
-  <si>
-    <t>3.3.3 Accruals</t>
-  </si>
-  <si>
-    <t>Feld in e-CH-Richtlinie nicht gebraucht</t>
-  </si>
-  <si>
-    <t>3.3.4 System of arrangement</t>
-  </si>
-  <si>
-    <t>braucht manuellen Texteintrag zur Beschreibung, kein SIP-Feld
-Provenienz: registratur
-Ordnungssystem: Div
-Ordnungssystemposition: Div</t>
-  </si>
-  <si>
-    <t>3.4 Conditions of access and use area</t>
-  </si>
-  <si>
-    <t>3.4.1 Conditions governing access</t>
-  </si>
-  <si>
-    <t>für Bestand oder Serie: Ablieferung: referenzSchutzfristenFormular; schutzfristenkategorie; schutzfrist
-für Serie: Ordnungssystemposition: schutzfristenkategorie; schutzfrist; schutzfristenBegruendung; klassifizierungskategorie; datenschutz; oeffentlichkeitsstatus; oeffentlichkeitsstatusBegruendung
-Dossier: schutzfristenkategorie; schutzfrist; schutzfristenBegruendung; klassifizierungskategorie; datenschutz; oeffentlichkeitsstatus; oeffentlichkeitsstatusBegruendung
-Dokument: klassifizierungskategorie; datenschutz; oeffentlichkeitsstatus; oeffentlichkeitsstatusBegruendung</t>
-  </si>
-  <si>
-    <t>3.4.2 Conditions governing reproduction</t>
-  </si>
-  <si>
-    <t>Feld direkt in e-CH-Richtlinie nicht gebraucht. Kann unter "sonstigeBestimmungen" abgebildet werden. Hier könnte dann aber auch neben Reprobestimmungen andere Informationen eingetragen worden sein.
-Ordnungssystemposition: &lt;xs:simpleType name="sonstigeBestimmungenOrdnungssystemposition"&gt;
-Dossier: &lt;xs:simpleType name="sonstigeBestimmungenDossier"&gt;
-Dokument: &lt;xs:simpleType name="sonstigeBestimmungenDokument"&gt;</t>
-  </si>
-  <si>
-    <t>3.4.3 Language / scripts of material</t>
-  </si>
-  <si>
-    <t>Feld in CH-Richtlinie nicht gebraucht. Kann unter "Bemerkung" abgebildet werden. Hier könnte dann aber auch neben Reprobestimmungen andere Informationen eingetragen worden sein.
-Dossier: &lt;xs:simpleType name="bemerkungDossier"&gt;</t>
-  </si>
-  <si>
-    <t>3.4.4 Physical characteristics and technical requirements</t>
-  </si>
-  <si>
-    <t>3.4.5 Finding aids</t>
-  </si>
-  <si>
-    <t>nur auf Ebene Archiv oder Bestand empfohlen
-Ablieferung: &lt;xs:simpleType name="bemerkungAblieferung"&gt;</t>
-  </si>
-  <si>
-    <t>3.5 Allied materials area</t>
-  </si>
-  <si>
-    <t>3.5.1 Existence and location of originals</t>
-  </si>
-  <si>
-    <t>Feld in CH-Richtlinie nicht gebraucht; kein SIP-Feld; nur relevant wenn diese VE eine Reproduktion ist und die Originale bei einer anderen Institution aufbewahrt werden</t>
-  </si>
-  <si>
-    <t>3.5.2 Existence and location of copies</t>
-  </si>
-  <si>
-    <t>nur auf Ebene Bestand oder Dokument empfohlen (Signatur und Standort von Kopien oder Reproduktionen), kein Feld zuweisbar</t>
-  </si>
-  <si>
-    <t>3.5.3 Related units of description</t>
-  </si>
-  <si>
-    <t>nur auf Ebene Bestand empfohlen: Verweis auf verwandtes Material im eigenen Archiv oder in einem anderen Archiv -&gt; muss bei Erschliessung erfassst werden.
-Kein Feld zuweisbar</t>
-  </si>
-  <si>
-    <t>3.5.4 Publication note</t>
-  </si>
-  <si>
-    <t>Nur auf Ebene Archiv oder Dokument empfohlen: Veröffentlichungen über das Archiv an sich oder über Editionen über Urkunden 
-kein Feld zuweisbar</t>
-  </si>
-  <si>
-    <t>3.6 Notes area</t>
-  </si>
-  <si>
-    <t>3.6.1 Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feld in CH-Richtlinie nicht gebraucht
-evt. auf Ebene Ablieferung, Dossier, Dokument: "bemerkung" </t>
-  </si>
-  <si>
-    <t>3.7 Description control area</t>
-  </si>
-  <si>
-    <t>3.7.1 Archivist's note</t>
-  </si>
-  <si>
-    <t>archivischer Vorgang= Metadaten des Archivs, die dem SIP hinzugefügt werden, sie betreffen eher die Übernahme und Erhaltung, nicht die Verzeichnung!
-ArchivischerVorgang: &lt;xs:simpleType name="vorgangstyp"&gt;
-ArchivischerVorgang: &lt;xs:simpleType name="beschreibung"&gt;
-ArchivischerVorgang: &lt;xs:simpleType name="bearbeiter"&gt;</t>
-  </si>
-  <si>
-    <t>3.7.2 Rules or conventions</t>
-  </si>
-  <si>
-    <t>Informationen bei der Erschliessung durch das Archiv, kein SIP-Feld</t>
-  </si>
-  <si>
-    <t>3.7.3 Date(s) of description</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">damit ist keine Angabe zum Medium oder Datenträger gemeint, sonder inhaltlich, deshalb nur Feld inhalt richtig!
-Ablieferung:  &lt;xs:simpleType name="ablieferungsteile"&gt;
-Dossier: &lt;xs:simpleType name="formInhalt"&gt;
-Dossier:  &lt;xs:simpleType name="erscheinungsformDossier"&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dossier: &lt;xs:simpleType name="inhalt"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Dokument: &lt;xs:simpleType name="erscheinungsformDokument"&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ist nur auf Ebene Dossier oder Dokument empfohlen: diese Infos müssem vom Konservator hinzugefügt werden (es sind Hinweise zum Umgang/zur Benutzung des Archivgutes aufgrund des Erhaltungszustandes) -&gt; am ehsten passen die unterstrichenen, aber keine eindeutige Zuordnung möglich
-Provenienz: &lt;xs:simpleType name="systemName"&gt;
-Provenienz: &lt;xs:simpleType name="systemBeschreibung"&gt;
-Provenienz: &lt;xs:simpleType name="verwandteSysteme"&gt;
-Provenienz:  &lt;xs:simpleType name="archivierungsmodusLoeschvorschriften"&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dossier: &lt;xs:simpleType name="formInhalt"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dossier: &lt;xs:simpleType name="erscheinungsformDossier"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dokument: "dokumenttyp"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dokument: &lt;xs:simpleType name="erscheinungsformDokument"&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>3.1.1 Signatur</t>
   </si>
   <si>
@@ -2010,78 +1976,21 @@
     <t>3.2.4 Abgebende Stelle</t>
   </si>
   <si>
-    <t>3.1 Identifikation</t>
-  </si>
-  <si>
-    <t>3.2 Kontext</t>
-  </si>
-  <si>
-    <t>3.3 Inhalt und innere Ordnung</t>
-  </si>
-  <si>
     <t>3.3.1 Form und Inhalt</t>
   </si>
   <si>
     <t>3.3.2 Bewertung und Kassation</t>
   </si>
   <si>
-    <t>3.3.3 Neuzugänge</t>
-  </si>
-  <si>
-    <t>3.3.4 Ordnung und Klassifikation</t>
-  </si>
-  <si>
-    <t>3.4 Zugangs- und Benutzungsbedingungen</t>
-  </si>
-  <si>
     <t>3.4.1 Zugangsbestimmungen</t>
   </si>
   <si>
-    <t>3.4.2 Reproduktionsbestimmungen</t>
-  </si>
-  <si>
-    <t>3.4.3 Sprache / Schrift</t>
-  </si>
-  <si>
     <t>3.4.4 Physische Beschaffenheit und technische Anforderungen</t>
   </si>
   <si>
-    <t>3.4.5 Findhilfsmittel</t>
-  </si>
-  <si>
-    <t>3.5 Sachverwandte Unterlagen</t>
-  </si>
-  <si>
-    <t>3.5.1 Aufbewahrungsort der Originale</t>
-  </si>
-  <si>
-    <t>3.5.2 Kopien bzw. Reproduktionen</t>
-  </si>
-  <si>
-    <t>3.5.3 Verwandte Verzeichnungseinheiten</t>
-  </si>
-  <si>
-    <t>3.5.4 Veröffentlichungen</t>
-  </si>
-  <si>
-    <t>3.6 Anmerkungen</t>
-  </si>
-  <si>
     <t>3.6.1 Allgemeine Anmerkungen</t>
   </si>
   <si>
-    <t>3.7 Verzeichnungskontrolle</t>
-  </si>
-  <si>
-    <t>3.7.1 Information des Bearbeiters</t>
-  </si>
-  <si>
-    <t>3.7.2 Verzeichnungsgrundsätze</t>
-  </si>
-  <si>
-    <t>3.7.3 Datum oder Zeitraum der Verzeichnung</t>
-  </si>
-  <si>
     <t>alleinstehende Attribute</t>
   </si>
   <si>
@@ -2089,12 +1998,6 @@
   </si>
   <si>
     <t>auf mehreren Ebenen vertretene unterschiedliche Attribute mit ähnlichem Inhalt</t>
-  </si>
-  <si>
-    <t>Zweisung unklar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Zweck</t>
@@ -2994,19 +2897,7 @@
     <t>[2] Katalog archivischer Dateiformate der KOST, http://www.kost-ceco.ch/wiki/whelp/KaD.</t>
   </si>
   <si>
-    <t>Keine Zuweisung  eCH-0160 -&gt; ISAD(G) möglich</t>
-  </si>
-  <si>
     <t>xIsadg Data Dictionary v2.0 tabellarisch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISAD(G) und Metadaten aus der archivischen Ablieferungsschnittstelle eCH-0160 </t>
-  </si>
-  <si>
-    <t>übergeordnete VE (Einfügeposition)</t>
-  </si>
-  <si>
-    <t>weitere Hierarchie-Stufe (z.B. Serie)</t>
   </si>
   <si>
     <t>identity</t>
@@ -3204,236 +3095,276 @@
     <t>isad:retentionPeriodNotes</t>
   </si>
   <si>
-    <t>//arelda:ordnungssystemposition/arelda:sonstigeBestimmungen</t>
-  </si>
-  <si>
-    <t>//arelda:ordnungssystemposition/arelda:schutzfrist</t>
-  </si>
-  <si>
-    <t>//arelda:ordnungssystemposition/arelda:schutzfristenkategorie</t>
-  </si>
-  <si>
-    <t>//arelda:ordnungssystemposition/arelda:schutzvorschriftenBegruendung</t>
-  </si>
-  <si>
-    <t>dossier</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:sonstigeBestimmungen</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:schutzfrist</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:schutzfristenkategorie</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:schutzvorschriftenBegruendung</t>
-  </si>
-  <si>
-    <t>//arelda:ordnungssystemposition/arelda:/titel</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:titel</t>
-  </si>
-  <si>
-    <t>dokument</t>
-  </si>
-  <si>
-    <t>//arelda:dokument/arelda:dokumenttyp</t>
-  </si>
-  <si>
-    <t>//arelda:dokument/arelda:sonstigeBestimmungen</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:bemerkung</t>
-  </si>
-  <si>
-    <t>//arelda:dokument/arelda:bemerkung</t>
-  </si>
-  <si>
-    <t>//arelda:ordnungssystemposition/arelda:oeffentlichkeitsstatus</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:oeffentlichkeitsstatus</t>
-  </si>
-  <si>
-    <t>//arelda:dokument/arelda:oeffentlichkeitsstatus</t>
-  </si>
-  <si>
-    <t>//arelda:ordnungssystemposition/arelda:oeffentlichkeitsstatusBegruendung</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:oeffentlichkeitsstatusBegruendung</t>
-  </si>
-  <si>
-    <t>//arelda:dokument/arelda:oeffentlichkeitsstatusBegruendung</t>
-  </si>
-  <si>
-    <t>//arelda:ordnungssystemposition/arelda:datenschutz</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:datenschutz</t>
-  </si>
-  <si>
-    <t>//arelda:dokument/arelda:datenschutz</t>
-  </si>
-  <si>
-    <t>//arelda:ordnungssystemposition/arelda:klassifizierungskategorie</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:klassifizierungskategorie</t>
-  </si>
-  <si>
-    <t>//arelda:dokument/arelda:klassifizierungskategorie</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:erscheinungsform</t>
-  </si>
-  <si>
-    <t>//arelda:dokument/arelda:erscheinungsform</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:eroeffnungsdatum
-//arelda:dossier/arelda:abschlussdatum
-//arelda:dossier/arelda:entstehungszeitraum
-//arelda:dossier/arelda:entstehungszeitraumAnmerkung</t>
-  </si>
-  <si>
-    <t>//arelda:dokument/arelda:registrierdatum
-//arelda:dokument/arelda:entstehungszeitraum</t>
-  </si>
-  <si>
-    <t>//arelda:dokument/arelda:autor</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:formInhalt</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:inhalt</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:aktenzeichen
-//arelda:dossier/arelda:zusatzmerkmal</t>
-  </si>
-  <si>
-    <t>//arelda:ablieferung/arelda:AblieferndeStelle</t>
-  </si>
-  <si>
-    <t>//arelda:ablieferung/arelda:ablieferungsteile</t>
-  </si>
-  <si>
-    <t>//arelda:ablieferung/arelda:ReferenzBewertungsentscheid</t>
-  </si>
-  <si>
-    <t>//arelda:ablieferung/arelda:schutzfrist</t>
-  </si>
-  <si>
-    <t>//arelda:ablieferung/arelda:schutzfristenkategorie</t>
-  </si>
-  <si>
-    <t>//arelda:ablieferung/arelda:referenzSchutzfristenFormular</t>
-  </si>
-  <si>
-    <t>//arelda:provenienz/arelda:AktenbildnerName</t>
-  </si>
-  <si>
-    <t>//arelda:provenienz/arelda:GeschichteAktenbildner</t>
-  </si>
-  <si>
-    <t>//arelda:ablieferung/arelda:entstehungszeitraum
-//arelda:provenienz/arelda:existenzzeitraum
-//arelda:ordnungssystem/arelda:anwendungszeitraum</t>
-  </si>
-  <si>
-    <t>//arelda:ordnungssystem/arelda:Name</t>
-  </si>
-  <si>
-    <t>//arelda:ablieferung/arelda:bemerkung
-//arelda:provenienz/arelda:bemerkung
-//arelda:ordnungssystem/arelda:bemerkung</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:zusatzDaten</t>
-  </si>
-  <si>
-    <t>//arelda:dokument/arelda:zusatzDaten</t>
-  </si>
-  <si>
-    <t>//arelda:ordnungssystemposition/arelda:zusatzDaten</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:umfang [FILES]</t>
-  </si>
-  <si>
-    <t>//arelda:dokument/arelda:titel [GEVER]
-//arelda:datei/arelda:name [FILES]
-//arelda:datei/arelda:originalName [FILES]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//arelda:provenienz/arelda:systemName
-//arelda:provenienz/arelda:systemBeschreibung
-//arelda:provenienz/arelda:verwandteSysteme  [FILES]
-//arelda:provenienz/arelda:ArchivierungsmodusLoeschvorschriften  [FILES]
-//arelda:provenienz/arelda:registratur </t>
-  </si>
-  <si>
-    <t>//arelda:paket/arelda:zusatzDaten
-//arelda:ablieferung/arelda:zusatzDaten
-//arelda:ordnungssystem/arelda:zusatzDaten</t>
-  </si>
-  <si>
-    <r>
-      <t>//arelda:paket/@xmlns
-//arelda:paket/arelda:paketTyp
-//arelda:paket/@schemaVersion
-//arelda:ablieferung/arelda:ablieferungsnummer
-//arelda:ablieferung/arelda:ablieferungstyp
-//arelda:ablieferung/arelda:angebotsnummer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-//arelda:ordnungssystem/arelda:generation
-//arelda:ordnungssystem/arelda:mitbenutzung </t>
-    </r>
-  </si>
-  <si>
-    <t>//arelda:ordnungssystemposition/arelda:/nummer
-//arelda:ordnungssystemposition/arelda:/federfuehrendeOrganisationseinheit</t>
-  </si>
-  <si>
-    <t>//arelda:dossier/arelda:federfuehrendeOrganisationseinheit
-//arelda:dossier/arelda:vorgang
-//arelda:vorgang/arelda:titel [v1.1]
-//arelda:vorgang/arelda:arbeitsanweisung [v1.1]
-//arelda:vorgang/arelda:verweis [v1.1]
-//arelda:vorgang/arelda:aktivitaet/@order [v1.1]
-//arelda:vorgang/arelda:aktivitaet/arelda:vorschreibung [v1.1]
-//arelda:vorgang/arelda:aktivitaet/arelda:akteur [v1.1]
-//arelda:vorgang/arelda:aktivitaet/arelda:abschlussvermerk [v1.1]
-//arelda:vorgang/arelda:aktivitaet/arelda:abschlussdatum [v1.1]
-//arelda:vorgang/arelda:aktivitaet/arelda:verweis [v1.1]
-//arelda:vorgang/arelda:aktivitaet/arelda:bemerkung [v1.1]</t>
-  </si>
-  <si>
-    <t>//arelda:dokument/arelda:anwendung
-//arelda:datei/arelda:name
-//arelda:datei/arelda:originalName</t>
-  </si>
-  <si>
-    <t>property / value</t>
+    <t>isad:property</t>
+  </si>
+  <si>
+    <t>isad:value</t>
+  </si>
+  <si>
+    <t>//paket</t>
+  </si>
+  <si>
+    <t>//ablieferung</t>
+  </si>
+  <si>
+    <t>//provenienz</t>
+  </si>
+  <si>
+    <t>//ordnungsystem</t>
+  </si>
+  <si>
+    <t>//ordnungssystemposition</t>
+  </si>
+  <si>
+    <t>//dossier</t>
+  </si>
+  <si>
+    <t>//dokument</t>
+  </si>
+  <si>
+    <t>//ordnungssystemposition//titel</t>
+  </si>
+  <si>
+    <t>//dossier/titel</t>
+  </si>
+  <si>
+    <t>//ablieferung/entstehungszeitraum</t>
+  </si>
+  <si>
+    <t>//dossier/eroeffnungsdatum
+//dossier/abschlussdatum
+//dossier/entstehungszeitraum
+//dossier/entstehungszeitraumAnmerkung</t>
+  </si>
+  <si>
+    <t>//dokument/registrierdatum
+//dokument/entstehungszeitraum</t>
+  </si>
+  <si>
+    <t>//provenienz/AktenbildnerName</t>
+  </si>
+  <si>
+    <t>//dokument/autor</t>
+  </si>
+  <si>
+    <t>//dossier/formInhalt</t>
+  </si>
+  <si>
+    <t>//dokument/dokumenttyp</t>
+  </si>
+  <si>
+    <t>//ablieferung/ablieferungsteile</t>
+  </si>
+  <si>
+    <t>//dossier/inhalt</t>
+  </si>
+  <si>
+    <t>//ablieferung/ReferenzBewertungsentscheid</t>
+  </si>
+  <si>
+    <t>//ordnungssystemposition/datenschutz</t>
+  </si>
+  <si>
+    <t>//dossier/datenschutz</t>
+  </si>
+  <si>
+    <t>//dokument/datenschutz</t>
+  </si>
+  <si>
+    <t>//ordnungssystemposition/oeffentlichkeitsstatus</t>
+  </si>
+  <si>
+    <t>//dossier/oeffentlichkeitsstatus</t>
+  </si>
+  <si>
+    <t>//dokument/oeffentlichkeitsstatus</t>
+  </si>
+  <si>
+    <t>//ordnungssystemposition/klassifizierungskategorie</t>
+  </si>
+  <si>
+    <t>//dossier/klassifizierungskategorie</t>
+  </si>
+  <si>
+    <t>//dokument/klassifizierungskategorie</t>
+  </si>
+  <si>
+    <t>//ordnungssystemposition/sonstigeBestimmungen</t>
+  </si>
+  <si>
+    <t>//dossier/sonstigeBestimmungen</t>
+  </si>
+  <si>
+    <t>//dokument/sonstigeBestimmungen</t>
+  </si>
+  <si>
+    <t>//ordnungssystemposition/oeffentlichkeitsstatusBegruendung</t>
+  </si>
+  <si>
+    <t>//dossier/oeffentlichkeitsstatusBegruendung</t>
+  </si>
+  <si>
+    <t>//dokument/oeffentlichkeitsstatusBegruendung</t>
+  </si>
+  <si>
+    <t>//ablieferung/schutzfrist</t>
+  </si>
+  <si>
+    <t>//ordnungssystemposition/schutzfrist</t>
+  </si>
+  <si>
+    <t>//dossier/schutzfrist</t>
+  </si>
+  <si>
+    <t>//ablieferung/schutzfristenkategorie</t>
+  </si>
+  <si>
+    <t>//ordnungssystemposition/schutzfristenkategorie</t>
+  </si>
+  <si>
+    <t>//dossier/schutzfristenkategorie</t>
+  </si>
+  <si>
+    <t>//ablieferung/referenzSchutzfristenFormular</t>
+  </si>
+  <si>
+    <t>//ordnungssystemposition/schutzvorschriftenBegruendung</t>
+  </si>
+  <si>
+    <t>//dossier/schutzvorschriftenBegruendung</t>
+  </si>
+  <si>
+    <t>//dossier/erscheinungsform</t>
+  </si>
+  <si>
+    <t>//dokument/erscheinungsform</t>
+  </si>
+  <si>
+    <t>//ablieferung/bemerkung</t>
+  </si>
+  <si>
+    <t>//provenienz/bemerkung</t>
+  </si>
+  <si>
+    <t>//ordnungssystem/bemerkung</t>
+  </si>
+  <si>
+    <t>//dossier/bemerkung</t>
+  </si>
+  <si>
+    <t>//dokument/bemerkung</t>
+  </si>
+  <si>
+    <t>//dossier/aktenzeichen
+//dossier/zusatzmerkmal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//paket/zusatzDaten
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//ablieferung/zusatzDaten
+</t>
+  </si>
+  <si>
+    <t>//ordnungssystem/zusatzDaten</t>
+  </si>
+  <si>
+    <t>//ordnungssystemposition/zusatzDaten</t>
+  </si>
+  <si>
+    <t>//dossier/zusatzDaten</t>
+  </si>
+  <si>
+    <t>//dokument/zusatzDaten</t>
+  </si>
+  <si>
+    <t>//paket/@xmlns
+//paket/paketTyp
+//paket/@schemaVersion</t>
+  </si>
+  <si>
+    <t>isad:primaryDataLocator</t>
+  </si>
+  <si>
+    <t>isad:secondaryDataLocator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//provenienz/systemName
+//provenienz/systemBeschreibung
+//provenienz/verwandteSysteme[FILES]
+//provenienz/ArchivierungsmodusLoeschvorschriften[FILES]
+//provenienz/registratur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>//dossier/umfang[FILES]</t>
+  </si>
+  <si>
+    <t>//ordnungssystemposition//federfuehrendeOrganisationseinheit</t>
+  </si>
+  <si>
+    <t>//ordnungssystemposition//nummer</t>
+  </si>
+  <si>
+    <t>//dossier/vorgang
+//vorgang/@order[v1.1]
+//vorgang/titel[v1.1]
+//vorgang/arbeitsanweisung[v1.1]
+//vorgang/federfuehrung[v1.1]
+//vorgang/verweis[v1.1]
+//vorgang/bemerkung[v1.1]
+//vorgang/zusatzDaten[v1.1]
+//vorgang/aktivitaet/@order[v1.1]
+//vorgang/aktivitaet/vorschreibung[v1.1]
+//vorgang/aktivitaet/anweisung[v1.1]
+//vorgang/aktivitaet/bearbeiter[v1.1]
+//vorgang/aktivitaet/abschlussdatum[v1.1]
+//vorgang/aktivitaet/verweis[v1.1]
+//vorgang/aktivitaet/bemerkung[v1.1]
+//vorgang/aktivitaet/zusatzDaten[v1.1]</t>
+  </si>
+  <si>
+    <t>//dossier/federfuehrendeOrganisationseinheit</t>
+  </si>
+  <si>
+    <t>//dokument/titel[GEVER oder FILES]
+//datei/originalName[FILES]
+//datei/name[FILES]</t>
+  </si>
+  <si>
+    <t>//provenienz/GeschichteAktenbildner
+//provenienz/existenzzeitraum</t>
+  </si>
+  <si>
+    <t>//ordnungssystem/Name
+//ordnungssystem/anwendungszeitraum
+//ordnungssystem/generation
+//ordnungssystem/mitbenutzung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//dokument/anwendung
+</t>
+  </si>
+  <si>
+    <t>[//ordner/originalname]*/datei/originalname
+//ordner/name]*/datei/name</t>
+  </si>
+  <si>
+    <t>//ablieferung/AblieferndeStelle
+//ablieferung/ablieferungsnummer
+//ablieferung/ablieferungstyp
+//ablieferung/angebotsnummer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3453,21 +3384,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial Bold"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Bold"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3524,12 +3440,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -3556,6 +3466,25 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
@@ -3565,6 +3494,18 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA88000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -3580,8 +3521,61 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF007E39"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3614,18 +3608,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
@@ -3636,14 +3618,8 @@
         <bgColor rgb="FFFDE9D9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="70">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -3726,40 +3702,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -4544,9 +4490,108 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -4556,109 +4601,82 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4671,35 +4689,35 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4711,13 +4729,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4729,10 +4747,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4744,15 +4768,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4768,216 +4792,186 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4986,43 +4980,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5032,103 +5026,142 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5137,68 +5170,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5206,7 +5260,35 @@
     <cellStyle name="Standard 2" xfId="1"/>
     <cellStyle name="Standard 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5319,6 +5401,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF007E39"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFFFF99"/>
@@ -5627,1053 +5710,1053 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="49" customWidth="1"/>
-    <col min="4" max="5" width="30.140625" style="49" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="49" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="49" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="44.140625" style="138" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="49"/>
+    <col min="1" max="1" width="26.28515625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="40" customWidth="1"/>
+    <col min="4" max="5" width="30.140625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="40" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" style="44" customWidth="1"/>
+    <col min="10" max="10" width="44.140625" style="121" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A1" s="184" t="s">
-        <v>420</v>
-      </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
+      <c r="A1" s="180" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="107" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A3" s="192" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="193"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="108" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A4" s="73"/>
+      <c r="B4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" s="109" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="41" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5" s="109" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A6" s="74"/>
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="J6" s="109" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A7" s="199" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="124" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A3" s="196" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="111" t="s">
-        <v>256</v>
-      </c>
-      <c r="J3" s="125" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="J4" s="126" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="50" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="J5" s="126" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="50" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="83"/>
-      <c r="B6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="J6" s="126" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A7" s="203" t="s">
-        <v>266</v>
-      </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="111" t="s">
-        <v>259</v>
-      </c>
-      <c r="J7" s="127" t="s">
-        <v>272</v>
+      <c r="I7" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" s="110" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="18" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="J8" s="126" t="s">
-        <v>273</v>
+      <c r="F8" s="15"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" s="109" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="84"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="75"/>
+      <c r="B9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="128" t="s">
-        <v>274</v>
+      <c r="C9" s="10"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="111" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="129" t="s">
-        <v>275</v>
+      <c r="B10" s="22"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="112" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A11" s="200" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" s="201"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="33" t="s">
+      <c r="A11" s="196" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="197"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="111" t="s">
-        <v>254</v>
-      </c>
-      <c r="J11" s="127" t="s">
-        <v>276</v>
+      <c r="G11" s="16"/>
+      <c r="H11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="110" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="18" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="110" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" s="109" t="s">
-        <v>252</v>
-      </c>
-      <c r="J12" s="126" t="s">
-        <v>277</v>
+      <c r="F12" s="87"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="109" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="93" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="130" t="s">
-        <v>275</v>
+      <c r="G13" s="11"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="113" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="39" thickBot="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="33" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="J14" s="126" t="s">
-        <v>278</v>
+      <c r="G14" s="16"/>
+      <c r="H14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" s="109" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A15" s="61"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="18" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="J15" s="131" t="s">
-        <v>279</v>
+      <c r="G15" s="16"/>
+      <c r="H15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="114" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="35" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="132" t="s">
-        <v>280</v>
+      <c r="G16" s="11"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="115" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A17" s="61"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="21" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="87" t="s">
-        <v>264</v>
-      </c>
-      <c r="J17" s="131" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="112" customFormat="1">
-      <c r="A18" s="113"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="115" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="J17" s="114" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="95" customFormat="1">
+      <c r="A18" s="96"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="116" t="s">
+      <c r="E18" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="117" t="s">
+      <c r="F18" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="118"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="133" t="s">
-        <v>269</v>
+      <c r="G18" s="101"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="116" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="61"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="37" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="134" t="s">
-        <v>281</v>
+      <c r="G19" s="11"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="117" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="38" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="135" t="s">
-        <v>282</v>
+      <c r="F20" s="18"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="118" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="33" t="s">
+      <c r="D21" s="105"/>
+      <c r="E21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="J21" s="126" t="s">
-        <v>283</v>
+      <c r="G21" s="16"/>
+      <c r="H21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" s="109" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="25.5">
-      <c r="A22" s="60"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="26" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="128" t="s">
-        <v>284</v>
+      <c r="F22" s="10"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="111" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A23" s="61"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="30" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="135" t="s">
-        <v>285</v>
+      <c r="D23" s="18"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="118" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="51"/>
-      <c r="J24" s="185" t="s">
-        <v>286</v>
+      <c r="B24" s="79"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="42"/>
+      <c r="J24" s="181" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="34" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="81"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="51"/>
-      <c r="J25" s="186"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="42"/>
+      <c r="J25" s="182"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="34" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="51"/>
-      <c r="J26" s="186"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="42"/>
+      <c r="J26" s="182"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A27" s="85"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="17" t="s">
+      <c r="A27" s="76"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="81"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="51"/>
-      <c r="J27" s="186"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="42"/>
+      <c r="J27" s="182"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="93" t="s">
+      <c r="A28" s="52"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="93" t="s">
+      <c r="E28" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="93" t="s">
+      <c r="F28" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="94"/>
-      <c r="H28" s="188" t="s">
-        <v>129</v>
-      </c>
-      <c r="I28" s="191" t="s">
-        <v>265</v>
-      </c>
-      <c r="J28" s="186"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="184" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="187" t="s">
+        <v>185</v>
+      </c>
+      <c r="J28" s="182"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="61"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="34" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="189"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="186"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="188"/>
+      <c r="J29" s="182"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="61"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="34" t="s">
+      <c r="A30" s="52"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="189"/>
-      <c r="I30" s="192"/>
-      <c r="J30" s="186"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="182"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A31" s="61"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="34" t="s">
+      <c r="A31" s="52"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="92"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="192"/>
-      <c r="J31" s="186"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="182"/>
     </row>
     <row r="32" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A32" s="61"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="17" t="s">
+      <c r="A32" s="52"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="187"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="183"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="21" t="s">
+      <c r="A33" s="53"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="96"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="126"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="109"/>
     </row>
     <row r="34" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="91" t="s">
+      <c r="D34" s="15"/>
+      <c r="E34" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="I34" s="123" t="s">
-        <v>262</v>
-      </c>
-      <c r="J34" s="130" t="s">
-        <v>287</v>
+      <c r="G34" s="16"/>
+      <c r="H34" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="106" t="s">
+        <v>182</v>
+      </c>
+      <c r="J34" s="113" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="64"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="36" t="s">
+      <c r="A35" s="55"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="128" t="s">
-        <v>288</v>
+      <c r="G35" s="11"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="111" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="34" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="134" t="s">
-        <v>289</v>
+      <c r="G36" s="11"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="117" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A37" s="86"/>
-      <c r="B37" s="38" t="s">
+      <c r="A37" s="77"/>
+      <c r="B37" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="135"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="118"/>
     </row>
     <row r="38" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="J38" s="131" t="s">
-        <v>290</v>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="J38" s="114" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="136"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="119"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="199" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="199"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="J40" s="136"/>
+      <c r="A40" s="195" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="195"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="J40" s="119"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="199" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="199"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="J41" s="136"/>
+      <c r="A41" s="195" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="195"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="J41" s="119"/>
     </row>
     <row r="42" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A42" s="194" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" s="195"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="J42" s="136"/>
+      <c r="A42" s="190" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="191"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="J42" s="119"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="J43" s="137"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="J43" s="120"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="J44" s="137"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="J45" s="137"/>
+      <c r="J45" s="120"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="J46" s="137"/>
+      <c r="J46" s="120"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="J47" s="137"/>
+      <c r="J47" s="120"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="J48" s="137"/>
+      <c r="J48" s="120"/>
     </row>
     <row r="49" spans="10:10">
-      <c r="J49" s="137"/>
+      <c r="J49" s="120"/>
     </row>
     <row r="50" spans="10:10">
-      <c r="J50" s="137"/>
+      <c r="J50" s="120"/>
     </row>
     <row r="51" spans="10:10">
-      <c r="J51" s="137"/>
+      <c r="J51" s="120"/>
     </row>
     <row r="52" spans="10:10">
-      <c r="J52" s="137"/>
+      <c r="J52" s="120"/>
     </row>
     <row r="53" spans="10:10">
-      <c r="J53" s="137"/>
+      <c r="J53" s="120"/>
     </row>
     <row r="54" spans="10:10">
-      <c r="J54" s="137"/>
+      <c r="J54" s="120"/>
     </row>
     <row r="55" spans="10:10">
-      <c r="J55" s="137"/>
+      <c r="J55" s="120"/>
     </row>
     <row r="56" spans="10:10">
-      <c r="J56" s="137"/>
+      <c r="J56" s="120"/>
     </row>
     <row r="57" spans="10:10">
-      <c r="J57" s="137"/>
+      <c r="J57" s="120"/>
     </row>
     <row r="58" spans="10:10">
-      <c r="J58" s="137"/>
+      <c r="J58" s="120"/>
     </row>
     <row r="59" spans="10:10">
-      <c r="J59" s="137"/>
+      <c r="J59" s="120"/>
     </row>
     <row r="60" spans="10:10">
-      <c r="J60" s="137"/>
+      <c r="J60" s="120"/>
     </row>
     <row r="61" spans="10:10">
-      <c r="J61" s="137"/>
+      <c r="J61" s="120"/>
     </row>
     <row r="62" spans="10:10">
-      <c r="J62" s="137"/>
+      <c r="J62" s="120"/>
     </row>
     <row r="63" spans="10:10">
-      <c r="J63" s="137"/>
+      <c r="J63" s="120"/>
     </row>
     <row r="64" spans="10:10">
-      <c r="J64" s="137"/>
+      <c r="J64" s="120"/>
     </row>
     <row r="65" spans="10:10">
-      <c r="J65" s="137"/>
+      <c r="J65" s="120"/>
     </row>
     <row r="66" spans="10:10">
-      <c r="J66" s="137"/>
+      <c r="J66" s="120"/>
     </row>
     <row r="67" spans="10:10">
-      <c r="J67" s="137"/>
+      <c r="J67" s="120"/>
     </row>
     <row r="68" spans="10:10">
-      <c r="J68" s="137"/>
+      <c r="J68" s="120"/>
     </row>
     <row r="69" spans="10:10">
-      <c r="J69" s="137"/>
+      <c r="J69" s="120"/>
     </row>
     <row r="70" spans="10:10">
-      <c r="J70" s="137"/>
+      <c r="J70" s="120"/>
     </row>
     <row r="71" spans="10:10">
-      <c r="J71" s="137"/>
+      <c r="J71" s="120"/>
     </row>
     <row r="72" spans="10:10">
-      <c r="J72" s="137"/>
+      <c r="J72" s="120"/>
     </row>
     <row r="73" spans="10:10">
-      <c r="J73" s="137"/>
+      <c r="J73" s="120"/>
     </row>
     <row r="74" spans="10:10">
-      <c r="J74" s="137"/>
+      <c r="J74" s="120"/>
     </row>
     <row r="75" spans="10:10">
-      <c r="J75" s="137"/>
+      <c r="J75" s="120"/>
     </row>
     <row r="76" spans="10:10">
-      <c r="J76" s="137"/>
+      <c r="J76" s="120"/>
     </row>
     <row r="77" spans="10:10">
-      <c r="J77" s="137"/>
+      <c r="J77" s="120"/>
     </row>
     <row r="78" spans="10:10">
-      <c r="J78" s="137"/>
+      <c r="J78" s="120"/>
     </row>
     <row r="79" spans="10:10">
-      <c r="J79" s="137"/>
+      <c r="J79" s="120"/>
     </row>
     <row r="80" spans="10:10">
-      <c r="J80" s="137"/>
+      <c r="J80" s="120"/>
     </row>
     <row r="81" spans="10:10">
-      <c r="J81" s="137"/>
+      <c r="J81" s="120"/>
     </row>
     <row r="82" spans="10:10">
-      <c r="J82" s="137"/>
+      <c r="J82" s="120"/>
     </row>
     <row r="83" spans="10:10">
-      <c r="J83" s="137"/>
+      <c r="J83" s="120"/>
     </row>
     <row r="84" spans="10:10">
-      <c r="J84" s="137"/>
+      <c r="J84" s="120"/>
     </row>
     <row r="85" spans="10:10">
-      <c r="J85" s="137"/>
+      <c r="J85" s="120"/>
     </row>
     <row r="86" spans="10:10">
-      <c r="J86" s="137"/>
+      <c r="J86" s="120"/>
     </row>
     <row r="87" spans="10:10">
-      <c r="J87" s="137"/>
+      <c r="J87" s="120"/>
     </row>
     <row r="88" spans="10:10">
-      <c r="J88" s="137"/>
+      <c r="J88" s="120"/>
     </row>
     <row r="89" spans="10:10">
-      <c r="J89" s="137"/>
+      <c r="J89" s="120"/>
     </row>
     <row r="90" spans="10:10">
-      <c r="J90" s="137"/>
+      <c r="J90" s="120"/>
     </row>
     <row r="91" spans="10:10">
-      <c r="J91" s="137"/>
+      <c r="J91" s="120"/>
     </row>
     <row r="92" spans="10:10">
-      <c r="J92" s="137"/>
+      <c r="J92" s="120"/>
     </row>
     <row r="93" spans="10:10">
-      <c r="J93" s="137"/>
+      <c r="J93" s="120"/>
     </row>
     <row r="94" spans="10:10">
-      <c r="J94" s="137"/>
+      <c r="J94" s="120"/>
     </row>
     <row r="95" spans="10:10">
-      <c r="J95" s="137"/>
+      <c r="J95" s="120"/>
     </row>
     <row r="96" spans="10:10">
-      <c r="J96" s="137"/>
+      <c r="J96" s="120"/>
     </row>
     <row r="97" spans="10:10">
-      <c r="J97" s="137"/>
+      <c r="J97" s="120"/>
     </row>
     <row r="98" spans="10:10">
-      <c r="J98" s="137"/>
+      <c r="J98" s="120"/>
     </row>
     <row r="99" spans="10:10">
-      <c r="J99" s="137"/>
+      <c r="J99" s="120"/>
     </row>
     <row r="100" spans="10:10">
-      <c r="J100" s="137"/>
+      <c r="J100" s="120"/>
     </row>
     <row r="101" spans="10:10">
-      <c r="J101" s="137"/>
+      <c r="J101" s="120"/>
     </row>
     <row r="102" spans="10:10">
-      <c r="J102" s="137"/>
+      <c r="J102" s="120"/>
     </row>
     <row r="103" spans="10:10">
-      <c r="J103" s="137"/>
+      <c r="J103" s="120"/>
     </row>
     <row r="104" spans="10:10">
-      <c r="J104" s="137"/>
+      <c r="J104" s="120"/>
     </row>
     <row r="105" spans="10:10">
-      <c r="J105" s="137"/>
+      <c r="J105" s="120"/>
     </row>
     <row r="106" spans="10:10">
-      <c r="J106" s="137"/>
+      <c r="J106" s="120"/>
     </row>
     <row r="107" spans="10:10">
-      <c r="J107" s="137"/>
+      <c r="J107" s="120"/>
     </row>
     <row r="108" spans="10:10">
-      <c r="J108" s="137"/>
+      <c r="J108" s="120"/>
     </row>
     <row r="109" spans="10:10">
-      <c r="J109" s="137"/>
+      <c r="J109" s="120"/>
     </row>
     <row r="110" spans="10:10">
-      <c r="J110" s="137"/>
+      <c r="J110" s="120"/>
     </row>
     <row r="111" spans="10:10">
-      <c r="J111" s="137"/>
+      <c r="J111" s="120"/>
     </row>
     <row r="112" spans="10:10">
-      <c r="J112" s="137"/>
+      <c r="J112" s="120"/>
     </row>
     <row r="113" spans="10:10">
-      <c r="J113" s="137"/>
+      <c r="J113" s="120"/>
     </row>
     <row r="114" spans="10:10">
-      <c r="J114" s="137"/>
+      <c r="J114" s="120"/>
     </row>
     <row r="115" spans="10:10">
-      <c r="J115" s="137"/>
+      <c r="J115" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6704,986 +6787,1299 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="F53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L68" sqref="A1:L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="58.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" style="161" customWidth="1"/>
-    <col min="2" max="2" width="66.42578125" style="161" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" style="161" customWidth="1"/>
-    <col min="4" max="4" width="55.5703125" style="161" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" style="178" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="159" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" style="159" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="159" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" style="159" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="161" customWidth="1"/>
-    <col min="11" max="16384" width="58.7109375" style="161"/>
+    <col min="1" max="1" width="19" style="145" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="145" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="145" customWidth="1"/>
+    <col min="4" max="4" width="35" style="145" customWidth="1"/>
+    <col min="5" max="5" width="55.85546875" style="145" customWidth="1"/>
+    <col min="6" max="6" width="41" style="145" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" style="145" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="152" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="171" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="171" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" style="171" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" style="171" customWidth="1"/>
+    <col min="13" max="16384" width="58.7109375" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="209" t="s">
-        <v>419</v>
-      </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-    </row>
-    <row r="2" spans="1:10" s="165" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A2" s="162" t="s">
+    <row r="1" spans="1:13" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A1" s="202" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+    </row>
+    <row r="2" spans="1:13" s="147" customFormat="1">
+      <c r="A2" s="203" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="163" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="163" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="164" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="205" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="207"/>
+    </row>
+    <row r="3" spans="1:13" s="147" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A3" s="159" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="146" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="146" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" s="161" t="s">
+        <v>347</v>
+      </c>
+      <c r="F3" s="161" t="s">
+        <v>348</v>
+      </c>
+      <c r="G3" s="148" t="s">
+        <v>349</v>
+      </c>
+      <c r="H3" s="208" t="s">
+        <v>289</v>
+      </c>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="210"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="144"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="149">
+        <v>1</v>
+      </c>
+      <c r="I4" s="168" t="s">
+        <v>283</v>
+      </c>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="144"/>
+      <c r="B5" s="144" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="216" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="216" t="s">
+        <v>286</v>
+      </c>
+      <c r="G5" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" s="150"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="143">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K5" s="167" t="s">
+        <v>284</v>
+      </c>
+      <c r="L5" s="169"/>
+    </row>
+    <row r="6" spans="1:13" ht="38.25">
+      <c r="A6" s="144"/>
+      <c r="B6" s="144" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="216" t="s">
+        <v>350</v>
+      </c>
+      <c r="F6" s="216" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" s="165" t="s">
+        <v>410</v>
+      </c>
+      <c r="H6" s="150"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="143">
+        <v>1.2</v>
+      </c>
+      <c r="K6" s="167" t="s">
+        <v>287</v>
+      </c>
+      <c r="L6" s="169"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="144"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="143">
+        <v>1.3</v>
+      </c>
+      <c r="K7" s="167" t="s">
+        <v>288</v>
+      </c>
+      <c r="L7" s="169"/>
+    </row>
+    <row r="8" spans="1:13" ht="51.75" customHeight="1">
+      <c r="A8" s="165"/>
+      <c r="B8" s="165" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="165"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217" t="s">
+        <v>353</v>
+      </c>
+      <c r="G8" s="219" t="s">
+        <v>354</v>
+      </c>
+      <c r="H8" s="150"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="143" t="s">
+        <v>334</v>
+      </c>
+      <c r="M8" s="151"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="165"/>
+      <c r="B9" s="165" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="165"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="216" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" s="216" t="s">
+        <v>286</v>
+      </c>
+      <c r="G9" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" s="150"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="167">
+        <v>1.4</v>
+      </c>
+      <c r="K9" s="167" t="s">
+        <v>289</v>
+      </c>
+      <c r="L9" s="143"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="165"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="167">
+        <v>1.5</v>
+      </c>
+      <c r="K10" s="167" t="s">
+        <v>290</v>
+      </c>
+      <c r="L10" s="169"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="165"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="143" t="s">
+        <v>291</v>
+      </c>
+      <c r="M11" s="151"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="165"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="216"/>
+      <c r="F12" s="216"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="170" t="s">
+        <v>292</v>
+      </c>
+      <c r="M12" s="151"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="165"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="217" t="s">
+        <v>405</v>
+      </c>
+      <c r="G13" s="165"/>
+      <c r="L13" s="170" t="s">
+        <v>337</v>
+      </c>
+      <c r="M13" s="151"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="165"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="216"/>
+      <c r="F14" s="216"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="153">
+        <v>2</v>
+      </c>
+      <c r="I14" s="167" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="165"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165" t="s">
+        <v>355</v>
+      </c>
+      <c r="D15" s="218"/>
+      <c r="E15" s="216" t="s">
+        <v>406</v>
+      </c>
+      <c r="F15" s="216" t="s">
+        <v>409</v>
+      </c>
+      <c r="G15" s="165" t="s">
+        <v>356</v>
+      </c>
+      <c r="J15" s="143">
+        <v>2.1</v>
+      </c>
+      <c r="K15" s="167" t="s">
+        <v>294</v>
+      </c>
+      <c r="L15" s="169"/>
+    </row>
+    <row r="16" spans="1:13" ht="25.5">
+      <c r="A16" s="165"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165" t="s">
+        <v>411</v>
+      </c>
+      <c r="D16" s="218"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="165"/>
+      <c r="J16" s="143">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K16" s="167" t="s">
+        <v>295</v>
+      </c>
+      <c r="L16" s="169"/>
+    </row>
+    <row r="17" spans="1:13" s="154" customFormat="1" ht="64.5" customHeight="1">
+      <c r="A17" s="165"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165" t="s">
+        <v>403</v>
+      </c>
+      <c r="D17" s="218"/>
+      <c r="E17" s="217"/>
+      <c r="F17" s="217"/>
+      <c r="G17" s="219"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="143">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K17" s="167" t="s">
+        <v>296</v>
+      </c>
+      <c r="L17" s="169"/>
+    </row>
+    <row r="18" spans="1:13" ht="51">
+      <c r="A18" s="165" t="s">
+        <v>400</v>
+      </c>
+      <c r="B18" s="165" t="s">
+        <v>415</v>
+      </c>
+      <c r="C18" s="165"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="165"/>
+      <c r="J18" s="143">
+        <v>2.4</v>
+      </c>
+      <c r="K18" s="167" t="s">
+        <v>297</v>
+      </c>
+      <c r="L18" s="169"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="165"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="216"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="165"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="165"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="218"/>
+      <c r="E20" s="216"/>
+      <c r="F20" s="216"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="153">
+        <v>3</v>
+      </c>
+      <c r="I20" s="167" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="144"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="165"/>
+      <c r="J21" s="167">
+        <v>3.1</v>
+      </c>
+      <c r="K21" s="167" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="144"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="216"/>
+      <c r="F22" s="216" t="s">
+        <v>357</v>
+      </c>
+      <c r="G22" s="165" t="s">
+        <v>358</v>
+      </c>
+      <c r="J22" s="172"/>
+      <c r="L22" s="167" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="144"/>
+      <c r="B23" s="144" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" s="165"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="216" t="s">
+        <v>360</v>
+      </c>
+      <c r="G23" s="165"/>
+      <c r="J23" s="173"/>
+      <c r="L23" s="143" t="s">
+        <v>301</v>
+      </c>
+      <c r="M23" s="151"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="144"/>
+      <c r="B24" s="144" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24" s="165"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="165"/>
+      <c r="J24" s="167">
+        <v>3.2</v>
+      </c>
+      <c r="K24" s="167" t="s">
+        <v>302</v>
+      </c>
+      <c r="L24" s="169"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="144"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="216"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="165"/>
+      <c r="J25" s="167">
+        <v>3.3</v>
+      </c>
+      <c r="K25" s="167" t="s">
+        <v>303</v>
+      </c>
+      <c r="L25" s="169"/>
+    </row>
+    <row r="26" spans="1:13" ht="51">
+      <c r="A26" s="144"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="218" t="s">
+        <v>412</v>
+      </c>
+      <c r="E26" s="216"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="165" t="s">
+        <v>414</v>
+      </c>
+      <c r="J26" s="167">
+        <v>3.4</v>
+      </c>
+      <c r="K26" s="167" t="s">
+        <v>304</v>
+      </c>
+      <c r="L26" s="169"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="144"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="165"/>
+      <c r="L27" s="169"/>
+    </row>
+    <row r="28" spans="1:13" ht="25.5">
+      <c r="A28" s="144"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="153">
+        <v>4</v>
+      </c>
+      <c r="I28" s="167" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="144"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="165"/>
+      <c r="J29" s="143">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K29" s="167" t="s">
+        <v>306</v>
+      </c>
+      <c r="L29" s="169"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="144"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="216" t="s">
+        <v>362</v>
+      </c>
+      <c r="F30" s="216" t="s">
+        <v>363</v>
+      </c>
+      <c r="G30" s="165" t="s">
+        <v>364</v>
+      </c>
+      <c r="J30" s="174"/>
+      <c r="K30" s="169"/>
+      <c r="L30" s="167" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="144"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="216" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="163" t="s">
+      <c r="F31" s="216" t="s">
         <v>366</v>
       </c>
-      <c r="C2" s="164" t="s">
-        <v>429</v>
-      </c>
-      <c r="D2" s="164" t="s">
-        <v>436</v>
-      </c>
-      <c r="E2" s="206" t="s">
-        <v>417</v>
-      </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="208"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="166"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="167">
-        <v>1</v>
-      </c>
-      <c r="F3" s="168" t="s">
+      <c r="G31" s="165" t="s">
         <v>367</v>
       </c>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="166" t="s">
+      <c r="J31" s="175"/>
+      <c r="K31" s="169"/>
+      <c r="L31" s="143" t="s">
+        <v>308</v>
+      </c>
+      <c r="M31" s="151"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="144"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="216" t="s">
+        <v>368</v>
+      </c>
+      <c r="F32" s="216" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="G32" s="165" t="s">
         <v>370</v>
       </c>
-      <c r="C4" s="166" t="s">
-        <v>370</v>
-      </c>
-      <c r="D4" s="166" t="s">
-        <v>370</v>
-      </c>
-      <c r="E4" s="170"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="171">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H4" s="172" t="s">
-        <v>368</v>
-      </c>
-      <c r="I4" s="169"/>
-    </row>
-    <row r="5" spans="1:10" ht="38.25">
-      <c r="A5" s="166" t="s">
-        <v>369</v>
-      </c>
-      <c r="B5" s="166" t="s">
-        <v>434</v>
-      </c>
-      <c r="C5" s="166" t="s">
-        <v>435</v>
-      </c>
-      <c r="D5" s="173" t="s">
-        <v>476</v>
-      </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="171">
-        <v>1.2</v>
-      </c>
-      <c r="H5" s="172" t="s">
+      <c r="J32" s="175"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="143" t="s">
+        <v>309</v>
+      </c>
+      <c r="M32" s="151"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="144"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="216" t="s">
         <v>371</v>
       </c>
-      <c r="I5" s="169"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="173"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="171">
-        <v>1.3</v>
-      </c>
-      <c r="H6" s="172" t="s">
+      <c r="F33" s="216" t="s">
         <v>372</v>
       </c>
-      <c r="I6" s="169"/>
-    </row>
-    <row r="7" spans="1:10" ht="51.75" customHeight="1">
-      <c r="A7" s="173" t="s">
-        <v>469</v>
-      </c>
-      <c r="B7" s="169"/>
-      <c r="C7" s="174" t="s">
-        <v>455</v>
-      </c>
-      <c r="D7" s="174" t="s">
-        <v>456</v>
-      </c>
-      <c r="E7" s="170"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="160" t="s">
-        <v>418</v>
-      </c>
-      <c r="J7" s="183"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="166" t="s">
-        <v>370</v>
-      </c>
-      <c r="B8" s="166" t="s">
-        <v>370</v>
-      </c>
-      <c r="C8" s="166" t="s">
-        <v>370</v>
-      </c>
-      <c r="D8" s="166" t="s">
-        <v>370</v>
-      </c>
-      <c r="E8" s="170"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="172">
-        <v>1.4</v>
-      </c>
-      <c r="H8" s="172" t="s">
+      <c r="G33" s="165" t="s">
         <v>373</v>
       </c>
-      <c r="I8" s="180"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="166"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="172">
-        <v>1.5</v>
-      </c>
-      <c r="H9" s="171" t="s">
+      <c r="J33" s="175"/>
+      <c r="K33" s="169"/>
+      <c r="L33" s="143" t="s">
+        <v>310</v>
+      </c>
+      <c r="M33" s="151"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="144"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="216" t="s">
         <v>374</v>
       </c>
-      <c r="I9" s="176"/>
-      <c r="J9" s="166"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="166"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="172" t="s">
+      <c r="F34" s="216" t="s">
         <v>375</v>
       </c>
-      <c r="J10" s="183"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="166"/>
-      <c r="B11" s="166"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="172" t="s">
+      <c r="G34" s="165" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="166"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="177" t="s">
-        <v>475</v>
-      </c>
-      <c r="D12" s="166"/>
-      <c r="I12" s="175" t="s">
-        <v>421</v>
-      </c>
-      <c r="J12" s="183"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="166"/>
-      <c r="B13" s="166"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="166"/>
-      <c r="I13" s="182"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="166"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="179">
-        <v>2</v>
-      </c>
-      <c r="F14" s="172" t="s">
+      <c r="J34" s="175"/>
+      <c r="K34" s="169"/>
+      <c r="L34" s="143" t="s">
+        <v>311</v>
+      </c>
+      <c r="M34" s="151"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="144"/>
+      <c r="B35" s="144" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="166" t="s">
-        <v>467</v>
-      </c>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166" t="s">
-        <v>457</v>
-      </c>
-      <c r="G15" s="171">
-        <v>2.1</v>
-      </c>
-      <c r="H15" s="172" t="s">
+      <c r="C35" s="165"/>
+      <c r="D35" s="218"/>
+      <c r="E35" s="216" t="s">
         <v>378</v>
       </c>
-      <c r="I15" s="169"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="166" t="s">
-        <v>468</v>
-      </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="G16" s="171">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H16" s="172" t="s">
+      <c r="F35" s="216" t="s">
         <v>379</v>
       </c>
-      <c r="I16" s="169"/>
-    </row>
-    <row r="17" spans="1:10" s="159" customFormat="1" ht="76.5">
-      <c r="A17" s="173" t="s">
-        <v>477</v>
-      </c>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="178"/>
-      <c r="G17" s="171">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H17" s="172" t="s">
+      <c r="G35" s="165"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="169"/>
+      <c r="L35" s="167" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="144"/>
+      <c r="B36" s="144" t="s">
         <v>380</v>
       </c>
-      <c r="I17" s="169"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="166" t="s">
-        <v>461</v>
-      </c>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="G18" s="171">
-        <v>2.4</v>
-      </c>
-      <c r="H18" s="172" t="s">
+      <c r="C36" s="165"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="216" t="s">
         <v>381</v>
       </c>
-      <c r="I18" s="169"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="166"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="166"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="179">
-        <v>3</v>
-      </c>
-      <c r="F20" s="172" t="s">
+      <c r="F36" s="216" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="166"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="G21" s="172">
-        <v>3.1</v>
-      </c>
-      <c r="H21" s="172" t="s">
+      <c r="G36" s="165"/>
+      <c r="J36" s="175"/>
+      <c r="K36" s="169"/>
+      <c r="L36" s="167" t="s">
+        <v>339</v>
+      </c>
+      <c r="M36" s="151"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="144"/>
+      <c r="B37" s="144" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="166"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="166" t="s">
-        <v>458</v>
-      </c>
-      <c r="D22" s="166" t="s">
-        <v>437</v>
-      </c>
-      <c r="G22" s="180"/>
-      <c r="I22" s="172" t="s">
+      <c r="C37" s="165"/>
+      <c r="D37" s="218"/>
+      <c r="E37" s="216" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="166" t="s">
-        <v>462</v>
-      </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166" t="s">
-        <v>459</v>
-      </c>
-      <c r="D23" s="166"/>
-      <c r="G23" s="176"/>
-      <c r="I23" s="171" t="s">
+      <c r="F37" s="216" t="s">
         <v>385</v>
       </c>
-      <c r="J23" s="183"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="166" t="s">
-        <v>463</v>
-      </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="G24" s="172">
-        <v>3.2</v>
-      </c>
-      <c r="H24" s="172" t="s">
+      <c r="G37" s="165"/>
+      <c r="J37" s="175"/>
+      <c r="K37" s="169"/>
+      <c r="L37" s="167" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="144"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="218"/>
+      <c r="E38" s="216"/>
+      <c r="F38" s="216"/>
+      <c r="G38" s="165"/>
+      <c r="J38" s="175"/>
+      <c r="K38" s="169"/>
+      <c r="L38" s="169"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="144"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="218"/>
+      <c r="E39" s="216"/>
+      <c r="F39" s="216"/>
+      <c r="G39" s="165"/>
+      <c r="J39" s="143">
+        <v>4.2</v>
+      </c>
+      <c r="K39" s="167" t="s">
+        <v>312</v>
+      </c>
+      <c r="L39" s="169"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="144"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="218"/>
+      <c r="E40" s="216"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="165"/>
+      <c r="J40" s="143">
+        <v>4.3</v>
+      </c>
+      <c r="K40" s="167" t="s">
+        <v>313</v>
+      </c>
+      <c r="L40" s="169"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="144"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="218"/>
+      <c r="E41" s="216"/>
+      <c r="F41" s="216" t="s">
         <v>386</v>
       </c>
-      <c r="I24" s="169"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="166"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
-      <c r="G25" s="172">
-        <v>3.3</v>
-      </c>
-      <c r="H25" s="172" t="s">
+      <c r="G41" s="165" t="s">
         <v>387</v>
       </c>
-      <c r="I25" s="169"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="166" t="s">
-        <v>470</v>
-      </c>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="G26" s="172">
-        <v>3.4</v>
-      </c>
-      <c r="H26" s="172" t="s">
+      <c r="J41" s="143">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K41" s="167" t="s">
+        <v>314</v>
+      </c>
+      <c r="L41" s="169"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="144"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="218"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="216"/>
+      <c r="G42" s="165"/>
+      <c r="J42" s="143">
+        <v>4.5</v>
+      </c>
+      <c r="K42" s="167" t="s">
+        <v>315</v>
+      </c>
+      <c r="L42" s="169"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="144"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="218"/>
+      <c r="E43" s="216"/>
+      <c r="F43" s="216"/>
+      <c r="G43" s="165"/>
+      <c r="K43" s="169"/>
+      <c r="L43" s="169"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="144"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="218"/>
+      <c r="E44" s="216"/>
+      <c r="F44" s="216"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="153">
+        <v>5</v>
+      </c>
+      <c r="I44" s="167" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="25.5">
+      <c r="A45" s="144"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="218"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="216"/>
+      <c r="G45" s="165"/>
+      <c r="J45" s="167">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K45" s="167" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="144"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="216"/>
+      <c r="F46" s="216"/>
+      <c r="G46" s="165"/>
+      <c r="J46" s="167">
+        <v>5.2</v>
+      </c>
+      <c r="K46" s="167" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="144"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="218"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="165"/>
+      <c r="J47" s="167">
+        <v>5.3</v>
+      </c>
+      <c r="K47" s="167" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="144"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="218"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="216"/>
+      <c r="G48" s="165"/>
+      <c r="J48" s="167">
+        <v>5.4</v>
+      </c>
+      <c r="K48" s="167" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="144"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="218"/>
+      <c r="E49" s="216"/>
+      <c r="F49" s="216"/>
+      <c r="G49" s="165"/>
+      <c r="K49" s="169"/>
+      <c r="L49" s="169"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="144"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="218"/>
+      <c r="E50" s="216"/>
+      <c r="F50" s="216"/>
+      <c r="G50" s="165"/>
+      <c r="H50" s="153">
+        <v>6</v>
+      </c>
+      <c r="I50" s="167" t="s">
+        <v>321</v>
+      </c>
+      <c r="K50" s="169"/>
+      <c r="L50" s="169"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="144"/>
+      <c r="B51" s="144" t="s">
         <v>388</v>
       </c>
-      <c r="I26" s="169"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="166"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
-      <c r="I27" s="169"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="166"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="179">
-        <v>4</v>
-      </c>
-      <c r="F28" s="172" t="s">
+      <c r="C51" s="165" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="166"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="G29" s="171">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H29" s="172" t="s">
+      <c r="D51" s="218" t="s">
         <v>390</v>
       </c>
-      <c r="I29" s="169"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="166"/>
-      <c r="B30" s="166" t="s">
-        <v>447</v>
-      </c>
-      <c r="C30" s="166" t="s">
-        <v>448</v>
-      </c>
-      <c r="D30" s="166" t="s">
-        <v>449</v>
-      </c>
-      <c r="G30" s="180"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="171" t="s">
+      <c r="E51" s="216"/>
+      <c r="F51" s="216" t="s">
         <v>391</v>
       </c>
-      <c r="J30" s="183"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="166"/>
-      <c r="B31" s="166" t="s">
-        <v>441</v>
-      </c>
-      <c r="C31" s="166" t="s">
-        <v>442</v>
-      </c>
-      <c r="D31" s="166" t="s">
-        <v>443</v>
-      </c>
-      <c r="G31" s="175"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="171" t="s">
+      <c r="G51" s="165" t="s">
         <v>392</v>
       </c>
-      <c r="J31" s="183"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="166"/>
-      <c r="B32" s="166" t="s">
-        <v>450</v>
-      </c>
-      <c r="C32" s="166" t="s">
-        <v>451</v>
-      </c>
-      <c r="D32" s="166" t="s">
-        <v>452</v>
-      </c>
-      <c r="G32" s="175"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="171" t="s">
+      <c r="J51" s="143">
+        <v>6.1</v>
+      </c>
+      <c r="K51" s="167" t="s">
+        <v>322</v>
+      </c>
+      <c r="L51" s="169"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="144"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="218"/>
+      <c r="E52" s="216"/>
+      <c r="F52" s="216"/>
+      <c r="G52" s="165"/>
+      <c r="K52" s="169"/>
+      <c r="L52" s="169"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="144"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="218"/>
+      <c r="E53" s="216"/>
+      <c r="F53" s="216"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="153">
+        <v>7</v>
+      </c>
+      <c r="I53" s="167" t="s">
+        <v>323</v>
+      </c>
+      <c r="K53" s="169"/>
+      <c r="L53" s="169"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="144"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="218"/>
+      <c r="E54" s="216"/>
+      <c r="F54" s="216"/>
+      <c r="G54" s="165"/>
+      <c r="J54" s="143">
+        <v>7.1</v>
+      </c>
+      <c r="K54" s="167" t="s">
+        <v>324</v>
+      </c>
+      <c r="L54" s="169"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="144"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="218"/>
+      <c r="E55" s="216"/>
+      <c r="F55" s="216"/>
+      <c r="G55" s="165"/>
+      <c r="J55" s="143">
+        <v>7.2</v>
+      </c>
+      <c r="K55" s="167" t="s">
+        <v>325</v>
+      </c>
+      <c r="L55" s="169"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="144"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="218"/>
+      <c r="E56" s="216"/>
+      <c r="F56" s="216"/>
+      <c r="G56" s="165"/>
+      <c r="J56" s="143">
+        <v>7.3</v>
+      </c>
+      <c r="K56" s="167" t="s">
+        <v>326</v>
+      </c>
+      <c r="L56" s="169"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="144"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="218"/>
+      <c r="E57" s="216"/>
+      <c r="F57" s="216"/>
+      <c r="G57" s="165"/>
+      <c r="K57" s="169"/>
+      <c r="L57" s="169"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="144"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="218"/>
+      <c r="E58" s="216"/>
+      <c r="F58" s="216"/>
+      <c r="G58" s="165"/>
+      <c r="H58" s="150"/>
+      <c r="I58" s="167" t="s">
+        <v>327</v>
+      </c>
+      <c r="J58" s="170"/>
+      <c r="K58" s="173"/>
+      <c r="L58" s="169"/>
+    </row>
+    <row r="59" spans="1:12" ht="25.5">
+      <c r="A59" s="144"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="218"/>
+      <c r="E59" s="216" t="s">
+        <v>407</v>
+      </c>
+      <c r="F59" s="216" t="s">
         <v>393</v>
       </c>
-      <c r="J32" s="183"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="166"/>
-      <c r="B33" s="166" t="s">
-        <v>425</v>
-      </c>
-      <c r="C33" s="166" t="s">
-        <v>430</v>
-      </c>
-      <c r="D33" s="166" t="s">
-        <v>438</v>
-      </c>
-      <c r="G33" s="175"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="171" t="s">
+      <c r="G59" s="165"/>
+      <c r="J59" s="167"/>
+      <c r="K59" s="167" t="s">
+        <v>328</v>
+      </c>
+      <c r="L59" s="169"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="144"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="218"/>
+      <c r="E60" s="216"/>
+      <c r="F60" s="216"/>
+      <c r="G60" s="165"/>
+      <c r="J60" s="167"/>
+      <c r="K60" s="167" t="s">
+        <v>329</v>
+      </c>
+      <c r="L60" s="169"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="144"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="218"/>
+      <c r="E61" s="216"/>
+      <c r="F61" s="216"/>
+      <c r="G61" s="165"/>
+      <c r="J61" s="169"/>
+      <c r="K61" s="169"/>
+      <c r="L61" s="167" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="144"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="218"/>
+      <c r="E62" s="216"/>
+      <c r="F62" s="216"/>
+      <c r="G62" s="165"/>
+      <c r="J62" s="169"/>
+      <c r="K62" s="169"/>
+      <c r="L62" s="167" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="144"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="218"/>
+      <c r="E63" s="216"/>
+      <c r="F63" s="216"/>
+      <c r="G63" s="165"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="144"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="218"/>
+      <c r="E64" s="216"/>
+      <c r="F64" s="216"/>
+      <c r="G64" s="165"/>
+      <c r="H64" s="150"/>
+      <c r="I64" s="167" t="s">
+        <v>330</v>
+      </c>
+      <c r="J64" s="169"/>
+      <c r="K64" s="169"/>
+      <c r="L64" s="169"/>
+    </row>
+    <row r="65" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A65" s="144" t="s">
         <v>394</v>
       </c>
-      <c r="J33" s="183"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="166"/>
-      <c r="B34" s="166" t="s">
-        <v>444</v>
-      </c>
-      <c r="C34" s="166" t="s">
-        <v>445</v>
-      </c>
-      <c r="D34" s="166" t="s">
-        <v>446</v>
-      </c>
-      <c r="G34" s="175"/>
-      <c r="H34" s="169"/>
-      <c r="I34" s="171" t="s">
+      <c r="B65" s="144" t="s">
         <v>395</v>
       </c>
-      <c r="J34" s="183"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="166" t="s">
-        <v>464</v>
-      </c>
-      <c r="B35" s="166" t="s">
-        <v>426</v>
-      </c>
-      <c r="C35" s="166" t="s">
-        <v>431</v>
-      </c>
-      <c r="D35" s="166"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="172" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="166" t="s">
-        <v>465</v>
-      </c>
-      <c r="B36" s="166" t="s">
-        <v>427</v>
-      </c>
-      <c r="C36" s="166" t="s">
-        <v>432</v>
-      </c>
-      <c r="D36" s="166"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="169"/>
-      <c r="I36" s="172" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="166" t="s">
-        <v>466</v>
-      </c>
-      <c r="B37" s="166" t="s">
-        <v>428</v>
-      </c>
-      <c r="C37" s="166" t="s">
-        <v>433</v>
-      </c>
-      <c r="D37" s="166"/>
-      <c r="G37" s="175"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="172" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="166"/>
-      <c r="B38" s="166"/>
-      <c r="C38" s="166"/>
-      <c r="D38" s="166"/>
-      <c r="G38" s="175"/>
-      <c r="H38" s="169"/>
-      <c r="I38" s="169"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="166"/>
-      <c r="B39" s="166"/>
-      <c r="C39" s="166"/>
-      <c r="D39" s="166"/>
-      <c r="G39" s="171">
-        <v>4.2</v>
-      </c>
-      <c r="H39" s="172" t="s">
+      <c r="C65" s="165"/>
+      <c r="D65" s="218" t="s">
         <v>396</v>
       </c>
-      <c r="I39" s="169"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="166"/>
-      <c r="B40" s="166"/>
-      <c r="C40" s="166"/>
-      <c r="D40" s="166"/>
-      <c r="G40" s="171">
-        <v>4.3</v>
-      </c>
-      <c r="H40" s="172" t="s">
+      <c r="E65" s="216" t="s">
         <v>397</v>
       </c>
-      <c r="I40" s="169"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="166"/>
-      <c r="B41" s="166"/>
-      <c r="C41" s="166" t="s">
-        <v>453</v>
-      </c>
-      <c r="D41" s="166" t="s">
-        <v>454</v>
-      </c>
-      <c r="G41" s="171">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H41" s="172" t="s">
+      <c r="F65" s="216" t="s">
         <v>398</v>
       </c>
-      <c r="I41" s="169"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="166"/>
-      <c r="B42" s="166"/>
-      <c r="C42" s="166"/>
-      <c r="D42" s="166"/>
-      <c r="G42" s="171">
-        <v>4.5</v>
-      </c>
-      <c r="H42" s="172" t="s">
+      <c r="G65" s="165" t="s">
         <v>399</v>
       </c>
-      <c r="I42" s="169"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="166"/>
-      <c r="B43" s="166"/>
-      <c r="C43" s="166"/>
-      <c r="D43" s="166"/>
-      <c r="H43" s="169"/>
-      <c r="I43" s="169"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="166"/>
-      <c r="B44" s="166"/>
-      <c r="C44" s="166"/>
-      <c r="D44" s="166"/>
-      <c r="E44" s="179">
-        <v>5</v>
-      </c>
-      <c r="F44" s="172" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="166"/>
-      <c r="B45" s="166"/>
-      <c r="C45" s="166"/>
-      <c r="D45" s="166"/>
-      <c r="G45" s="172">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H45" s="172" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="166"/>
-      <c r="B46" s="166"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="166"/>
-      <c r="G46" s="172">
-        <v>5.2</v>
-      </c>
-      <c r="H46" s="172" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="166"/>
-      <c r="B47" s="166"/>
-      <c r="C47" s="166"/>
-      <c r="D47" s="166"/>
-      <c r="G47" s="172">
-        <v>5.3</v>
-      </c>
-      <c r="H47" s="172" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="166"/>
-      <c r="B48" s="166"/>
-      <c r="C48" s="166"/>
-      <c r="D48" s="166"/>
-      <c r="G48" s="172">
-        <v>5.4</v>
-      </c>
-      <c r="H48" s="172" t="s">
+      <c r="J65" s="167"/>
+      <c r="K65" s="167" t="s">
+        <v>331</v>
+      </c>
+      <c r="L65" s="169"/>
+    </row>
+    <row r="66" spans="1:13" ht="210.95" customHeight="1">
+      <c r="A66" s="144"/>
+      <c r="B66" s="166" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="166"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
-      <c r="H49" s="169"/>
-      <c r="I49" s="169"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="166"/>
-      <c r="B50" s="166"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="179">
-        <v>6</v>
-      </c>
-      <c r="F50" s="172" t="s">
-        <v>405</v>
-      </c>
-      <c r="H50" s="169"/>
-      <c r="I50" s="169"/>
-    </row>
-    <row r="51" spans="1:10" ht="38.25">
-      <c r="A51" s="173" t="s">
-        <v>471</v>
-      </c>
-      <c r="B51" s="166"/>
-      <c r="C51" s="166" t="s">
-        <v>439</v>
-      </c>
-      <c r="D51" s="166" t="s">
-        <v>440</v>
-      </c>
-      <c r="G51" s="171">
-        <v>6.1</v>
-      </c>
-      <c r="H51" s="172" t="s">
-        <v>406</v>
-      </c>
-      <c r="I51" s="169"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="166"/>
-      <c r="B52" s="166"/>
-      <c r="C52" s="166"/>
-      <c r="D52" s="166"/>
-      <c r="H52" s="169"/>
-      <c r="I52" s="169"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="166"/>
-      <c r="B53" s="166"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="166"/>
-      <c r="E53" s="179">
-        <v>7</v>
-      </c>
-      <c r="F53" s="172" t="s">
-        <v>407</v>
-      </c>
-      <c r="H53" s="169"/>
-      <c r="I53" s="169"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="166"/>
-      <c r="B54" s="166"/>
-      <c r="C54" s="166"/>
-      <c r="D54" s="166"/>
-      <c r="G54" s="171">
-        <v>7.1</v>
-      </c>
-      <c r="H54" s="172" t="s">
+      <c r="C66" s="165"/>
+      <c r="D66" s="218"/>
+      <c r="E66" s="216"/>
+      <c r="F66" s="216" t="s">
         <v>408</v>
       </c>
-      <c r="I54" s="169"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="166"/>
-      <c r="B55" s="166"/>
-      <c r="C55" s="166"/>
-      <c r="D55" s="166"/>
-      <c r="G55" s="171">
-        <v>7.2</v>
-      </c>
-      <c r="H55" s="172" t="s">
-        <v>409</v>
-      </c>
-      <c r="I55" s="169"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="166"/>
-      <c r="B56" s="166"/>
-      <c r="C56" s="166"/>
-      <c r="D56" s="166"/>
-      <c r="G56" s="171">
-        <v>7.3</v>
-      </c>
-      <c r="H56" s="172" t="s">
-        <v>410</v>
-      </c>
-      <c r="I56" s="169"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="166"/>
-      <c r="B57" s="166"/>
-      <c r="C57" s="166"/>
-      <c r="D57" s="166"/>
-      <c r="H57" s="169"/>
-      <c r="I57" s="169"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="166"/>
-      <c r="B58" s="166"/>
-      <c r="C58" s="166"/>
-      <c r="D58" s="166"/>
-      <c r="E58" s="170"/>
-      <c r="F58" s="172" t="s">
-        <v>411</v>
-      </c>
-      <c r="G58" s="172"/>
-      <c r="H58" s="172"/>
-      <c r="I58" s="169"/>
-    </row>
-    <row r="59" spans="1:10" ht="25.5">
-      <c r="A59" s="166"/>
-      <c r="B59" s="166"/>
-      <c r="C59" s="173" t="s">
-        <v>460</v>
-      </c>
-      <c r="D59" s="166"/>
-      <c r="G59" s="172"/>
-      <c r="H59" s="172" t="s">
-        <v>412</v>
-      </c>
-      <c r="I59" s="169"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="166"/>
-      <c r="B60" s="166"/>
-      <c r="C60" s="166"/>
-      <c r="D60" s="166"/>
-      <c r="G60" s="172"/>
-      <c r="H60" s="172" t="s">
+      <c r="G66" s="214" t="s">
         <v>413</v>
       </c>
-      <c r="I60" s="169"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="166"/>
-      <c r="B61" s="166"/>
-      <c r="C61" s="166"/>
-      <c r="D61" s="166"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="173"/>
-      <c r="B62" s="173"/>
-      <c r="C62" s="173"/>
-      <c r="D62" s="173"/>
-      <c r="E62" s="170"/>
-      <c r="F62" s="172" t="s">
-        <v>414</v>
-      </c>
-      <c r="G62" s="169"/>
-      <c r="H62" s="169"/>
-      <c r="I62" s="169"/>
-    </row>
-    <row r="63" spans="1:10" ht="38.25">
-      <c r="A63" s="173" t="s">
-        <v>478</v>
-      </c>
-      <c r="B63" s="173" t="s">
-        <v>474</v>
-      </c>
-      <c r="C63" s="173" t="s">
-        <v>472</v>
-      </c>
-      <c r="D63" s="166" t="s">
-        <v>473</v>
-      </c>
-      <c r="G63" s="172"/>
-      <c r="H63" s="172" t="s">
-        <v>415</v>
-      </c>
-      <c r="I63" s="169"/>
-    </row>
-    <row r="64" spans="1:10" ht="171.75" customHeight="1">
-      <c r="A64" s="173" t="s">
-        <v>479</v>
-      </c>
-      <c r="B64" s="173" t="s">
-        <v>480</v>
-      </c>
-      <c r="C64" s="181" t="s">
-        <v>481</v>
-      </c>
-      <c r="D64" s="181" t="s">
-        <v>482</v>
-      </c>
-      <c r="G64" s="169"/>
-      <c r="I64" s="172" t="s">
-        <v>483</v>
-      </c>
-      <c r="J64" s="183"/>
-    </row>
-    <row r="65" spans="5:10">
-      <c r="G65" s="169"/>
-      <c r="I65" s="169"/>
-      <c r="J65" s="166"/>
-    </row>
-    <row r="66" spans="5:10">
-      <c r="G66" s="172"/>
-      <c r="H66" s="171" t="s">
-        <v>416</v>
-      </c>
-      <c r="I66" s="175"/>
-      <c r="J66" s="166"/>
-    </row>
-    <row r="67" spans="5:10">
-      <c r="I67" s="169"/>
-    </row>
-    <row r="70" spans="5:10">
-      <c r="E70" s="170"/>
-      <c r="F70" s="169"/>
+      <c r="J66" s="169"/>
+      <c r="L66" s="143" t="s">
+        <v>341</v>
+      </c>
+      <c r="M66" s="151"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="C67" s="214"/>
+      <c r="D67" s="160"/>
+      <c r="E67" s="162"/>
+      <c r="F67" s="162"/>
+      <c r="J67" s="169"/>
+      <c r="L67" s="143" t="s">
+        <v>342</v>
+      </c>
+      <c r="M67" s="151"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="C68" s="214"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="162"/>
+      <c r="F68" s="162"/>
+      <c r="J68" s="167"/>
+      <c r="K68" s="167" t="s">
+        <v>332</v>
+      </c>
+      <c r="L68" s="174"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="L69" s="169"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="H70" s="155"/>
+      <c r="J70" s="142"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="H71" s="156"/>
+      <c r="J71" s="142"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="H72" s="157"/>
+      <c r="I72" s="176"/>
+      <c r="J72" s="177"/>
+      <c r="K72" s="178"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="H73" s="158"/>
+      <c r="I73" s="179"/>
+      <c r="J73" s="177"/>
+      <c r="K73" s="178"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="J75" s="142"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:I11 A3:D11 A18:I66 A13:D16 F13:I16">
-    <cfRule type="expression" dxfId="5" priority="18">
+  <conditionalFormatting sqref="I4:L16 B4:B16 B18:B68 E4:G16 E18:L68">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E11 E13:E16">
-    <cfRule type="expression" dxfId="4" priority="7">
+  <conditionalFormatting sqref="H4:H16">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:D17 F17:I17">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="B17 I17:L17 E17:G17">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="2" priority="5">
+  <conditionalFormatting sqref="H17">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:D12 F12:I12">
+  <conditionalFormatting sqref="C4:C16 C18:C68">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D16 D18:D68">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A16 A18:A68">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="A17">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.23622047244094491"/>
+  <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F&amp;R2</oddFooter>
+  </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7700,955 +8096,955 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="69" style="41" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="41" customWidth="1"/>
-    <col min="8" max="8" width="99" style="41" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="41"/>
+    <col min="1" max="1" width="12.28515625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="69" style="32" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="99" style="32" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A1" s="210" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="212"/>
+      <c r="A1" s="211" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="213"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="131" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="38.25">
+      <c r="A3" s="132">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="126" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="127" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="127" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="134">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="124" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4" s="135" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="89.25">
+      <c r="A5" s="134">
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="124" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" s="135" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="76.5">
+      <c r="A6" s="134">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="125" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="124" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="124" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" s="135" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="38.25">
+      <c r="A7" s="134">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="124" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="124" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="124" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="124" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="124" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" s="135" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="51">
+      <c r="A8" s="134">
+        <v>2.1</v>
+      </c>
+      <c r="B8" s="122" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="124" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="135" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="38.25">
+      <c r="A9" s="134">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" s="122" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="124" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="124" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="38.25">
+      <c r="A10" s="134">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="124" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10" s="135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25.5">
+      <c r="A11" s="134">
+        <v>2.4</v>
+      </c>
+      <c r="B11" s="122" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="124" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="124" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="124" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" s="135" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="63.75">
+      <c r="A12" s="134">
+        <v>3.1</v>
+      </c>
+      <c r="B12" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="124" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="124" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="124" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="124" t="s">
+        <v>273</v>
+      </c>
+      <c r="H12" s="135" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="25.5">
+      <c r="A13" s="134">
+        <v>3.2</v>
+      </c>
+      <c r="B13" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="124" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="135" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="25.5">
+      <c r="A14" s="134">
+        <v>3.3</v>
+      </c>
+      <c r="B14" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="124" t="s">
+        <v>235</v>
+      </c>
+      <c r="H14" s="135" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25.5">
+      <c r="A15" s="134">
+        <v>3.4</v>
+      </c>
+      <c r="B15" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="124" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="124" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="124" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" s="135" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="105">
+      <c r="A16" s="134">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B16" s="122" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="124" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" s="124" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="124" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="124" t="s">
+        <v>274</v>
+      </c>
+      <c r="H16" s="135" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="25.5">
+      <c r="A17" s="134">
+        <v>4.2</v>
+      </c>
+      <c r="B17" s="122" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="124" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="124" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="124" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="135" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="25.5">
+      <c r="A18" s="134">
+        <v>4.3</v>
+      </c>
+      <c r="B18" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="124" t="s">
+        <v>242</v>
+      </c>
+      <c r="H18" s="135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="38.25">
+      <c r="A19" s="134">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B19" s="122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="124" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="124" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" s="124" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="124" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="135" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="134">
+        <v>4.5</v>
+      </c>
+      <c r="B20" s="122" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="124" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="124" t="s">
+        <v>246</v>
+      </c>
+      <c r="H20" s="135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="38.25">
+      <c r="A21" s="134">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B21" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="124" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" s="135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="25.5">
+      <c r="A22" s="134">
+        <v>5.2</v>
+      </c>
+      <c r="B22" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="124" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="124" t="s">
+        <v>248</v>
+      </c>
+      <c r="H22" s="135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="25.5">
+      <c r="A23" s="134">
+        <v>5.3</v>
+      </c>
+      <c r="B23" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="124" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="124" t="s">
+        <v>249</v>
+      </c>
+      <c r="H23" s="135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="25.5">
+      <c r="A24" s="134">
+        <v>5.4</v>
+      </c>
+      <c r="B24" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="124" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="124" t="s">
+        <v>250</v>
+      </c>
+      <c r="H24" s="135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="25.5">
+      <c r="A25" s="134">
+        <v>6.1</v>
+      </c>
+      <c r="B25" s="122" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="124" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="124" t="s">
+        <v>251</v>
+      </c>
+      <c r="E25" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="124" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" s="135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="25.5">
+      <c r="A26" s="134">
+        <v>7.1</v>
+      </c>
+      <c r="B26" s="122" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="124" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="124" t="s">
+        <v>253</v>
+      </c>
+      <c r="H26" s="135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="25.5">
+      <c r="A27" s="134">
+        <v>7.2</v>
+      </c>
+      <c r="B27" s="122" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="124" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="124" t="s">
+        <v>254</v>
+      </c>
+      <c r="H27" s="135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="25.5">
+      <c r="A28" s="134">
+        <v>7.3</v>
+      </c>
+      <c r="B28" s="122" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="124" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="124" t="s">
+        <v>265</v>
+      </c>
+      <c r="H28" s="135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="38.25">
+      <c r="A29" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="122" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="124" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="124" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="124" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="147" t="s">
+    </row>
+    <row r="30" spans="1:8" ht="25.5">
+      <c r="A30" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="147" t="s">
+      <c r="C30" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="D30" s="124" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="147" t="s">
-        <v>301</v>
-      </c>
-      <c r="H2" s="148" t="s">
+      <c r="F30" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="124" t="s">
+        <v>257</v>
+      </c>
+      <c r="H30" s="135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="25.5">
+      <c r="A31" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="B31" s="122" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="38.25">
-      <c r="A3" s="149">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B3" s="143" t="s">
+      <c r="C31" s="124" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="144" t="s">
+      <c r="D31" s="124" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="144" t="s">
-        <v>292</v>
-      </c>
-      <c r="E3" s="144" t="s">
+      <c r="F31" s="124" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="144" t="s">
+      <c r="G31" s="124" t="s">
+        <v>258</v>
+      </c>
+      <c r="H31" s="135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="38.25">
+      <c r="A32" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="144" t="s">
-        <v>357</v>
-      </c>
-      <c r="H3" s="150" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="151">
-        <v>1.2</v>
-      </c>
-      <c r="B4" s="139" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="141" t="s">
+      <c r="C32" s="124" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="124" t="s">
+        <v>268</v>
+      </c>
+      <c r="E32" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="F32" s="124" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="124" t="s">
+        <v>260</v>
+      </c>
+      <c r="H32" s="135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="38.25">
+      <c r="A33" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="B33" s="122" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="124" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" s="124" t="s">
+        <v>268</v>
+      </c>
+      <c r="E33" s="124" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="124" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" s="124" t="s">
+        <v>260</v>
+      </c>
+      <c r="H33" s="135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="51">
+      <c r="A34" s="134" t="s">
+        <v>279</v>
+      </c>
+      <c r="B34" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="141" t="s">
+      <c r="C34" s="124" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="141" t="s">
-        <v>302</v>
-      </c>
-      <c r="H4" s="152" t="s">
+      <c r="D34" s="124" t="s">
+        <v>261</v>
+      </c>
+      <c r="E34" s="124" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="89.25">
-      <c r="A5" s="151">
-        <v>1.3</v>
-      </c>
-      <c r="B5" s="139" t="s">
+      <c r="F34" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="124" t="s">
+        <v>275</v>
+      </c>
+      <c r="H34" s="136" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="39" thickBot="1">
+      <c r="A35" s="137" t="s">
+        <v>279</v>
+      </c>
+      <c r="B35" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C35" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="141" t="s">
-        <v>294</v>
-      </c>
-      <c r="E5" s="141" t="s">
+      <c r="D35" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="141" t="s">
-        <v>295</v>
-      </c>
-      <c r="G5" s="141" t="s">
-        <v>351</v>
-      </c>
-      <c r="H5" s="152" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="76.5">
-      <c r="A6" s="151">
-        <v>1.4</v>
-      </c>
-      <c r="B6" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="141" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="142" t="s">
-        <v>346</v>
-      </c>
-      <c r="E6" s="141" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="141" t="s">
-        <v>296</v>
-      </c>
-      <c r="G6" s="141" t="s">
-        <v>304</v>
-      </c>
-      <c r="H6" s="152" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="38.25">
-      <c r="A7" s="151">
-        <v>1.5</v>
-      </c>
-      <c r="B7" s="139" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="141" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="141" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7" s="141" t="s">
-        <v>298</v>
-      </c>
-      <c r="F7" s="141" t="s">
+      <c r="E35" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="141" t="s">
-        <v>352</v>
-      </c>
-      <c r="H7" s="152" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="51">
-      <c r="A8" s="151">
-        <v>2.1</v>
-      </c>
-      <c r="B8" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="141" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="141" t="s">
-        <v>299</v>
-      </c>
-      <c r="E8" s="141" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8" s="141" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="141" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" s="152" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="38.25">
-      <c r="A9" s="151">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B9" s="139" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="141" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="141" t="s">
-        <v>306</v>
-      </c>
-      <c r="E9" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" s="141" t="s">
-        <v>307</v>
-      </c>
-      <c r="H9" s="152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="38.25">
-      <c r="A10" s="151">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B10" s="139" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="141" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G10" s="141" t="s">
-        <v>308</v>
-      </c>
-      <c r="H10" s="152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="25.5">
-      <c r="A11" s="151">
-        <v>2.4</v>
-      </c>
-      <c r="B11" s="139" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="141" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="141" t="s">
-        <v>300</v>
-      </c>
-      <c r="E11" s="141" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="141" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="141" t="s">
-        <v>309</v>
-      </c>
-      <c r="H11" s="152" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="63.75">
-      <c r="A12" s="151">
-        <v>3.1</v>
-      </c>
-      <c r="B12" s="139" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="141" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="141" t="s">
-        <v>310</v>
-      </c>
-      <c r="E12" s="141" t="s">
-        <v>311</v>
-      </c>
-      <c r="F12" s="141" t="s">
-        <v>312</v>
-      </c>
-      <c r="G12" s="141" t="s">
-        <v>353</v>
-      </c>
-      <c r="H12" s="152" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="25.5">
-      <c r="A13" s="151">
-        <v>3.2</v>
-      </c>
-      <c r="B13" s="139" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="141" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="141" t="s">
-        <v>314</v>
-      </c>
-      <c r="H13" s="152" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="25.5">
-      <c r="A14" s="151">
-        <v>3.3</v>
-      </c>
-      <c r="B14" s="139" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="141" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="E14" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G14" s="141" t="s">
-        <v>315</v>
-      </c>
-      <c r="H14" s="152" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="25.5">
-      <c r="A15" s="151">
-        <v>3.4</v>
-      </c>
-      <c r="B15" s="139" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="141" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="141" t="s">
-        <v>316</v>
-      </c>
-      <c r="E15" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F15" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G15" s="141" t="s">
-        <v>317</v>
-      </c>
-      <c r="H15" s="152" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="105">
-      <c r="A16" s="151">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B16" s="139" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="141" t="s">
-        <v>318</v>
-      </c>
-      <c r="E16" s="141" t="s">
-        <v>319</v>
-      </c>
-      <c r="F16" s="141" t="s">
-        <v>166</v>
-      </c>
-      <c r="G16" s="141" t="s">
-        <v>354</v>
-      </c>
-      <c r="H16" s="152" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="25.5">
-      <c r="A17" s="151">
-        <v>4.2</v>
-      </c>
-      <c r="B17" s="139" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="141" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="141" t="s">
-        <v>320</v>
-      </c>
-      <c r="E17" s="141" t="s">
-        <v>202</v>
-      </c>
-      <c r="F17" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="141" t="s">
-        <v>321</v>
-      </c>
-      <c r="H17" s="152" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="25.5">
-      <c r="A18" s="151">
-        <v>4.3</v>
-      </c>
-      <c r="B18" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="141" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="E18" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G18" s="141" t="s">
-        <v>322</v>
-      </c>
-      <c r="H18" s="152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="38.25">
-      <c r="A19" s="151">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B19" s="139" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="141" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="141" t="s">
-        <v>323</v>
-      </c>
-      <c r="E19" s="141" t="s">
-        <v>324</v>
-      </c>
-      <c r="F19" s="141" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" s="141" t="s">
-        <v>325</v>
-      </c>
-      <c r="H19" s="152" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="151">
-        <v>4.5</v>
-      </c>
-      <c r="B20" s="139" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="141" t="s">
-        <v>210</v>
-      </c>
-      <c r="D20" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F20" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G20" s="141" t="s">
-        <v>326</v>
-      </c>
-      <c r="H20" s="152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="38.25">
-      <c r="A21" s="151">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B21" s="139" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" s="141" t="s">
-        <v>212</v>
-      </c>
-      <c r="D21" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="E21" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" s="141" t="s">
-        <v>327</v>
-      </c>
-      <c r="H21" s="152" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="25.5">
-      <c r="A22" s="151">
-        <v>5.2</v>
-      </c>
-      <c r="B22" s="139" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="141" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="E22" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G22" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="H22" s="152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="25.5">
-      <c r="A23" s="151">
-        <v>5.3</v>
-      </c>
-      <c r="B23" s="139" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="141" t="s">
-        <v>217</v>
-      </c>
-      <c r="D23" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="E23" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" s="141" t="s">
-        <v>329</v>
-      </c>
-      <c r="H23" s="152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="25.5">
-      <c r="A24" s="151">
-        <v>5.4</v>
-      </c>
-      <c r="B24" s="139" t="s">
-        <v>218</v>
-      </c>
-      <c r="C24" s="141" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G24" s="141" t="s">
-        <v>330</v>
-      </c>
-      <c r="H24" s="152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="25.5">
-      <c r="A25" s="151">
-        <v>6.1</v>
-      </c>
-      <c r="B25" s="139" t="s">
-        <v>220</v>
-      </c>
-      <c r="C25" s="141" t="s">
-        <v>221</v>
-      </c>
-      <c r="D25" s="141" t="s">
-        <v>331</v>
-      </c>
-      <c r="E25" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G25" s="141" t="s">
-        <v>332</v>
-      </c>
-      <c r="H25" s="152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="25.5">
-      <c r="A26" s="151">
-        <v>7.1</v>
-      </c>
-      <c r="B26" s="139" t="s">
-        <v>222</v>
-      </c>
-      <c r="C26" s="141" t="s">
-        <v>223</v>
-      </c>
-      <c r="D26" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="141" t="s">
-        <v>333</v>
-      </c>
-      <c r="H26" s="152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="25.5">
-      <c r="A27" s="151">
-        <v>7.2</v>
-      </c>
-      <c r="B27" s="139" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="141" t="s">
-        <v>225</v>
-      </c>
-      <c r="D27" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="E27" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G27" s="141" t="s">
-        <v>334</v>
-      </c>
-      <c r="H27" s="152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="25.5">
-      <c r="A28" s="151">
-        <v>7.3</v>
-      </c>
-      <c r="B28" s="139" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" s="141" t="s">
-        <v>227</v>
-      </c>
-      <c r="D28" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="141" t="s">
-        <v>345</v>
-      </c>
-      <c r="H28" s="152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="38.25">
-      <c r="A29" s="151" t="s">
-        <v>358</v>
-      </c>
-      <c r="B29" s="139" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29" s="141" t="s">
-        <v>229</v>
-      </c>
-      <c r="D29" s="141" t="s">
-        <v>335</v>
-      </c>
-      <c r="E29" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="141" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="141" t="s">
-        <v>336</v>
-      </c>
-      <c r="H29" s="152" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="25.5">
-      <c r="A30" s="151" t="s">
-        <v>358</v>
-      </c>
-      <c r="B30" s="139" t="s">
-        <v>231</v>
-      </c>
-      <c r="C30" s="141" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="141" t="s">
-        <v>348</v>
-      </c>
-      <c r="E30" s="141" t="s">
-        <v>233</v>
-      </c>
-      <c r="F30" s="141" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="141" t="s">
-        <v>337</v>
-      </c>
-      <c r="H30" s="152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="25.5">
-      <c r="A31" s="151" t="s">
-        <v>358</v>
-      </c>
-      <c r="B31" s="139" t="s">
-        <v>234</v>
-      </c>
-      <c r="C31" s="141" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" s="141" t="s">
-        <v>348</v>
-      </c>
-      <c r="E31" s="141" t="s">
-        <v>236</v>
-      </c>
-      <c r="F31" s="141" t="s">
-        <v>237</v>
-      </c>
-      <c r="G31" s="141" t="s">
-        <v>338</v>
-      </c>
-      <c r="H31" s="152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="38.25">
-      <c r="A32" s="151" t="s">
-        <v>358</v>
-      </c>
-      <c r="B32" s="139" t="s">
-        <v>238</v>
-      </c>
-      <c r="C32" s="141" t="s">
-        <v>339</v>
-      </c>
-      <c r="D32" s="141" t="s">
-        <v>348</v>
-      </c>
-      <c r="E32" s="141" t="s">
-        <v>239</v>
-      </c>
-      <c r="F32" s="141" t="s">
-        <v>237</v>
-      </c>
-      <c r="G32" s="141" t="s">
-        <v>340</v>
-      </c>
-      <c r="H32" s="152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="38.25">
-      <c r="A33" s="151" t="s">
-        <v>358</v>
-      </c>
-      <c r="B33" s="139" t="s">
-        <v>238</v>
-      </c>
-      <c r="C33" s="141" t="s">
-        <v>339</v>
-      </c>
-      <c r="D33" s="141" t="s">
-        <v>348</v>
-      </c>
-      <c r="E33" s="141" t="s">
-        <v>239</v>
-      </c>
-      <c r="F33" s="141" t="s">
-        <v>237</v>
-      </c>
-      <c r="G33" s="141" t="s">
-        <v>340</v>
-      </c>
-      <c r="H33" s="152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="51">
-      <c r="A34" s="151" t="s">
-        <v>359</v>
-      </c>
-      <c r="B34" s="139" t="s">
-        <v>240</v>
-      </c>
-      <c r="C34" s="141" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" s="141" t="s">
-        <v>341</v>
-      </c>
-      <c r="E34" s="141" t="s">
-        <v>242</v>
-      </c>
-      <c r="F34" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G34" s="141" t="s">
-        <v>355</v>
-      </c>
-      <c r="H34" s="153" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="39" thickBot="1">
-      <c r="A35" s="154" t="s">
-        <v>359</v>
-      </c>
-      <c r="B35" s="155" t="s">
-        <v>243</v>
-      </c>
-      <c r="C35" s="156" t="s">
-        <v>244</v>
-      </c>
-      <c r="D35" s="156" t="s">
-        <v>245</v>
-      </c>
-      <c r="E35" s="156" t="s">
-        <v>246</v>
-      </c>
-      <c r="F35" s="156" t="s">
-        <v>180</v>
-      </c>
-      <c r="G35" s="156" t="s">
-        <v>356</v>
-      </c>
-      <c r="H35" s="157" t="s">
-        <v>350</v>
+      <c r="F35" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="139" t="s">
+        <v>276</v>
+      </c>
+      <c r="H35" s="140" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="140"/>
-      <c r="B36" s="140"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
+      <c r="A36" s="123"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="158" t="s">
-        <v>360</v>
-      </c>
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="140"/>
-      <c r="H37" s="140"/>
+      <c r="A37" s="141" t="s">
+        <v>280</v>
+      </c>
+      <c r="B37" s="123"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="158" t="s">
-        <v>361</v>
+      <c r="A38" s="141" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="158" t="s">
-        <v>342</v>
+      <c r="A39" s="141" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="158" t="s">
-        <v>343</v>
+      <c r="A40" s="141" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="158" t="s">
-        <v>344</v>
+      <c r="A41" s="141" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -8661,420 +9057,4 @@
     <oddFooter>&amp;L&amp;12&amp;F&amp;R&amp;12Seite 3</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:C38"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="93.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="216" t="s">
-        <v>364</v>
-      </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="213" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="100" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="25.5">
-      <c r="A3" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="99"/>
-    </row>
-    <row r="4" spans="1:3" ht="108" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="54.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="135" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="99"/>
-    </row>
-    <row r="10" spans="1:3" ht="25.5">
-      <c r="A10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="25.5">
-      <c r="A11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="51">
-      <c r="A12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="25.5">
-      <c r="A13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="25.5">
-      <c r="A14" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="99"/>
-    </row>
-    <row r="15" spans="1:3" ht="89.25">
-      <c r="A15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="51">
-      <c r="A16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="51">
-      <c r="A18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="25.5">
-      <c r="A19" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="99"/>
-    </row>
-    <row r="20" spans="1:3" ht="78.75" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="63.75">
-      <c r="A21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="38.25">
-      <c r="A22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="140.25">
-      <c r="A23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="25.5">
-      <c r="A24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="98" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="99"/>
-    </row>
-    <row r="26" spans="1:3" ht="25.5">
-      <c r="A26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="25.5">
-      <c r="A27" s="101" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="103" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="38.25">
-      <c r="A28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="38.25">
-      <c r="A29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="99"/>
-    </row>
-    <row r="31" spans="1:3" ht="25.5">
-      <c r="A31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="25.5">
-      <c r="A32" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="99"/>
-    </row>
-    <row r="33" spans="1:3" ht="63.75">
-      <c r="A33" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="25.5">
-      <c r="A34" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="26.25" thickBot="1">
-      <c r="A35" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="215" t="s">
-        <v>362</v>
-      </c>
-      <c r="B37" s="215"/>
-      <c r="C37" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="215" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="215"/>
-      <c r="C38" s="104" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.98425196850393704" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.23622047244094491"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;12&amp;F&amp;R&amp;12Seite 2</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/DataDictionary/eCH-0160_xIsadg&EAD_v2.0.xlsx
+++ b/DataDictionary/eCH-0160_xIsadg&EAD_v2.0.xlsx
@@ -5134,6 +5134,24 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5235,24 +5253,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5729,18 +5729,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="186" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -5773,11 +5773,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="198" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="194"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="200"/>
       <c r="D3" s="36" t="s">
         <v>211</v>
       </c>
@@ -5859,14 +5859,14 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="205" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="200"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="201"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="206"/>
+      <c r="F7" s="207"/>
       <c r="G7" s="67"/>
       <c r="H7" s="2" t="s">
         <v>53</v>
@@ -5935,11 +5935,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A11" s="196" t="s">
+      <c r="A11" s="202" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="197"/>
-      <c r="C11" s="198"/>
+      <c r="B11" s="203"/>
+      <c r="C11" s="204"/>
       <c r="D11" s="24" t="s">
         <v>18</v>
       </c>
@@ -6207,7 +6207,7 @@
       <c r="F24" s="63"/>
       <c r="G24" s="69"/>
       <c r="H24" s="42"/>
-      <c r="J24" s="181" t="s">
+      <c r="J24" s="187" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       <c r="F25" s="72"/>
       <c r="G25" s="19"/>
       <c r="H25" s="42"/>
-      <c r="J25" s="182"/>
+      <c r="J25" s="188"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="25" t="s">
@@ -6243,7 +6243,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="69"/>
       <c r="H26" s="42"/>
-      <c r="J26" s="182"/>
+      <c r="J26" s="188"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" thickBot="1">
       <c r="A27" s="76"/>
@@ -6258,7 +6258,7 @@
       <c r="F27" s="72"/>
       <c r="G27" s="19"/>
       <c r="H27" s="42"/>
-      <c r="J27" s="182"/>
+      <c r="J27" s="188"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1">
       <c r="A28" s="52"/>
@@ -6274,13 +6274,13 @@
         <v>19</v>
       </c>
       <c r="G28" s="85"/>
-      <c r="H28" s="184" t="s">
+      <c r="H28" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="187" t="s">
+      <c r="I28" s="193" t="s">
         <v>185</v>
       </c>
-      <c r="J28" s="182"/>
+      <c r="J28" s="188"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="52"/>
@@ -6296,9 +6296,9 @@
         <v>9</v>
       </c>
       <c r="G29" s="19"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="188"/>
-      <c r="J29" s="182"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="188"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="52"/>
@@ -6314,9 +6314,9 @@
         <v>14</v>
       </c>
       <c r="G30" s="19"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="182"/>
+      <c r="H30" s="191"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="188"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1">
       <c r="A31" s="52"/>
@@ -6332,9 +6332,9 @@
         <v>34</v>
       </c>
       <c r="G31" s="83"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="182"/>
+      <c r="H31" s="191"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="188"/>
     </row>
     <row r="32" spans="1:10" ht="13.5" thickBot="1">
       <c r="A32" s="52"/>
@@ -6350,9 +6350,9 @@
         <v>13</v>
       </c>
       <c r="G32" s="11"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="189"/>
-      <c r="J32" s="183"/>
+      <c r="H32" s="192"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="189"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" thickBot="1">
       <c r="A33" s="53"/>
@@ -6485,10 +6485,10 @@
       <c r="J39" s="119"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="195" t="s">
+      <c r="A40" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="195"/>
+      <c r="B40" s="201"/>
       <c r="C40" s="46"/>
       <c r="D40" s="44"/>
       <c r="E40" s="44"/>
@@ -6498,10 +6498,10 @@
       <c r="J40" s="119"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="195" t="s">
+      <c r="A41" s="201" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="195"/>
+      <c r="B41" s="201"/>
       <c r="C41" s="47"/>
       <c r="D41" s="44"/>
       <c r="E41" s="44"/>
@@ -6511,10 +6511,10 @@
       <c r="J41" s="119"/>
     </row>
     <row r="42" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A42" s="190" t="s">
+      <c r="A42" s="196" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="191"/>
+      <c r="B42" s="197"/>
       <c r="C42" s="48"/>
       <c r="D42" s="44"/>
       <c r="E42" s="44"/>
@@ -6789,8 +6789,8 @@
   </sheetPr>
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L68" sqref="A1:L68"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="58.7109375" defaultRowHeight="12.75"/>
@@ -6811,28 +6811,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="208" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
     </row>
     <row r="2" spans="1:13" s="147" customFormat="1">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="209" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
       <c r="E2" s="163" t="s">
         <v>211</v>
       </c>
@@ -6842,13 +6842,13 @@
       <c r="G2" s="164" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="205" t="s">
+      <c r="H2" s="211" t="s">
         <v>333</v>
       </c>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="207"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="213"/>
     </row>
     <row r="3" spans="1:13" s="147" customFormat="1" ht="13.5" thickBot="1">
       <c r="A3" s="159" t="s">
@@ -6872,21 +6872,21 @@
       <c r="G3" s="148" t="s">
         <v>349</v>
       </c>
-      <c r="H3" s="208" t="s">
+      <c r="H3" s="214" t="s">
         <v>289</v>
       </c>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="210"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="216"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="144"/>
       <c r="B4" s="144"/>
       <c r="C4" s="165"/>
       <c r="D4" s="165"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="216"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="182"/>
       <c r="G4" s="165"/>
       <c r="H4" s="149">
         <v>1</v>
@@ -6905,10 +6905,10 @@
       </c>
       <c r="C5" s="165"/>
       <c r="D5" s="165"/>
-      <c r="E5" s="216" t="s">
+      <c r="E5" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="F5" s="216" t="s">
+      <c r="F5" s="182" t="s">
         <v>286</v>
       </c>
       <c r="G5" s="165" t="s">
@@ -6931,10 +6931,10 @@
       </c>
       <c r="C6" s="165"/>
       <c r="D6" s="165"/>
-      <c r="E6" s="216" t="s">
+      <c r="E6" s="182" t="s">
         <v>350</v>
       </c>
-      <c r="F6" s="216" t="s">
+      <c r="F6" s="182" t="s">
         <v>351</v>
       </c>
       <c r="G6" s="165" t="s">
@@ -6955,9 +6955,9 @@
       <c r="B7" s="144"/>
       <c r="C7" s="165"/>
       <c r="D7" s="165"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="219"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="185"/>
       <c r="H7" s="150"/>
       <c r="I7" s="169"/>
       <c r="J7" s="143">
@@ -6974,12 +6974,12 @@
         <v>352</v>
       </c>
       <c r="C8" s="165"/>
-      <c r="D8" s="218"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217" t="s">
+      <c r="D8" s="184"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183" t="s">
         <v>353</v>
       </c>
-      <c r="G8" s="219" t="s">
+      <c r="G8" s="185" t="s">
         <v>354</v>
       </c>
       <c r="H8" s="150"/>
@@ -6997,11 +6997,11 @@
         <v>285</v>
       </c>
       <c r="C9" s="165"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="216" t="s">
+      <c r="D9" s="184"/>
+      <c r="E9" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="216" t="s">
+      <c r="F9" s="182" t="s">
         <v>286</v>
       </c>
       <c r="G9" s="165" t="s">
@@ -7021,9 +7021,9 @@
       <c r="A10" s="165"/>
       <c r="B10" s="165"/>
       <c r="C10" s="165"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="216"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
       <c r="G10" s="165"/>
       <c r="H10" s="150"/>
       <c r="I10" s="169"/>
@@ -7039,9 +7039,9 @@
       <c r="A11" s="165"/>
       <c r="B11" s="165"/>
       <c r="C11" s="165"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="216"/>
-      <c r="F11" s="216"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
       <c r="G11" s="165"/>
       <c r="H11" s="150"/>
       <c r="I11" s="169"/>
@@ -7056,9 +7056,9 @@
       <c r="A12" s="165"/>
       <c r="B12" s="165"/>
       <c r="C12" s="165"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="216"/>
-      <c r="F12" s="216"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
       <c r="G12" s="165"/>
       <c r="H12" s="150"/>
       <c r="I12" s="169"/>
@@ -7073,9 +7073,9 @@
       <c r="A13" s="165"/>
       <c r="B13" s="165"/>
       <c r="C13" s="165"/>
-      <c r="D13" s="218"/>
-      <c r="E13" s="216"/>
-      <c r="F13" s="217" t="s">
+      <c r="D13" s="184"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="183" t="s">
         <v>405</v>
       </c>
       <c r="G13" s="165"/>
@@ -7088,9 +7088,9 @@
       <c r="A14" s="165"/>
       <c r="B14" s="165"/>
       <c r="C14" s="165"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="216"/>
-      <c r="F14" s="216"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
       <c r="G14" s="165"/>
       <c r="H14" s="153">
         <v>2</v>
@@ -7105,11 +7105,11 @@
       <c r="C15" s="165" t="s">
         <v>355</v>
       </c>
-      <c r="D15" s="218"/>
-      <c r="E15" s="216" t="s">
+      <c r="D15" s="184"/>
+      <c r="E15" s="182" t="s">
         <v>406</v>
       </c>
-      <c r="F15" s="216" t="s">
+      <c r="F15" s="182" t="s">
         <v>409</v>
       </c>
       <c r="G15" s="165" t="s">
@@ -7129,9 +7129,9 @@
       <c r="C16" s="165" t="s">
         <v>411</v>
       </c>
-      <c r="D16" s="218"/>
-      <c r="E16" s="216"/>
-      <c r="F16" s="216"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
       <c r="G16" s="165"/>
       <c r="J16" s="143">
         <v>2.2000000000000002</v>
@@ -7147,10 +7147,10 @@
       <c r="C17" s="165" t="s">
         <v>403</v>
       </c>
-      <c r="D17" s="218"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="219"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="185"/>
       <c r="H17" s="152"/>
       <c r="I17" s="171"/>
       <c r="J17" s="143">
@@ -7169,9 +7169,9 @@
         <v>415</v>
       </c>
       <c r="C18" s="165"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
       <c r="G18" s="165"/>
       <c r="J18" s="143">
         <v>2.4</v>
@@ -7185,18 +7185,18 @@
       <c r="A19" s="165"/>
       <c r="B19" s="165"/>
       <c r="C19" s="165"/>
-      <c r="D19" s="218"/>
-      <c r="E19" s="216"/>
-      <c r="F19" s="216"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
       <c r="G19" s="165"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="165"/>
       <c r="B20" s="165"/>
       <c r="C20" s="165"/>
-      <c r="D20" s="218"/>
-      <c r="E20" s="216"/>
-      <c r="F20" s="216"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
       <c r="G20" s="165"/>
       <c r="H20" s="153">
         <v>3</v>
@@ -7209,9 +7209,9 @@
       <c r="A21" s="144"/>
       <c r="B21" s="144"/>
       <c r="C21" s="165"/>
-      <c r="D21" s="218"/>
-      <c r="E21" s="216"/>
-      <c r="F21" s="216"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
       <c r="G21" s="165"/>
       <c r="J21" s="167">
         <v>3.1</v>
@@ -7224,9 +7224,9 @@
       <c r="A22" s="144"/>
       <c r="B22" s="144"/>
       <c r="C22" s="165"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="216"/>
-      <c r="F22" s="216" t="s">
+      <c r="D22" s="184"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182" t="s">
         <v>357</v>
       </c>
       <c r="G22" s="165" t="s">
@@ -7243,9 +7243,9 @@
         <v>359</v>
       </c>
       <c r="C23" s="165"/>
-      <c r="D23" s="218"/>
-      <c r="E23" s="216"/>
-      <c r="F23" s="216" t="s">
+      <c r="D23" s="184"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182" t="s">
         <v>360</v>
       </c>
       <c r="G23" s="165"/>
@@ -7261,9 +7261,9 @@
         <v>361</v>
       </c>
       <c r="C24" s="165"/>
-      <c r="D24" s="218"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="216"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
       <c r="G24" s="165"/>
       <c r="J24" s="167">
         <v>3.2</v>
@@ -7277,9 +7277,9 @@
       <c r="A25" s="144"/>
       <c r="B25" s="144"/>
       <c r="C25" s="165"/>
-      <c r="D25" s="218"/>
-      <c r="E25" s="216"/>
-      <c r="F25" s="216"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
       <c r="G25" s="165"/>
       <c r="J25" s="167">
         <v>3.3</v>
@@ -7293,11 +7293,11 @@
       <c r="A26" s="144"/>
       <c r="B26" s="144"/>
       <c r="C26" s="165"/>
-      <c r="D26" s="218" t="s">
+      <c r="D26" s="184" t="s">
         <v>412</v>
       </c>
-      <c r="E26" s="216"/>
-      <c r="F26" s="216"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="182"/>
       <c r="G26" s="165" t="s">
         <v>414</v>
       </c>
@@ -7313,9 +7313,9 @@
       <c r="A27" s="144"/>
       <c r="B27" s="144"/>
       <c r="C27" s="165"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="216"/>
-      <c r="F27" s="216"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
       <c r="G27" s="165"/>
       <c r="L27" s="169"/>
     </row>
@@ -7323,9 +7323,9 @@
       <c r="A28" s="144"/>
       <c r="B28" s="144"/>
       <c r="C28" s="165"/>
-      <c r="D28" s="218"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="216"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
       <c r="G28" s="165"/>
       <c r="H28" s="153">
         <v>4</v>
@@ -7338,9 +7338,9 @@
       <c r="A29" s="144"/>
       <c r="B29" s="144"/>
       <c r="C29" s="165"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
       <c r="G29" s="165"/>
       <c r="J29" s="143">
         <v>4.0999999999999996</v>
@@ -7354,11 +7354,11 @@
       <c r="A30" s="144"/>
       <c r="B30" s="144"/>
       <c r="C30" s="165"/>
-      <c r="D30" s="218"/>
-      <c r="E30" s="216" t="s">
+      <c r="D30" s="184"/>
+      <c r="E30" s="182" t="s">
         <v>362</v>
       </c>
-      <c r="F30" s="216" t="s">
+      <c r="F30" s="182" t="s">
         <v>363</v>
       </c>
       <c r="G30" s="165" t="s">
@@ -7374,11 +7374,11 @@
       <c r="A31" s="144"/>
       <c r="B31" s="144"/>
       <c r="C31" s="165"/>
-      <c r="D31" s="218"/>
-      <c r="E31" s="216" t="s">
+      <c r="D31" s="184"/>
+      <c r="E31" s="182" t="s">
         <v>365</v>
       </c>
-      <c r="F31" s="216" t="s">
+      <c r="F31" s="182" t="s">
         <v>366</v>
       </c>
       <c r="G31" s="165" t="s">
@@ -7395,11 +7395,11 @@
       <c r="A32" s="144"/>
       <c r="B32" s="144"/>
       <c r="C32" s="165"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="216" t="s">
+      <c r="D32" s="184"/>
+      <c r="E32" s="182" t="s">
         <v>368</v>
       </c>
-      <c r="F32" s="216" t="s">
+      <c r="F32" s="182" t="s">
         <v>369</v>
       </c>
       <c r="G32" s="165" t="s">
@@ -7416,11 +7416,11 @@
       <c r="A33" s="144"/>
       <c r="B33" s="144"/>
       <c r="C33" s="165"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="216" t="s">
+      <c r="D33" s="184"/>
+      <c r="E33" s="182" t="s">
         <v>371</v>
       </c>
-      <c r="F33" s="216" t="s">
+      <c r="F33" s="182" t="s">
         <v>372</v>
       </c>
       <c r="G33" s="165" t="s">
@@ -7437,11 +7437,11 @@
       <c r="A34" s="144"/>
       <c r="B34" s="144"/>
       <c r="C34" s="165"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="216" t="s">
+      <c r="D34" s="184"/>
+      <c r="E34" s="182" t="s">
         <v>374</v>
       </c>
-      <c r="F34" s="216" t="s">
+      <c r="F34" s="182" t="s">
         <v>375</v>
       </c>
       <c r="G34" s="165" t="s">
@@ -7460,11 +7460,11 @@
         <v>377</v>
       </c>
       <c r="C35" s="165"/>
-      <c r="D35" s="218"/>
-      <c r="E35" s="216" t="s">
+      <c r="D35" s="184"/>
+      <c r="E35" s="182" t="s">
         <v>378</v>
       </c>
-      <c r="F35" s="216" t="s">
+      <c r="F35" s="182" t="s">
         <v>379</v>
       </c>
       <c r="G35" s="165"/>
@@ -7480,11 +7480,11 @@
         <v>380</v>
       </c>
       <c r="C36" s="165"/>
-      <c r="D36" s="218"/>
-      <c r="E36" s="216" t="s">
+      <c r="D36" s="184"/>
+      <c r="E36" s="182" t="s">
         <v>381</v>
       </c>
-      <c r="F36" s="216" t="s">
+      <c r="F36" s="182" t="s">
         <v>382</v>
       </c>
       <c r="G36" s="165"/>
@@ -7501,11 +7501,11 @@
         <v>383</v>
       </c>
       <c r="C37" s="165"/>
-      <c r="D37" s="218"/>
-      <c r="E37" s="216" t="s">
+      <c r="D37" s="184"/>
+      <c r="E37" s="182" t="s">
         <v>384</v>
       </c>
-      <c r="F37" s="216" t="s">
+      <c r="F37" s="182" t="s">
         <v>385</v>
       </c>
       <c r="G37" s="165"/>
@@ -7519,9 +7519,9 @@
       <c r="A38" s="144"/>
       <c r="B38" s="144"/>
       <c r="C38" s="165"/>
-      <c r="D38" s="218"/>
-      <c r="E38" s="216"/>
-      <c r="F38" s="216"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="182"/>
+      <c r="F38" s="182"/>
       <c r="G38" s="165"/>
       <c r="J38" s="175"/>
       <c r="K38" s="169"/>
@@ -7531,9 +7531,9 @@
       <c r="A39" s="144"/>
       <c r="B39" s="144"/>
       <c r="C39" s="165"/>
-      <c r="D39" s="218"/>
-      <c r="E39" s="216"/>
-      <c r="F39" s="216"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="182"/>
+      <c r="F39" s="182"/>
       <c r="G39" s="165"/>
       <c r="J39" s="143">
         <v>4.2</v>
@@ -7547,9 +7547,9 @@
       <c r="A40" s="144"/>
       <c r="B40" s="144"/>
       <c r="C40" s="165"/>
-      <c r="D40" s="218"/>
-      <c r="E40" s="216"/>
-      <c r="F40" s="216"/>
+      <c r="D40" s="184"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
       <c r="G40" s="165"/>
       <c r="J40" s="143">
         <v>4.3</v>
@@ -7563,9 +7563,9 @@
       <c r="A41" s="144"/>
       <c r="B41" s="144"/>
       <c r="C41" s="165"/>
-      <c r="D41" s="218"/>
-      <c r="E41" s="216"/>
-      <c r="F41" s="216" t="s">
+      <c r="D41" s="184"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="182" t="s">
         <v>386</v>
       </c>
       <c r="G41" s="165" t="s">
@@ -7583,9 +7583,9 @@
       <c r="A42" s="144"/>
       <c r="B42" s="144"/>
       <c r="C42" s="165"/>
-      <c r="D42" s="218"/>
-      <c r="E42" s="216"/>
-      <c r="F42" s="216"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="182"/>
+      <c r="F42" s="182"/>
       <c r="G42" s="165"/>
       <c r="J42" s="143">
         <v>4.5</v>
@@ -7599,9 +7599,9 @@
       <c r="A43" s="144"/>
       <c r="B43" s="144"/>
       <c r="C43" s="165"/>
-      <c r="D43" s="218"/>
-      <c r="E43" s="216"/>
-      <c r="F43" s="216"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="182"/>
+      <c r="F43" s="182"/>
       <c r="G43" s="165"/>
       <c r="K43" s="169"/>
       <c r="L43" s="169"/>
@@ -7610,9 +7610,9 @@
       <c r="A44" s="144"/>
       <c r="B44" s="144"/>
       <c r="C44" s="165"/>
-      <c r="D44" s="218"/>
-      <c r="E44" s="216"/>
-      <c r="F44" s="216"/>
+      <c r="D44" s="184"/>
+      <c r="E44" s="182"/>
+      <c r="F44" s="182"/>
       <c r="G44" s="165"/>
       <c r="H44" s="153">
         <v>5</v>
@@ -7625,9 +7625,9 @@
       <c r="A45" s="144"/>
       <c r="B45" s="144"/>
       <c r="C45" s="165"/>
-      <c r="D45" s="218"/>
-      <c r="E45" s="216"/>
-      <c r="F45" s="216"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="182"/>
+      <c r="F45" s="182"/>
       <c r="G45" s="165"/>
       <c r="J45" s="167">
         <v>5.0999999999999996</v>
@@ -7640,9 +7640,9 @@
       <c r="A46" s="144"/>
       <c r="B46" s="144"/>
       <c r="C46" s="165"/>
-      <c r="D46" s="218"/>
-      <c r="E46" s="216"/>
-      <c r="F46" s="216"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="182"/>
+      <c r="F46" s="182"/>
       <c r="G46" s="165"/>
       <c r="J46" s="167">
         <v>5.2</v>
@@ -7655,9 +7655,9 @@
       <c r="A47" s="144"/>
       <c r="B47" s="144"/>
       <c r="C47" s="165"/>
-      <c r="D47" s="218"/>
-      <c r="E47" s="216"/>
-      <c r="F47" s="216"/>
+      <c r="D47" s="184"/>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
       <c r="G47" s="165"/>
       <c r="J47" s="167">
         <v>5.3</v>
@@ -7670,9 +7670,9 @@
       <c r="A48" s="144"/>
       <c r="B48" s="144"/>
       <c r="C48" s="165"/>
-      <c r="D48" s="218"/>
-      <c r="E48" s="216"/>
-      <c r="F48" s="216"/>
+      <c r="D48" s="184"/>
+      <c r="E48" s="182"/>
+      <c r="F48" s="182"/>
       <c r="G48" s="165"/>
       <c r="J48" s="167">
         <v>5.4</v>
@@ -7685,9 +7685,9 @@
       <c r="A49" s="144"/>
       <c r="B49" s="144"/>
       <c r="C49" s="165"/>
-      <c r="D49" s="218"/>
-      <c r="E49" s="216"/>
-      <c r="F49" s="216"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="182"/>
+      <c r="F49" s="182"/>
       <c r="G49" s="165"/>
       <c r="K49" s="169"/>
       <c r="L49" s="169"/>
@@ -7696,9 +7696,9 @@
       <c r="A50" s="144"/>
       <c r="B50" s="144"/>
       <c r="C50" s="165"/>
-      <c r="D50" s="218"/>
-      <c r="E50" s="216"/>
-      <c r="F50" s="216"/>
+      <c r="D50" s="184"/>
+      <c r="E50" s="182"/>
+      <c r="F50" s="182"/>
       <c r="G50" s="165"/>
       <c r="H50" s="153">
         <v>6</v>
@@ -7717,11 +7717,11 @@
       <c r="C51" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="D51" s="218" t="s">
+      <c r="D51" s="184" t="s">
         <v>390</v>
       </c>
-      <c r="E51" s="216"/>
-      <c r="F51" s="216" t="s">
+      <c r="E51" s="182"/>
+      <c r="F51" s="182" t="s">
         <v>391</v>
       </c>
       <c r="G51" s="165" t="s">
@@ -7739,9 +7739,9 @@
       <c r="A52" s="144"/>
       <c r="B52" s="144"/>
       <c r="C52" s="165"/>
-      <c r="D52" s="218"/>
-      <c r="E52" s="216"/>
-      <c r="F52" s="216"/>
+      <c r="D52" s="184"/>
+      <c r="E52" s="182"/>
+      <c r="F52" s="182"/>
       <c r="G52" s="165"/>
       <c r="K52" s="169"/>
       <c r="L52" s="169"/>
@@ -7750,9 +7750,9 @@
       <c r="A53" s="144"/>
       <c r="B53" s="144"/>
       <c r="C53" s="165"/>
-      <c r="D53" s="218"/>
-      <c r="E53" s="216"/>
-      <c r="F53" s="216"/>
+      <c r="D53" s="184"/>
+      <c r="E53" s="182"/>
+      <c r="F53" s="182"/>
       <c r="G53" s="165"/>
       <c r="H53" s="153">
         <v>7</v>
@@ -7767,9 +7767,9 @@
       <c r="A54" s="144"/>
       <c r="B54" s="144"/>
       <c r="C54" s="165"/>
-      <c r="D54" s="218"/>
-      <c r="E54" s="216"/>
-      <c r="F54" s="216"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="182"/>
+      <c r="F54" s="182"/>
       <c r="G54" s="165"/>
       <c r="J54" s="143">
         <v>7.1</v>
@@ -7783,9 +7783,9 @@
       <c r="A55" s="144"/>
       <c r="B55" s="144"/>
       <c r="C55" s="165"/>
-      <c r="D55" s="218"/>
-      <c r="E55" s="216"/>
-      <c r="F55" s="216"/>
+      <c r="D55" s="184"/>
+      <c r="E55" s="182"/>
+      <c r="F55" s="182"/>
       <c r="G55" s="165"/>
       <c r="J55" s="143">
         <v>7.2</v>
@@ -7799,9 +7799,9 @@
       <c r="A56" s="144"/>
       <c r="B56" s="144"/>
       <c r="C56" s="165"/>
-      <c r="D56" s="218"/>
-      <c r="E56" s="216"/>
-      <c r="F56" s="216"/>
+      <c r="D56" s="184"/>
+      <c r="E56" s="182"/>
+      <c r="F56" s="182"/>
       <c r="G56" s="165"/>
       <c r="J56" s="143">
         <v>7.3</v>
@@ -7815,9 +7815,9 @@
       <c r="A57" s="144"/>
       <c r="B57" s="144"/>
       <c r="C57" s="165"/>
-      <c r="D57" s="218"/>
-      <c r="E57" s="216"/>
-      <c r="F57" s="216"/>
+      <c r="D57" s="184"/>
+      <c r="E57" s="182"/>
+      <c r="F57" s="182"/>
       <c r="G57" s="165"/>
       <c r="K57" s="169"/>
       <c r="L57" s="169"/>
@@ -7826,9 +7826,9 @@
       <c r="A58" s="144"/>
       <c r="B58" s="144"/>
       <c r="C58" s="165"/>
-      <c r="D58" s="218"/>
-      <c r="E58" s="216"/>
-      <c r="F58" s="216"/>
+      <c r="D58" s="184"/>
+      <c r="E58" s="182"/>
+      <c r="F58" s="182"/>
       <c r="G58" s="165"/>
       <c r="H58" s="150"/>
       <c r="I58" s="167" t="s">
@@ -7842,11 +7842,11 @@
       <c r="A59" s="144"/>
       <c r="B59" s="144"/>
       <c r="C59" s="165"/>
-      <c r="D59" s="218"/>
-      <c r="E59" s="216" t="s">
+      <c r="D59" s="184"/>
+      <c r="E59" s="182" t="s">
         <v>407</v>
       </c>
-      <c r="F59" s="216" t="s">
+      <c r="F59" s="182" t="s">
         <v>393</v>
       </c>
       <c r="G59" s="165"/>
@@ -7860,9 +7860,9 @@
       <c r="A60" s="144"/>
       <c r="B60" s="144"/>
       <c r="C60" s="165"/>
-      <c r="D60" s="218"/>
-      <c r="E60" s="216"/>
-      <c r="F60" s="216"/>
+      <c r="D60" s="184"/>
+      <c r="E60" s="182"/>
+      <c r="F60" s="182"/>
       <c r="G60" s="165"/>
       <c r="J60" s="167"/>
       <c r="K60" s="167" t="s">
@@ -7874,9 +7874,9 @@
       <c r="A61" s="144"/>
       <c r="B61" s="144"/>
       <c r="C61" s="165"/>
-      <c r="D61" s="218"/>
-      <c r="E61" s="216"/>
-      <c r="F61" s="216"/>
+      <c r="D61" s="184"/>
+      <c r="E61" s="182"/>
+      <c r="F61" s="182"/>
       <c r="G61" s="165"/>
       <c r="J61" s="169"/>
       <c r="K61" s="169"/>
@@ -7888,9 +7888,9 @@
       <c r="A62" s="144"/>
       <c r="B62" s="144"/>
       <c r="C62" s="165"/>
-      <c r="D62" s="218"/>
-      <c r="E62" s="216"/>
-      <c r="F62" s="216"/>
+      <c r="D62" s="184"/>
+      <c r="E62" s="182"/>
+      <c r="F62" s="182"/>
       <c r="G62" s="165"/>
       <c r="J62" s="169"/>
       <c r="K62" s="169"/>
@@ -7902,18 +7902,18 @@
       <c r="A63" s="144"/>
       <c r="B63" s="144"/>
       <c r="C63" s="165"/>
-      <c r="D63" s="218"/>
-      <c r="E63" s="216"/>
-      <c r="F63" s="216"/>
+      <c r="D63" s="184"/>
+      <c r="E63" s="182"/>
+      <c r="F63" s="182"/>
       <c r="G63" s="165"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="144"/>
       <c r="B64" s="144"/>
       <c r="C64" s="165"/>
-      <c r="D64" s="218"/>
-      <c r="E64" s="216"/>
-      <c r="F64" s="216"/>
+      <c r="D64" s="184"/>
+      <c r="E64" s="182"/>
+      <c r="F64" s="182"/>
       <c r="G64" s="165"/>
       <c r="H64" s="150"/>
       <c r="I64" s="167" t="s">
@@ -7931,13 +7931,13 @@
         <v>395</v>
       </c>
       <c r="C65" s="165"/>
-      <c r="D65" s="218" t="s">
+      <c r="D65" s="184" t="s">
         <v>396</v>
       </c>
-      <c r="E65" s="216" t="s">
+      <c r="E65" s="182" t="s">
         <v>397</v>
       </c>
-      <c r="F65" s="216" t="s">
+      <c r="F65" s="182" t="s">
         <v>398</v>
       </c>
       <c r="G65" s="165" t="s">
@@ -7955,12 +7955,12 @@
         <v>404</v>
       </c>
       <c r="C66" s="165"/>
-      <c r="D66" s="218"/>
-      <c r="E66" s="216"/>
-      <c r="F66" s="216" t="s">
+      <c r="D66" s="184"/>
+      <c r="E66" s="182"/>
+      <c r="F66" s="182" t="s">
         <v>408</v>
       </c>
-      <c r="G66" s="214" t="s">
+      <c r="G66" s="180" t="s">
         <v>413</v>
       </c>
       <c r="J66" s="169"/>
@@ -7970,7 +7970,7 @@
       <c r="M66" s="151"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="C67" s="214"/>
+      <c r="C67" s="180"/>
       <c r="D67" s="160"/>
       <c r="E67" s="162"/>
       <c r="F67" s="162"/>
@@ -7981,7 +7981,7 @@
       <c r="M67" s="151"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="C68" s="214"/>
+      <c r="C68" s="180"/>
       <c r="D68" s="160"/>
       <c r="E68" s="162"/>
       <c r="F68" s="162"/>
@@ -8110,16 +8110,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="217" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="213"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="219"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" thickBot="1">
       <c r="A2" s="128" t="s">
